--- a/Scrum-Project-Management.xlsx
+++ b/Scrum-Project-Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cursos 9no semestre\Taller de proyectos 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cursos 9no semestre\Taller de proyectos 1\IDEA-PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA18670F-470A-4B1D-85FF-3C5E6BA5C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3811CC63-30A2-4612-962D-9E0DD8643056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LO Diagrama de Gantt y Burndown" sheetId="1" r:id="rId1"/>
@@ -2472,6 +2472,34 @@
     <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2492,7 +2520,6 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2500,8 +2527,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,31 +2545,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5383,9 +5383,9 @@
   </sheetPr>
   <dimension ref="A1:BV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -5509,7 +5509,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="236" t="s">
+      <c r="K3" s="250" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="42" t="s">
@@ -5588,7 +5588,7 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="237"/>
+      <c r="K4" s="251"/>
       <c r="L4" s="47" t="s">
         <v>3</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="237"/>
+      <c r="K5" s="251"/>
       <c r="L5" s="52" t="s">
         <v>4</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="237"/>
+      <c r="K6" s="251"/>
       <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="238"/>
+      <c r="K7" s="252"/>
       <c r="L7" s="56" t="s">
         <v>6</v>
       </c>
@@ -5887,122 +5887,122 @@
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="1:74" ht="23.1" customHeight="1">
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="261" t="s">
+      <c r="C8" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="257" t="s">
+      <c r="D8" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="255" t="s">
+      <c r="F8" s="248"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="259" t="s">
+      <c r="I8" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="260" t="s">
+      <c r="J8" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="239" t="s">
+      <c r="K8" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="241" t="s">
+      <c r="L8" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="243" t="s">
+      <c r="M8" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="244"/>
-      <c r="O8" s="244"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="246" t="s">
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="244"/>
-      <c r="V8" s="245"/>
-      <c r="W8" s="246" t="s">
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="232"/>
+      <c r="W8" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
-      <c r="Z8" s="244"/>
-      <c r="AA8" s="245"/>
-      <c r="AB8" s="248" t="s">
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="232"/>
+      <c r="AB8" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="244"/>
-      <c r="AD8" s="244"/>
-      <c r="AE8" s="244"/>
-      <c r="AF8" s="245"/>
-      <c r="AG8" s="249" t="s">
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="231"/>
+      <c r="AF8" s="232"/>
+      <c r="AG8" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="244"/>
-      <c r="AI8" s="244"/>
-      <c r="AJ8" s="244"/>
-      <c r="AK8" s="245"/>
-      <c r="AL8" s="249" t="s">
+      <c r="AH8" s="231"/>
+      <c r="AI8" s="231"/>
+      <c r="AJ8" s="231"/>
+      <c r="AK8" s="232"/>
+      <c r="AL8" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="AM8" s="244"/>
-      <c r="AN8" s="244"/>
-      <c r="AO8" s="244"/>
-      <c r="AP8" s="245"/>
-      <c r="AQ8" s="247" t="s">
+      <c r="AM8" s="231"/>
+      <c r="AN8" s="231"/>
+      <c r="AO8" s="231"/>
+      <c r="AP8" s="232"/>
+      <c r="AQ8" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="244"/>
-      <c r="AS8" s="244"/>
-      <c r="AT8" s="244"/>
-      <c r="AU8" s="245"/>
-      <c r="AV8" s="250" t="s">
+      <c r="AR8" s="231"/>
+      <c r="AS8" s="231"/>
+      <c r="AT8" s="231"/>
+      <c r="AU8" s="232"/>
+      <c r="AV8" s="261" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="244"/>
-      <c r="AX8" s="244"/>
-      <c r="AY8" s="244"/>
-      <c r="AZ8" s="245"/>
-      <c r="BA8" s="250" t="s">
+      <c r="AW8" s="231"/>
+      <c r="AX8" s="231"/>
+      <c r="AY8" s="231"/>
+      <c r="AZ8" s="232"/>
+      <c r="BA8" s="261" t="s">
         <v>24</v>
       </c>
-      <c r="BB8" s="244"/>
-      <c r="BC8" s="244"/>
-      <c r="BD8" s="244"/>
-      <c r="BE8" s="245"/>
-      <c r="BF8" s="251" t="s">
+      <c r="BB8" s="231"/>
+      <c r="BC8" s="231"/>
+      <c r="BD8" s="231"/>
+      <c r="BE8" s="232"/>
+      <c r="BF8" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="244"/>
-      <c r="BH8" s="244"/>
-      <c r="BI8" s="244"/>
-      <c r="BJ8" s="245"/>
-      <c r="BK8" s="252"/>
-      <c r="BL8" s="244"/>
-      <c r="BM8" s="244"/>
-      <c r="BN8" s="244"/>
-      <c r="BO8" s="245"/>
-      <c r="BP8" s="252"/>
-      <c r="BQ8" s="244"/>
-      <c r="BR8" s="244"/>
-      <c r="BS8" s="244"/>
-      <c r="BT8" s="245"/>
+      <c r="BG8" s="231"/>
+      <c r="BH8" s="231"/>
+      <c r="BI8" s="231"/>
+      <c r="BJ8" s="232"/>
+      <c r="BK8" s="230"/>
+      <c r="BL8" s="231"/>
+      <c r="BM8" s="231"/>
+      <c r="BN8" s="231"/>
+      <c r="BO8" s="232"/>
+      <c r="BP8" s="230"/>
+      <c r="BQ8" s="231"/>
+      <c r="BR8" s="231"/>
+      <c r="BS8" s="231"/>
+      <c r="BT8" s="232"/>
       <c r="BU8" s="38"/>
       <c r="BV8" s="39"/>
     </row>
     <row r="9" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B9" s="254"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="258"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="58" t="s">
         <v>28</v>
       </c>
@@ -6012,11 +6012,11 @@
       <c r="G9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="256"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="242"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="241"/>
+      <c r="L9" s="255"/>
       <c r="M9" s="61" t="s">
         <v>31</v>
       </c>
@@ -8487,12 +8487,10 @@
         <v>4</v>
       </c>
       <c r="F35" s="198">
-        <f>SUM(F36:F39)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="199">
-        <f>SUM(G36:G39)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="200"/>
       <c r="I35" s="206">
@@ -8507,7 +8505,7 @@
       </c>
       <c r="L35" s="201">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="74"/>
@@ -8677,11 +8675,11 @@
         <v>1</v>
       </c>
       <c r="F37" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="155">
         <f>E37-F37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="212"/>
       <c r="I37" s="157"/>
@@ -8689,7 +8687,7 @@
       <c r="K37" s="213"/>
       <c r="L37" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="73"/>
       <c r="N37" s="74"/>
@@ -8768,11 +8766,11 @@
         <v>1</v>
       </c>
       <c r="F38" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="155">
         <f>E38-F38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="212"/>
       <c r="I38" s="157"/>
@@ -8780,7 +8778,7 @@
       <c r="K38" s="213"/>
       <c r="L38" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="73"/>
       <c r="N38" s="74"/>
@@ -8859,11 +8857,11 @@
         <v>1</v>
       </c>
       <c r="F39" s="220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="190">
         <f>E39-F39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="221"/>
       <c r="I39" s="222"/>
@@ -8871,7 +8869,7 @@
       <c r="K39" s="214"/>
       <c r="L39" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="73"/>
       <c r="N39" s="74"/>
@@ -9035,11 +9033,11 @@
       </c>
       <c r="F41" s="216">
         <f>SUM(F11:F14,F16:F19,F21:F24,F26:F29,F31:F34,F36:F39)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G41" s="216">
         <f>SUM(G11:G14,G16:G19,G21:G24,G26:G29,G31:G34,G36:G39)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H41" s="217">
         <v>7</v>
@@ -9541,89 +9539,82 @@
     <row r="47" spans="2:74" ht="381.95" customHeight="1"/>
     <row r="48" spans="2:74" ht="216.95" customHeight="1"/>
     <row r="50" spans="2:74" ht="50.1" customHeight="1">
-      <c r="B50" s="230"/>
-      <c r="C50" s="231"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="231"/>
-      <c r="F50" s="231"/>
-      <c r="G50" s="231"/>
-      <c r="H50" s="231"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="231"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="231"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="231"/>
-      <c r="O50" s="231"/>
-      <c r="P50" s="231"/>
-      <c r="Q50" s="231"/>
-      <c r="R50" s="231"/>
-      <c r="S50" s="231"/>
-      <c r="T50" s="231"/>
-      <c r="U50" s="231"/>
-      <c r="V50" s="231"/>
-      <c r="W50" s="231"/>
-      <c r="X50" s="231"/>
-      <c r="Y50" s="231"/>
-      <c r="Z50" s="231"/>
-      <c r="AA50" s="231"/>
-      <c r="AB50" s="231"/>
-      <c r="AC50" s="231"/>
-      <c r="AD50" s="231"/>
-      <c r="AE50" s="231"/>
-      <c r="AF50" s="231"/>
-      <c r="AG50" s="231"/>
-      <c r="AH50" s="231"/>
-      <c r="AI50" s="231"/>
-      <c r="AJ50" s="231"/>
-      <c r="AK50" s="231"/>
-      <c r="AL50" s="231"/>
-      <c r="AM50" s="231"/>
-      <c r="AN50" s="231"/>
-      <c r="AO50" s="231"/>
-      <c r="AP50" s="231"/>
-      <c r="AQ50" s="231"/>
-      <c r="AR50" s="231"/>
-      <c r="AS50" s="231"/>
-      <c r="AT50" s="231"/>
-      <c r="AU50" s="231"/>
-      <c r="AV50" s="231"/>
-      <c r="AW50" s="231"/>
-      <c r="AX50" s="231"/>
-      <c r="AY50" s="231"/>
-      <c r="AZ50" s="231"/>
-      <c r="BA50" s="231"/>
-      <c r="BB50" s="231"/>
-      <c r="BC50" s="231"/>
-      <c r="BD50" s="231"/>
-      <c r="BE50" s="231"/>
-      <c r="BF50" s="231"/>
-      <c r="BG50" s="231"/>
-      <c r="BH50" s="231"/>
-      <c r="BI50" s="231"/>
-      <c r="BJ50" s="231"/>
-      <c r="BK50" s="231"/>
-      <c r="BL50" s="231"/>
-      <c r="BM50" s="231"/>
-      <c r="BN50" s="231"/>
-      <c r="BO50" s="231"/>
-      <c r="BP50" s="231"/>
-      <c r="BQ50" s="231"/>
-      <c r="BR50" s="231"/>
-      <c r="BS50" s="231"/>
-      <c r="BT50" s="231"/>
-      <c r="BU50" s="231"/>
-      <c r="BV50" s="232"/>
+      <c r="B50" s="244"/>
+      <c r="C50" s="245"/>
+      <c r="D50" s="245"/>
+      <c r="E50" s="245"/>
+      <c r="F50" s="245"/>
+      <c r="G50" s="245"/>
+      <c r="H50" s="245"/>
+      <c r="I50" s="245"/>
+      <c r="J50" s="245"/>
+      <c r="K50" s="245"/>
+      <c r="L50" s="245"/>
+      <c r="M50" s="245"/>
+      <c r="N50" s="245"/>
+      <c r="O50" s="245"/>
+      <c r="P50" s="245"/>
+      <c r="Q50" s="245"/>
+      <c r="R50" s="245"/>
+      <c r="S50" s="245"/>
+      <c r="T50" s="245"/>
+      <c r="U50" s="245"/>
+      <c r="V50" s="245"/>
+      <c r="W50" s="245"/>
+      <c r="X50" s="245"/>
+      <c r="Y50" s="245"/>
+      <c r="Z50" s="245"/>
+      <c r="AA50" s="245"/>
+      <c r="AB50" s="245"/>
+      <c r="AC50" s="245"/>
+      <c r="AD50" s="245"/>
+      <c r="AE50" s="245"/>
+      <c r="AF50" s="245"/>
+      <c r="AG50" s="245"/>
+      <c r="AH50" s="245"/>
+      <c r="AI50" s="245"/>
+      <c r="AJ50" s="245"/>
+      <c r="AK50" s="245"/>
+      <c r="AL50" s="245"/>
+      <c r="AM50" s="245"/>
+      <c r="AN50" s="245"/>
+      <c r="AO50" s="245"/>
+      <c r="AP50" s="245"/>
+      <c r="AQ50" s="245"/>
+      <c r="AR50" s="245"/>
+      <c r="AS50" s="245"/>
+      <c r="AT50" s="245"/>
+      <c r="AU50" s="245"/>
+      <c r="AV50" s="245"/>
+      <c r="AW50" s="245"/>
+      <c r="AX50" s="245"/>
+      <c r="AY50" s="245"/>
+      <c r="AZ50" s="245"/>
+      <c r="BA50" s="245"/>
+      <c r="BB50" s="245"/>
+      <c r="BC50" s="245"/>
+      <c r="BD50" s="245"/>
+      <c r="BE50" s="245"/>
+      <c r="BF50" s="245"/>
+      <c r="BG50" s="245"/>
+      <c r="BH50" s="245"/>
+      <c r="BI50" s="245"/>
+      <c r="BJ50" s="245"/>
+      <c r="BK50" s="245"/>
+      <c r="BL50" s="245"/>
+      <c r="BM50" s="245"/>
+      <c r="BN50" s="245"/>
+      <c r="BO50" s="245"/>
+      <c r="BP50" s="245"/>
+      <c r="BQ50" s="245"/>
+      <c r="BR50" s="245"/>
+      <c r="BS50" s="245"/>
+      <c r="BT50" s="245"/>
+      <c r="BU50" s="245"/>
+      <c r="BV50" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B50:BV50"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="K3:K7"/>
@@ -9640,6 +9631,13 @@
     <mergeCell ref="BA8:BE8"/>
     <mergeCell ref="BF8:BJ8"/>
     <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="L10">
@@ -9754,8 +9752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097109D2-447F-4F39-A4BD-92E74C4EFF49}">
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -9846,10 +9844,10 @@
         <v>127</v>
       </c>
       <c r="C9" s="209"/>
-      <c r="D9" s="228" t="s">
+      <c r="D9" s="209"/>
+      <c r="E9" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="209"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9972,7 +9970,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="236" t="s">
+      <c r="K2" s="250" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="42" t="s">
@@ -10051,7 +10049,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="237"/>
+      <c r="K3" s="251"/>
       <c r="L3" s="47" t="s">
         <v>3</v>
       </c>
@@ -10128,7 +10126,7 @@
       <c r="H4" s="37"/>
       <c r="I4" s="36"/>
       <c r="J4" s="37"/>
-      <c r="K4" s="237"/>
+      <c r="K4" s="251"/>
       <c r="L4" s="52" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +10203,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="237"/>
+      <c r="K5" s="251"/>
       <c r="L5" s="54" t="s">
         <v>5</v>
       </c>
@@ -10282,7 +10280,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="238"/>
+      <c r="K6" s="252"/>
       <c r="L6" s="56" t="s">
         <v>6</v>
       </c>
@@ -10350,126 +10348,126 @@
       <c r="BV6" s="39"/>
     </row>
     <row r="7" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="261" t="s">
+      <c r="C7" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="257" t="s">
+      <c r="D7" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="233" t="s">
+      <c r="E7" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="234"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="255" t="s">
+      <c r="F7" s="248"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="259" t="s">
+      <c r="I7" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="260" t="s">
+      <c r="J7" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="239" t="s">
+      <c r="K7" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="241" t="s">
+      <c r="L7" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="243" t="s">
+      <c r="M7" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="244"/>
-      <c r="O7" s="244"/>
-      <c r="P7" s="244"/>
-      <c r="Q7" s="245"/>
-      <c r="R7" s="246" t="s">
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="231"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="244"/>
-      <c r="T7" s="244"/>
-      <c r="U7" s="244"/>
-      <c r="V7" s="245"/>
-      <c r="W7" s="246" t="s">
+      <c r="S7" s="231"/>
+      <c r="T7" s="231"/>
+      <c r="U7" s="231"/>
+      <c r="V7" s="232"/>
+      <c r="W7" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="244"/>
-      <c r="Y7" s="244"/>
-      <c r="Z7" s="244"/>
-      <c r="AA7" s="245"/>
-      <c r="AB7" s="248" t="s">
+      <c r="X7" s="231"/>
+      <c r="Y7" s="231"/>
+      <c r="Z7" s="231"/>
+      <c r="AA7" s="232"/>
+      <c r="AB7" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="244"/>
-      <c r="AD7" s="244"/>
-      <c r="AE7" s="244"/>
-      <c r="AF7" s="245"/>
-      <c r="AG7" s="249" t="s">
+      <c r="AC7" s="231"/>
+      <c r="AD7" s="231"/>
+      <c r="AE7" s="231"/>
+      <c r="AF7" s="232"/>
+      <c r="AG7" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" s="244"/>
-      <c r="AI7" s="244"/>
-      <c r="AJ7" s="244"/>
-      <c r="AK7" s="245"/>
-      <c r="AL7" s="249" t="s">
+      <c r="AH7" s="231"/>
+      <c r="AI7" s="231"/>
+      <c r="AJ7" s="231"/>
+      <c r="AK7" s="232"/>
+      <c r="AL7" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="AM7" s="244"/>
-      <c r="AN7" s="244"/>
-      <c r="AO7" s="244"/>
-      <c r="AP7" s="245"/>
-      <c r="AQ7" s="247" t="s">
+      <c r="AM7" s="231"/>
+      <c r="AN7" s="231"/>
+      <c r="AO7" s="231"/>
+      <c r="AP7" s="232"/>
+      <c r="AQ7" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="AR7" s="244"/>
-      <c r="AS7" s="244"/>
-      <c r="AT7" s="244"/>
-      <c r="AU7" s="245"/>
-      <c r="AV7" s="250" t="s">
+      <c r="AR7" s="231"/>
+      <c r="AS7" s="231"/>
+      <c r="AT7" s="231"/>
+      <c r="AU7" s="232"/>
+      <c r="AV7" s="261" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="244"/>
-      <c r="AX7" s="244"/>
-      <c r="AY7" s="244"/>
-      <c r="AZ7" s="245"/>
-      <c r="BA7" s="250" t="s">
+      <c r="AW7" s="231"/>
+      <c r="AX7" s="231"/>
+      <c r="AY7" s="231"/>
+      <c r="AZ7" s="232"/>
+      <c r="BA7" s="261" t="s">
         <v>24</v>
       </c>
-      <c r="BB7" s="244"/>
-      <c r="BC7" s="244"/>
-      <c r="BD7" s="244"/>
-      <c r="BE7" s="245"/>
-      <c r="BF7" s="251" t="s">
+      <c r="BB7" s="231"/>
+      <c r="BC7" s="231"/>
+      <c r="BD7" s="231"/>
+      <c r="BE7" s="232"/>
+      <c r="BF7" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="BG7" s="244"/>
-      <c r="BH7" s="244"/>
-      <c r="BI7" s="244"/>
-      <c r="BJ7" s="245"/>
+      <c r="BG7" s="231"/>
+      <c r="BH7" s="231"/>
+      <c r="BI7" s="231"/>
+      <c r="BJ7" s="232"/>
       <c r="BK7" s="263" t="s">
         <v>26</v>
       </c>
-      <c r="BL7" s="244"/>
-      <c r="BM7" s="244"/>
-      <c r="BN7" s="244"/>
-      <c r="BO7" s="245"/>
+      <c r="BL7" s="231"/>
+      <c r="BM7" s="231"/>
+      <c r="BN7" s="231"/>
+      <c r="BO7" s="232"/>
       <c r="BP7" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="BQ7" s="244"/>
-      <c r="BR7" s="244"/>
-      <c r="BS7" s="244"/>
-      <c r="BT7" s="245"/>
+      <c r="BQ7" s="231"/>
+      <c r="BR7" s="231"/>
+      <c r="BS7" s="231"/>
+      <c r="BT7" s="232"/>
       <c r="BU7" s="38"/>
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="254"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="258"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
@@ -10479,11 +10477,11 @@
       <c r="G8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="256"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="242"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="255"/>
       <c r="M8" s="61" t="s">
         <v>31</v>
       </c>
@@ -14003,6 +14001,13 @@
     <row r="42" spans="2:74" ht="216.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="BK7:BO7"/>
     <mergeCell ref="AG7:AK7"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="B7:B8"/>
@@ -14018,13 +14023,6 @@
     <mergeCell ref="R7:V7"/>
     <mergeCell ref="W7:AA7"/>
     <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BJ7"/>
-    <mergeCell ref="BK7:BO7"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:L33">
     <cfRule type="dataBar" priority="1">

--- a/Scrum-Project-Management.xlsx
+++ b/Scrum-Project-Management.xlsx
@@ -1,43 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cursos 9no semestre\Taller de proyectos 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\IDEA-PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA18670F-470A-4B1D-85FF-3C5E6BA5C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54E34D4-3BF2-4680-A2F6-328C01220DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LO Diagrama de Gantt y Burndown" sheetId="1" r:id="rId1"/>
-    <sheet name="Post-It" sheetId="6" r:id="rId2"/>
-    <sheet name="a de Gantt en blanco y burndown" sheetId="2" r:id="rId3"/>
-    <sheet name="Backlog de lanzamientos" sheetId="3" r:id="rId4"/>
-    <sheet name="Historias de usuario o tareas" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="7" r:id="rId2"/>
+    <sheet name="Post-It" sheetId="6" r:id="rId3"/>
+    <sheet name="a de Gantt en blanco y burndown" sheetId="2" r:id="rId4"/>
+    <sheet name="Backlog de lanzamientos" sheetId="3" r:id="rId5"/>
+    <sheet name="Historias de usuario o tareas" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'a de Gantt en blanco y burndown'!$B$1:$BV$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Backlog de lanzamientos'!$B$1:$J$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Historias de usuario o tareas'!$B$1:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LO Diagrama de Gantt y Burndown'!$B$1:$BV$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'a de Gantt en blanco y burndown'!$B$1:$BV$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Backlog de lanzamientos'!$B$1:$J$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Historias de usuario o tareas'!$B$1:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint 1'!$B$1:$BV$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sprint 2'!$B$1:$BV$48</definedName>
     <definedName name="Interval">'[1]Office Work Schedule'!#REF!</definedName>
     <definedName name="ScheduleStart">'[1]Office Work Schedule'!#REF!</definedName>
     <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="162">
   <si>
     <t>DIAGRAMA DE GANTT Y BURNDOWN</t>
   </si>
@@ -433,6 +446,96 @@
   </si>
   <si>
     <t>Implementación de sistema de visión por computadora con CNN para diagnóstico de enfermedades en hojas de cultivos andinos en comunidades de Cusco</t>
+  </si>
+  <si>
+    <t>HU-6: Detección de cultivo (12h)</t>
+  </si>
+  <si>
+    <t>HU-7: Diagnóstico específico por enfermedad (16h)</t>
+  </si>
+  <si>
+    <t>HU-9: Interfaz web (12h)</t>
+  </si>
+  <si>
+    <t>HU-10: Subida intuitiva de imágenes (4h)</t>
+  </si>
+  <si>
+    <t>HU-16: Recomendaciones básicas (8h)</t>
+  </si>
+  <si>
+    <t>HU-15: Ejemplos visuales (4h)</t>
+  </si>
+  <si>
+    <t>Implementar clasificación multiclase (papa/maíz/quinua).</t>
+  </si>
+  <si>
+    <t>Entrenar CNN ampliada.</t>
+  </si>
+  <si>
+    <t>Validar precisión por cultivo.</t>
+  </si>
+  <si>
+    <t>Guardar pesos entrenados.</t>
+  </si>
+  <si>
+    <t>Ampliar clases a enfermedades comunes (ej. tizón, mildiu).</t>
+  </si>
+  <si>
+    <t>Entrenar modelo con dataset etiquetado.</t>
+  </si>
+  <si>
+    <t>Validar métricas de precisión por enfermedad.</t>
+  </si>
+  <si>
+    <t>Generar matriz de confusión inicial.</t>
+  </si>
+  <si>
+    <t>Diseñar frontend básico con HTML/CSS/Flask/Django.</t>
+  </si>
+  <si>
+    <t>Integrar formulario para subir imágenes.</t>
+  </si>
+  <si>
+    <t>Conectar backend con modelo CNN.</t>
+  </si>
+  <si>
+    <t>Mostrar resultados en la web.</t>
+  </si>
+  <si>
+    <t>Implementar arrastrar y soltar.</t>
+  </si>
+  <si>
+    <t>Permitir subida desde archivos locales.</t>
+  </si>
+  <si>
+    <t>Validar formato de imágenes (jpg, png).</t>
+  </si>
+  <si>
+    <t>Mostrar preview de la imagen.</t>
+  </si>
+  <si>
+    <t>Asociar recomendaciones generales a enfermedades.</t>
+  </si>
+  <si>
+    <t>Mostrar consejos simples en interfaz.</t>
+  </si>
+  <si>
+    <t>Validar con diagnóstico previo.</t>
+  </si>
+  <si>
+    <t>Crear base inicial de conocimientos.</t>
+  </si>
+  <si>
+    <t>Incluir imágenes de hojas sanas/enfermas.</t>
+  </si>
+  <si>
+    <t>Mostrar junto al diagnóstico.</t>
+  </si>
+  <si>
+    <t>Validar con dataset de referencia.</t>
+  </si>
+  <si>
+    <t>Asegurar legibilidad en interfaz.</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +2006,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="32" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2472,6 +2575,38 @@
     <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2492,7 +2627,6 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2500,8 +2634,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,31 +2652,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,7 +2746,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$44</c:f>
+              <c:f>'Sprint 1'!$L$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2715,7 +2822,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$41:$BT$41</c:f>
+              <c:f>'Sprint 1'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2745,7 +2852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$44:$BT$44</c:f>
+              <c:f>'Sprint 1'!$M$44:$BT$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2759,16 +2866,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,7 +2906,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$42</c:f>
+              <c:f>'Sprint 1'!$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2822,7 +2929,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$41:$BT$41</c:f>
+              <c:f>'Sprint 1'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2852,7 +2959,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$42:$BT$42</c:f>
+              <c:f>'Sprint 1'!$M$42:$BT$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2892,7 +2999,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$43</c:f>
+              <c:f>'Sprint 1'!$L$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2915,7 +3022,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$41:$BT$41</c:f>
+              <c:f>'Sprint 1'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2945,7 +3052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$43:$BT$43</c:f>
+              <c:f>'Sprint 1'!$M$43:$BT$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2962,13 +3069,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,7 +3092,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$45</c:f>
+              <c:f>'Sprint 1'!$L$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3008,7 +3115,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$41:$BT$41</c:f>
+              <c:f>'Sprint 1'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3038,7 +3145,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$45:$BT$45</c:f>
+              <c:f>'Sprint 1'!$M$45:$BT$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3052,16 +3159,16 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,6 +3408,693 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$L$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRS COMPLETADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$41:$BT$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$44:$BT$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39E2-45E5-93C5-BF0A3F7E8B04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="72"/>
+        <c:axId val="1150741088"/>
+        <c:axId val="1179485168"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$L$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PLAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$41:$BT$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$42:$BT$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39E2-45E5-93C5-BF0A3F7E8B04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESTIMAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$41:$BT$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$43:$BT$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-39E2-45E5-93C5-BF0A3F7E8B04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRS RESTANTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$41:$BT$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$M$45:$BT$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-39E2-45E5-93C5-BF0A3F7E8B04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1180770320"/>
+        <c:axId val="1180774800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1150741088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1179485168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1179485168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150741088"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1180770320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180774800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1180774800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180770320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5121,6 +5915,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55770</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119269</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1990725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B822E576-63AA-44EA-A852-0E0E3FB07433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -5159,7 +5996,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Office Work Schedule"/>
@@ -5172,7 +6009,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Maintenance Work Order"/>
@@ -5383,9 +6220,9 @@
   </sheetPr>
   <dimension ref="A1:BV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -5509,7 +6346,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="236" t="s">
+      <c r="K3" s="252" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="42" t="s">
@@ -5588,7 +6425,7 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="237"/>
+      <c r="K4" s="253"/>
       <c r="L4" s="47" t="s">
         <v>3</v>
       </c>
@@ -5665,7 +6502,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="237"/>
+      <c r="K5" s="253"/>
       <c r="L5" s="52" t="s">
         <v>4</v>
       </c>
@@ -5742,7 +6579,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="237"/>
+      <c r="K6" s="253"/>
       <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
@@ -5819,7 +6656,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="238"/>
+      <c r="K7" s="254"/>
       <c r="L7" s="56" t="s">
         <v>6</v>
       </c>
@@ -5887,122 +6724,122 @@
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="1:74" ht="23.1" customHeight="1">
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="261" t="s">
+      <c r="C8" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="257" t="s">
+      <c r="D8" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="255" t="s">
+      <c r="F8" s="250"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="259" t="s">
+      <c r="I8" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="260" t="s">
+      <c r="J8" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="239" t="s">
+      <c r="K8" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="241" t="s">
+      <c r="L8" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="243" t="s">
+      <c r="M8" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="244"/>
-      <c r="O8" s="244"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="246" t="s">
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="233"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="244"/>
-      <c r="V8" s="245"/>
-      <c r="W8" s="246" t="s">
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="244"/>
-      <c r="Z8" s="244"/>
-      <c r="AA8" s="245"/>
-      <c r="AB8" s="248" t="s">
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="234"/>
+      <c r="AB8" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="244"/>
-      <c r="AD8" s="244"/>
-      <c r="AE8" s="244"/>
-      <c r="AF8" s="245"/>
-      <c r="AG8" s="249" t="s">
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="233"/>
+      <c r="AF8" s="234"/>
+      <c r="AG8" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="244"/>
-      <c r="AI8" s="244"/>
-      <c r="AJ8" s="244"/>
-      <c r="AK8" s="245"/>
-      <c r="AL8" s="249" t="s">
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="233"/>
+      <c r="AJ8" s="233"/>
+      <c r="AK8" s="234"/>
+      <c r="AL8" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="AM8" s="244"/>
-      <c r="AN8" s="244"/>
-      <c r="AO8" s="244"/>
-      <c r="AP8" s="245"/>
-      <c r="AQ8" s="247" t="s">
+      <c r="AM8" s="233"/>
+      <c r="AN8" s="233"/>
+      <c r="AO8" s="233"/>
+      <c r="AP8" s="234"/>
+      <c r="AQ8" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="244"/>
-      <c r="AS8" s="244"/>
-      <c r="AT8" s="244"/>
-      <c r="AU8" s="245"/>
-      <c r="AV8" s="250" t="s">
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="233"/>
+      <c r="AT8" s="233"/>
+      <c r="AU8" s="234"/>
+      <c r="AV8" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="244"/>
-      <c r="AX8" s="244"/>
-      <c r="AY8" s="244"/>
-      <c r="AZ8" s="245"/>
-      <c r="BA8" s="250" t="s">
+      <c r="AW8" s="233"/>
+      <c r="AX8" s="233"/>
+      <c r="AY8" s="233"/>
+      <c r="AZ8" s="234"/>
+      <c r="BA8" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="BB8" s="244"/>
-      <c r="BC8" s="244"/>
-      <c r="BD8" s="244"/>
-      <c r="BE8" s="245"/>
-      <c r="BF8" s="251" t="s">
+      <c r="BB8" s="233"/>
+      <c r="BC8" s="233"/>
+      <c r="BD8" s="233"/>
+      <c r="BE8" s="234"/>
+      <c r="BF8" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="244"/>
-      <c r="BH8" s="244"/>
-      <c r="BI8" s="244"/>
-      <c r="BJ8" s="245"/>
-      <c r="BK8" s="252"/>
-      <c r="BL8" s="244"/>
-      <c r="BM8" s="244"/>
-      <c r="BN8" s="244"/>
-      <c r="BO8" s="245"/>
-      <c r="BP8" s="252"/>
-      <c r="BQ8" s="244"/>
-      <c r="BR8" s="244"/>
-      <c r="BS8" s="244"/>
-      <c r="BT8" s="245"/>
+      <c r="BG8" s="233"/>
+      <c r="BH8" s="233"/>
+      <c r="BI8" s="233"/>
+      <c r="BJ8" s="234"/>
+      <c r="BK8" s="232"/>
+      <c r="BL8" s="233"/>
+      <c r="BM8" s="233"/>
+      <c r="BN8" s="233"/>
+      <c r="BO8" s="234"/>
+      <c r="BP8" s="232"/>
+      <c r="BQ8" s="233"/>
+      <c r="BR8" s="233"/>
+      <c r="BS8" s="233"/>
+      <c r="BT8" s="234"/>
       <c r="BU8" s="38"/>
       <c r="BV8" s="39"/>
     </row>
     <row r="9" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B9" s="254"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="258"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="58" t="s">
         <v>28</v>
       </c>
@@ -6012,11 +6849,11 @@
       <c r="G9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="256"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="242"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="257"/>
       <c r="M9" s="61" t="s">
         <v>31</v>
       </c>
@@ -7580,11 +8417,11 @@
       </c>
       <c r="F25" s="198">
         <f>SUM(F26:F29)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" s="199">
         <f>SUM(G26:G29)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="200"/>
       <c r="I25" s="206">
@@ -7599,7 +8436,7 @@
       </c>
       <c r="L25" s="201">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M25" s="73"/>
       <c r="N25" s="74"/>
@@ -7671,16 +8508,18 @@
       <c r="C26" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="152"/>
+      <c r="D26" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E26" s="153">
         <v>2</v>
       </c>
       <c r="F26" s="154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="155">
         <f>E26-F26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="156"/>
       <c r="I26" s="157"/>
@@ -7688,7 +8527,7 @@
       <c r="K26" s="213"/>
       <c r="L26" s="201">
         <f t="shared" ref="L26:L39" si="4">IFERROR(F26/E26,"")</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M26" s="77"/>
       <c r="N26" s="78"/>
@@ -7760,7 +8599,9 @@
       <c r="C27" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="152"/>
+      <c r="D27" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E27" s="153">
         <v>2</v>
       </c>
@@ -7849,7 +8690,9 @@
       <c r="C28" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="168"/>
+      <c r="D28" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E28" s="153">
         <v>6</v>
       </c>
@@ -7938,16 +8781,18 @@
       <c r="C29" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="171"/>
+      <c r="D29" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E29" s="172">
         <v>2</v>
       </c>
       <c r="F29" s="173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="174">
         <f>E29-F29</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" s="175"/>
       <c r="I29" s="176"/>
@@ -7955,7 +8800,7 @@
       <c r="K29" s="214"/>
       <c r="L29" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="86"/>
       <c r="N29" s="87"/>
@@ -8034,11 +8879,11 @@
       </c>
       <c r="F30" s="198">
         <f>SUM(F31:F34)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G30" s="199">
         <f>SUM(G31:G34)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" s="200"/>
       <c r="I30" s="206">
@@ -8053,7 +8898,7 @@
       </c>
       <c r="L30" s="201">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="74"/>
@@ -8125,16 +8970,18 @@
       <c r="C31" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="152"/>
+      <c r="D31" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E31" s="153">
         <v>3</v>
       </c>
       <c r="F31" s="154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="155">
         <f>E31-F31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="212"/>
       <c r="I31" s="157"/>
@@ -8142,7 +8989,7 @@
       <c r="K31" s="213"/>
       <c r="L31" s="201">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="74"/>
@@ -8214,7 +9061,9 @@
       <c r="C32" s="193" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="152"/>
+      <c r="D32" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E32" s="153">
         <v>2</v>
       </c>
@@ -8303,16 +9152,18 @@
       <c r="C33" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="152"/>
+      <c r="D33" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E33" s="153">
         <v>2</v>
       </c>
       <c r="F33" s="154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="155">
         <f>E33-F33</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="212"/>
       <c r="I33" s="157"/>
@@ -8320,7 +9171,7 @@
       <c r="K33" s="213"/>
       <c r="L33" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="74"/>
@@ -8392,16 +9243,18 @@
       <c r="C34" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="152"/>
+      <c r="D34" s="152" t="s">
+        <v>119</v>
+      </c>
       <c r="E34" s="153">
         <v>1</v>
       </c>
       <c r="F34" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="174">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="212"/>
       <c r="I34" s="157"/>
@@ -8409,7 +9262,7 @@
       <c r="K34" s="214"/>
       <c r="L34" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="73"/>
       <c r="N34" s="74"/>
@@ -8488,11 +9341,11 @@
       </c>
       <c r="F35" s="198">
         <f>SUM(F36:F39)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="199">
         <f>SUM(G36:G39)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="200"/>
       <c r="I35" s="206">
@@ -8507,7 +9360,7 @@
       </c>
       <c r="L35" s="201">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="74"/>
@@ -8677,11 +9530,11 @@
         <v>1</v>
       </c>
       <c r="F37" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="155">
         <f>E37-F37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="212"/>
       <c r="I37" s="157"/>
@@ -8689,7 +9542,7 @@
       <c r="K37" s="213"/>
       <c r="L37" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="73"/>
       <c r="N37" s="74"/>
@@ -8768,11 +9621,11 @@
         <v>1</v>
       </c>
       <c r="F38" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="155">
         <f>E38-F38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="212"/>
       <c r="I38" s="157"/>
@@ -8780,7 +9633,7 @@
       <c r="K38" s="213"/>
       <c r="L38" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="73"/>
       <c r="N38" s="74"/>
@@ -8859,11 +9712,11 @@
         <v>1</v>
       </c>
       <c r="F39" s="220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="190">
         <f>E39-F39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="221"/>
       <c r="I39" s="222"/>
@@ -8871,7 +9724,7 @@
       <c r="K39" s="214"/>
       <c r="L39" s="201">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="73"/>
       <c r="N39" s="74"/>
@@ -9035,11 +9888,11 @@
       </c>
       <c r="F41" s="216">
         <f>SUM(F11:F14,F16:F19,F21:F24,F26:F29,F31:F34,F36:F39)</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G41" s="216">
         <f>SUM(G11:G14,G16:G19,G21:G24,G26:G29,G31:G34,G36:G39)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" s="217">
         <v>7</v>
@@ -9266,15 +10119,15 @@
       </c>
       <c r="Q43" s="97">
         <f>P45</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R43" s="97">
         <f t="shared" ref="R43:S43" si="6">Q45</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S43" s="97">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T43" s="97"/>
       <c r="U43" s="97"/>
@@ -9332,7 +10185,7 @@
       <c r="BU43" s="38"/>
       <c r="BV43" s="139">
         <f>SUM(M43:BT43)</f>
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:74" ht="23.1" customHeight="1">
@@ -9361,16 +10214,16 @@
         <v>8</v>
       </c>
       <c r="P44" s="76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="76">
         <v>4</v>
       </c>
       <c r="R44" s="76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" s="76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44" s="76"/>
       <c r="U44" s="76"/>
@@ -9428,7 +10281,7 @@
       <c r="BU44" s="38"/>
       <c r="BV44" s="140">
         <f>SUM(M44:BT44)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="2:74" ht="23.1" customHeight="1">
@@ -9459,19 +10312,19 @@
       </c>
       <c r="P45" s="97">
         <f t="shared" ref="P45" si="7">P43-P44</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q45" s="97">
         <f>Q43-Q44</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R45" s="97">
         <f>R43-R44</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S45" s="97">
         <f>S43-S44</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T45" s="97"/>
       <c r="U45" s="97"/>
@@ -9529,7 +10382,7 @@
       <c r="BU45" s="38"/>
       <c r="BV45" s="140">
         <f>SUM(M45:BT45)</f>
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="2:74" ht="19.5" customHeight="1">
@@ -9541,89 +10394,82 @@
     <row r="47" spans="2:74" ht="381.95" customHeight="1"/>
     <row r="48" spans="2:74" ht="216.95" customHeight="1"/>
     <row r="50" spans="2:74" ht="50.1" customHeight="1">
-      <c r="B50" s="230"/>
-      <c r="C50" s="231"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="231"/>
-      <c r="F50" s="231"/>
-      <c r="G50" s="231"/>
-      <c r="H50" s="231"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="231"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="231"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="231"/>
-      <c r="O50" s="231"/>
-      <c r="P50" s="231"/>
-      <c r="Q50" s="231"/>
-      <c r="R50" s="231"/>
-      <c r="S50" s="231"/>
-      <c r="T50" s="231"/>
-      <c r="U50" s="231"/>
-      <c r="V50" s="231"/>
-      <c r="W50" s="231"/>
-      <c r="X50" s="231"/>
-      <c r="Y50" s="231"/>
-      <c r="Z50" s="231"/>
-      <c r="AA50" s="231"/>
-      <c r="AB50" s="231"/>
-      <c r="AC50" s="231"/>
-      <c r="AD50" s="231"/>
-      <c r="AE50" s="231"/>
-      <c r="AF50" s="231"/>
-      <c r="AG50" s="231"/>
-      <c r="AH50" s="231"/>
-      <c r="AI50" s="231"/>
-      <c r="AJ50" s="231"/>
-      <c r="AK50" s="231"/>
-      <c r="AL50" s="231"/>
-      <c r="AM50" s="231"/>
-      <c r="AN50" s="231"/>
-      <c r="AO50" s="231"/>
-      <c r="AP50" s="231"/>
-      <c r="AQ50" s="231"/>
-      <c r="AR50" s="231"/>
-      <c r="AS50" s="231"/>
-      <c r="AT50" s="231"/>
-      <c r="AU50" s="231"/>
-      <c r="AV50" s="231"/>
-      <c r="AW50" s="231"/>
-      <c r="AX50" s="231"/>
-      <c r="AY50" s="231"/>
-      <c r="AZ50" s="231"/>
-      <c r="BA50" s="231"/>
-      <c r="BB50" s="231"/>
-      <c r="BC50" s="231"/>
-      <c r="BD50" s="231"/>
-      <c r="BE50" s="231"/>
-      <c r="BF50" s="231"/>
-      <c r="BG50" s="231"/>
-      <c r="BH50" s="231"/>
-      <c r="BI50" s="231"/>
-      <c r="BJ50" s="231"/>
-      <c r="BK50" s="231"/>
-      <c r="BL50" s="231"/>
-      <c r="BM50" s="231"/>
-      <c r="BN50" s="231"/>
-      <c r="BO50" s="231"/>
-      <c r="BP50" s="231"/>
-      <c r="BQ50" s="231"/>
-      <c r="BR50" s="231"/>
-      <c r="BS50" s="231"/>
-      <c r="BT50" s="231"/>
-      <c r="BU50" s="231"/>
-      <c r="BV50" s="232"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="247"/>
+      <c r="D50" s="247"/>
+      <c r="E50" s="247"/>
+      <c r="F50" s="247"/>
+      <c r="G50" s="247"/>
+      <c r="H50" s="247"/>
+      <c r="I50" s="247"/>
+      <c r="J50" s="247"/>
+      <c r="K50" s="247"/>
+      <c r="L50" s="247"/>
+      <c r="M50" s="247"/>
+      <c r="N50" s="247"/>
+      <c r="O50" s="247"/>
+      <c r="P50" s="247"/>
+      <c r="Q50" s="247"/>
+      <c r="R50" s="247"/>
+      <c r="S50" s="247"/>
+      <c r="T50" s="247"/>
+      <c r="U50" s="247"/>
+      <c r="V50" s="247"/>
+      <c r="W50" s="247"/>
+      <c r="X50" s="247"/>
+      <c r="Y50" s="247"/>
+      <c r="Z50" s="247"/>
+      <c r="AA50" s="247"/>
+      <c r="AB50" s="247"/>
+      <c r="AC50" s="247"/>
+      <c r="AD50" s="247"/>
+      <c r="AE50" s="247"/>
+      <c r="AF50" s="247"/>
+      <c r="AG50" s="247"/>
+      <c r="AH50" s="247"/>
+      <c r="AI50" s="247"/>
+      <c r="AJ50" s="247"/>
+      <c r="AK50" s="247"/>
+      <c r="AL50" s="247"/>
+      <c r="AM50" s="247"/>
+      <c r="AN50" s="247"/>
+      <c r="AO50" s="247"/>
+      <c r="AP50" s="247"/>
+      <c r="AQ50" s="247"/>
+      <c r="AR50" s="247"/>
+      <c r="AS50" s="247"/>
+      <c r="AT50" s="247"/>
+      <c r="AU50" s="247"/>
+      <c r="AV50" s="247"/>
+      <c r="AW50" s="247"/>
+      <c r="AX50" s="247"/>
+      <c r="AY50" s="247"/>
+      <c r="AZ50" s="247"/>
+      <c r="BA50" s="247"/>
+      <c r="BB50" s="247"/>
+      <c r="BC50" s="247"/>
+      <c r="BD50" s="247"/>
+      <c r="BE50" s="247"/>
+      <c r="BF50" s="247"/>
+      <c r="BG50" s="247"/>
+      <c r="BH50" s="247"/>
+      <c r="BI50" s="247"/>
+      <c r="BJ50" s="247"/>
+      <c r="BK50" s="247"/>
+      <c r="BL50" s="247"/>
+      <c r="BM50" s="247"/>
+      <c r="BN50" s="247"/>
+      <c r="BO50" s="247"/>
+      <c r="BP50" s="247"/>
+      <c r="BQ50" s="247"/>
+      <c r="BR50" s="247"/>
+      <c r="BS50" s="247"/>
+      <c r="BT50" s="247"/>
+      <c r="BU50" s="247"/>
+      <c r="BV50" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B50:BV50"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="K3:K7"/>
@@ -9640,6 +10486,13 @@
     <mergeCell ref="BA8:BE8"/>
     <mergeCell ref="BF8:BJ8"/>
     <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="L10">
@@ -9751,11 +10604,4402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881EFEC1-ED20-4A58-BF9D-62A96E3245F6}">
+  <sheetPr>
+    <tabColor theme="3"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BV50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="230" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="230" customWidth="1"/>
+    <col min="3" max="3" width="34.375" style="230" customWidth="1"/>
+    <col min="4" max="4" width="22" style="230" customWidth="1"/>
+    <col min="5" max="8" width="9" style="230" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="230" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="230" customWidth="1"/>
+    <col min="12" max="12" width="15" style="230" customWidth="1"/>
+    <col min="13" max="72" width="3.875" style="230" customWidth="1"/>
+    <col min="73" max="73" width="1" style="230" customWidth="1"/>
+    <col min="74" max="74" width="8.5" style="231" customWidth="1"/>
+    <col min="75" max="75" width="3.25" style="230" customWidth="1"/>
+    <col min="76" max="16384" width="11.125" style="230"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" ht="45" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="1:74" s="231" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B2" s="106"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="39"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="39"/>
+      <c r="BU2" s="39"/>
+      <c r="BV2" s="39"/>
+    </row>
+    <row r="3" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="252" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="38"/>
+      <c r="BV3" s="39"/>
+    </row>
+    <row r="4" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="39"/>
+    </row>
+    <row r="5" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49"/>
+      <c r="BT5" s="51"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="39"/>
+    </row>
+    <row r="6" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="39"/>
+    </row>
+    <row r="7" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="51"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="39"/>
+    </row>
+    <row r="8" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B8" s="235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="250"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="237" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="241" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="242" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="255" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="256" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="258" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="233"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="259" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="259" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="234"/>
+      <c r="AB8" s="261" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="233"/>
+      <c r="AF8" s="234"/>
+      <c r="AG8" s="262" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="233"/>
+      <c r="AJ8" s="233"/>
+      <c r="AK8" s="234"/>
+      <c r="AL8" s="262" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM8" s="233"/>
+      <c r="AN8" s="233"/>
+      <c r="AO8" s="233"/>
+      <c r="AP8" s="234"/>
+      <c r="AQ8" s="260" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="233"/>
+      <c r="AT8" s="233"/>
+      <c r="AU8" s="234"/>
+      <c r="AV8" s="263" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW8" s="233"/>
+      <c r="AX8" s="233"/>
+      <c r="AY8" s="233"/>
+      <c r="AZ8" s="234"/>
+      <c r="BA8" s="263" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB8" s="233"/>
+      <c r="BC8" s="233"/>
+      <c r="BD8" s="233"/>
+      <c r="BE8" s="234"/>
+      <c r="BF8" s="264" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG8" s="233"/>
+      <c r="BH8" s="233"/>
+      <c r="BI8" s="233"/>
+      <c r="BJ8" s="234"/>
+      <c r="BK8" s="232"/>
+      <c r="BL8" s="233"/>
+      <c r="BM8" s="233"/>
+      <c r="BN8" s="233"/>
+      <c r="BO8" s="234"/>
+      <c r="BP8" s="232"/>
+      <c r="BQ8" s="233"/>
+      <c r="BR8" s="233"/>
+      <c r="BS8" s="233"/>
+      <c r="BT8" s="234"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="39"/>
+    </row>
+    <row r="9" spans="1:74" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="236"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="238"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG9" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL9" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM9" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP9" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ9" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR9" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV9" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW9" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ9" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA9" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB9" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE9" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF9" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG9" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH9" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI9" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ9" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK9" s="188"/>
+      <c r="BL9" s="188"/>
+      <c r="BM9" s="188"/>
+      <c r="BN9" s="188"/>
+      <c r="BO9" s="188"/>
+      <c r="BP9" s="188"/>
+      <c r="BQ9" s="188"/>
+      <c r="BR9" s="188"/>
+      <c r="BS9" s="188"/>
+      <c r="BT9" s="189"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="39"/>
+    </row>
+    <row r="10" spans="1:74" ht="23.1" customHeight="1" thickTop="1">
+      <c r="B10" s="202">
+        <v>1</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="204"/>
+      <c r="E10" s="197">
+        <f>SUM(E11:E14)</f>
+        <v>12</v>
+      </c>
+      <c r="F10" s="198">
+        <f>SUM(F11:F14)</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="199">
+        <f>SUM(G11:G14)</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="205"/>
+      <c r="I10" s="206">
+        <v>45920</v>
+      </c>
+      <c r="J10" s="206">
+        <v>45922</v>
+      </c>
+      <c r="K10" s="207">
+        <f>J10-I10+1</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="201">
+        <f t="shared" ref="L10:L39" si="0">IFERROR(F10/E10,"")</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="78"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="78"/>
+      <c r="BN10" s="78"/>
+      <c r="BO10" s="78"/>
+      <c r="BP10" s="78"/>
+      <c r="BQ10" s="78"/>
+      <c r="BR10" s="78"/>
+      <c r="BS10" s="78"/>
+      <c r="BT10" s="81"/>
+      <c r="BU10" s="38"/>
+      <c r="BV10" s="39"/>
+    </row>
+    <row r="11" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B11" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="153">
+        <v>4</v>
+      </c>
+      <c r="F11" s="154">
+        <v>4</v>
+      </c>
+      <c r="G11" s="155">
+        <f>E11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="156"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="201">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="78"/>
+      <c r="BB11" s="78"/>
+      <c r="BC11" s="78"/>
+      <c r="BD11" s="78"/>
+      <c r="BE11" s="81"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="78"/>
+      <c r="BH11" s="78"/>
+      <c r="BI11" s="78"/>
+      <c r="BJ11" s="78"/>
+      <c r="BK11" s="78"/>
+      <c r="BL11" s="78"/>
+      <c r="BM11" s="78"/>
+      <c r="BN11" s="78"/>
+      <c r="BO11" s="78"/>
+      <c r="BP11" s="78"/>
+      <c r="BQ11" s="78"/>
+      <c r="BR11" s="78"/>
+      <c r="BS11" s="78"/>
+      <c r="BT11" s="81"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="39"/>
+    </row>
+    <row r="12" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B12" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="230" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="153">
+        <v>4</v>
+      </c>
+      <c r="F12" s="154">
+        <v>4</v>
+      </c>
+      <c r="G12" s="155">
+        <f t="shared" ref="G11:G14" si="1">E12-F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="163"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="201">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="78"/>
+      <c r="BB12" s="78"/>
+      <c r="BC12" s="78"/>
+      <c r="BD12" s="78"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="78"/>
+      <c r="BI12" s="78"/>
+      <c r="BJ12" s="78"/>
+      <c r="BK12" s="78"/>
+      <c r="BL12" s="78"/>
+      <c r="BM12" s="78"/>
+      <c r="BN12" s="78"/>
+      <c r="BO12" s="78"/>
+      <c r="BP12" s="78"/>
+      <c r="BQ12" s="78"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
+      <c r="BT12" s="81"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="39"/>
+    </row>
+    <row r="13" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B13" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="153">
+        <v>3</v>
+      </c>
+      <c r="F13" s="154">
+        <v>0</v>
+      </c>
+      <c r="G13" s="155">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="156"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="78"/>
+      <c r="BB13" s="78"/>
+      <c r="BC13" s="78"/>
+      <c r="BD13" s="78"/>
+      <c r="BE13" s="81"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="78"/>
+      <c r="BI13" s="78"/>
+      <c r="BJ13" s="78"/>
+      <c r="BK13" s="78"/>
+      <c r="BL13" s="78"/>
+      <c r="BM13" s="78"/>
+      <c r="BN13" s="78"/>
+      <c r="BO13" s="78"/>
+      <c r="BP13" s="78"/>
+      <c r="BQ13" s="78"/>
+      <c r="BR13" s="78"/>
+      <c r="BS13" s="78"/>
+      <c r="BT13" s="81"/>
+      <c r="BU13" s="38"/>
+      <c r="BV13" s="39"/>
+    </row>
+    <row r="14" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B14" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="153">
+        <v>1</v>
+      </c>
+      <c r="F14" s="154">
+        <v>0</v>
+      </c>
+      <c r="G14" s="155">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="156"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="213"/>
+      <c r="L14" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="77"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="78"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="78"/>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="78"/>
+      <c r="BD14" s="78"/>
+      <c r="BE14" s="81"/>
+      <c r="BF14" s="77"/>
+      <c r="BG14" s="78"/>
+      <c r="BH14" s="78"/>
+      <c r="BI14" s="78"/>
+      <c r="BJ14" s="78"/>
+      <c r="BK14" s="78"/>
+      <c r="BL14" s="78"/>
+      <c r="BM14" s="78"/>
+      <c r="BN14" s="78"/>
+      <c r="BO14" s="78"/>
+      <c r="BP14" s="78"/>
+      <c r="BQ14" s="78"/>
+      <c r="BR14" s="78"/>
+      <c r="BS14" s="78"/>
+      <c r="BT14" s="81"/>
+      <c r="BU14" s="38"/>
+      <c r="BV14" s="39"/>
+    </row>
+    <row r="15" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B15" s="194" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="195" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197">
+        <f>SUM(E16:E19)</f>
+        <v>12</v>
+      </c>
+      <c r="F15" s="198">
+        <f>SUM(F16:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="199">
+        <f>SUM(G16:G19)</f>
+        <v>12</v>
+      </c>
+      <c r="H15" s="200"/>
+      <c r="I15" s="206">
+        <v>45923</v>
+      </c>
+      <c r="J15" s="206">
+        <v>45926</v>
+      </c>
+      <c r="K15" s="207">
+        <f>J15-I15+1</f>
+        <v>4</v>
+      </c>
+      <c r="L15" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="73"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="74"/>
+      <c r="BD15" s="74"/>
+      <c r="BE15" s="75"/>
+      <c r="BF15" s="73"/>
+      <c r="BG15" s="74"/>
+      <c r="BH15" s="74"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="74"/>
+      <c r="BK15" s="78"/>
+      <c r="BL15" s="78"/>
+      <c r="BM15" s="78"/>
+      <c r="BN15" s="78"/>
+      <c r="BO15" s="78"/>
+      <c r="BP15" s="78"/>
+      <c r="BQ15" s="78"/>
+      <c r="BR15" s="78"/>
+      <c r="BS15" s="78"/>
+      <c r="BT15" s="81"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="39"/>
+    </row>
+    <row r="16" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B16" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="153">
+        <v>1</v>
+      </c>
+      <c r="F16" s="154">
+        <v>0</v>
+      </c>
+      <c r="G16" s="155">
+        <f>E16-F16</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="156"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="77"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="85"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="78"/>
+      <c r="BB16" s="78"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="78"/>
+      <c r="BE16" s="81"/>
+      <c r="BF16" s="77"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="78"/>
+      <c r="BI16" s="78"/>
+      <c r="BJ16" s="78"/>
+      <c r="BK16" s="78"/>
+      <c r="BL16" s="78"/>
+      <c r="BM16" s="78"/>
+      <c r="BN16" s="78"/>
+      <c r="BO16" s="78"/>
+      <c r="BP16" s="78"/>
+      <c r="BQ16" s="78"/>
+      <c r="BR16" s="78"/>
+      <c r="BS16" s="78"/>
+      <c r="BT16" s="81"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="39"/>
+    </row>
+    <row r="17" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B17" s="150">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="153">
+        <v>2</v>
+      </c>
+      <c r="F17" s="154">
+        <v>0</v>
+      </c>
+      <c r="G17" s="155">
+        <f>E17-F17</f>
+        <v>2</v>
+      </c>
+      <c r="H17" s="156"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="77"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="83"/>
+      <c r="BA17" s="78"/>
+      <c r="BB17" s="78"/>
+      <c r="BC17" s="78"/>
+      <c r="BD17" s="78"/>
+      <c r="BE17" s="81"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="78"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="78"/>
+      <c r="BJ17" s="78"/>
+      <c r="BK17" s="78"/>
+      <c r="BL17" s="78"/>
+      <c r="BM17" s="78"/>
+      <c r="BN17" s="78"/>
+      <c r="BO17" s="78"/>
+      <c r="BP17" s="78"/>
+      <c r="BQ17" s="78"/>
+      <c r="BR17" s="78"/>
+      <c r="BS17" s="78"/>
+      <c r="BT17" s="81"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="39"/>
+    </row>
+    <row r="18" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B18" s="150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="153">
+        <v>6</v>
+      </c>
+      <c r="F18" s="154">
+        <v>0</v>
+      </c>
+      <c r="G18" s="155">
+        <f>E18-F18</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="156"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="77"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="81"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="78"/>
+      <c r="BB18" s="78"/>
+      <c r="BC18" s="78"/>
+      <c r="BD18" s="78"/>
+      <c r="BE18" s="81"/>
+      <c r="BF18" s="77"/>
+      <c r="BG18" s="78"/>
+      <c r="BH18" s="78"/>
+      <c r="BI18" s="78"/>
+      <c r="BJ18" s="78"/>
+      <c r="BK18" s="78"/>
+      <c r="BL18" s="78"/>
+      <c r="BM18" s="78"/>
+      <c r="BN18" s="78"/>
+      <c r="BO18" s="78"/>
+      <c r="BP18" s="78"/>
+      <c r="BQ18" s="78"/>
+      <c r="BR18" s="78"/>
+      <c r="BS18" s="78"/>
+      <c r="BT18" s="81"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="39"/>
+    </row>
+    <row r="19" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B19" s="150">
+        <v>2.4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="153">
+        <v>3</v>
+      </c>
+      <c r="F19" s="154">
+        <v>0</v>
+      </c>
+      <c r="G19" s="155">
+        <f>E19-F19</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="156"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="77"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="81"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="83"/>
+      <c r="AX19" s="83"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="83"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="78"/>
+      <c r="BC19" s="78"/>
+      <c r="BD19" s="78"/>
+      <c r="BE19" s="81"/>
+      <c r="BF19" s="77"/>
+      <c r="BG19" s="78"/>
+      <c r="BH19" s="78"/>
+      <c r="BI19" s="78"/>
+      <c r="BJ19" s="78"/>
+      <c r="BK19" s="78"/>
+      <c r="BL19" s="78"/>
+      <c r="BM19" s="78"/>
+      <c r="BN19" s="78"/>
+      <c r="BO19" s="78"/>
+      <c r="BP19" s="78"/>
+      <c r="BQ19" s="78"/>
+      <c r="BR19" s="78"/>
+      <c r="BS19" s="78"/>
+      <c r="BT19" s="81"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="39"/>
+    </row>
+    <row r="20" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B20" s="194">
+        <v>3</v>
+      </c>
+      <c r="C20" s="195" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197">
+        <f>SUM(E21:E24)</f>
+        <v>8</v>
+      </c>
+      <c r="F20" s="198">
+        <f>SUM(F21:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="199">
+        <f>SUM(G21:G24)</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="200"/>
+      <c r="I20" s="206">
+        <v>45920</v>
+      </c>
+      <c r="J20" s="206">
+        <v>45922</v>
+      </c>
+      <c r="K20" s="207">
+        <f>J20-I20+1</f>
+        <v>3</v>
+      </c>
+      <c r="L20" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="75"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="75"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="74"/>
+      <c r="BJ20" s="74"/>
+      <c r="BK20" s="78"/>
+      <c r="BL20" s="78"/>
+      <c r="BM20" s="78"/>
+      <c r="BN20" s="78"/>
+      <c r="BO20" s="78"/>
+      <c r="BP20" s="78"/>
+      <c r="BQ20" s="78"/>
+      <c r="BR20" s="78"/>
+      <c r="BS20" s="78"/>
+      <c r="BT20" s="81"/>
+      <c r="BU20" s="38"/>
+      <c r="BV20" s="39"/>
+    </row>
+    <row r="21" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B21" s="150">
+        <v>3.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="153">
+        <v>3</v>
+      </c>
+      <c r="F21" s="154">
+        <v>0</v>
+      </c>
+      <c r="G21" s="155">
+        <f t="shared" ref="G21:G24" si="2">E21-F21</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="156"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="201">
+        <f>IFERROR(F21/E21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="77"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="83"/>
+      <c r="BA21" s="78"/>
+      <c r="BB21" s="78"/>
+      <c r="BC21" s="78"/>
+      <c r="BD21" s="78"/>
+      <c r="BE21" s="81"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="78"/>
+      <c r="BH21" s="78"/>
+      <c r="BI21" s="78"/>
+      <c r="BJ21" s="78"/>
+      <c r="BK21" s="78"/>
+      <c r="BL21" s="78"/>
+      <c r="BM21" s="78"/>
+      <c r="BN21" s="78"/>
+      <c r="BO21" s="78"/>
+      <c r="BP21" s="78"/>
+      <c r="BQ21" s="78"/>
+      <c r="BR21" s="78"/>
+      <c r="BS21" s="78"/>
+      <c r="BT21" s="81"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="39"/>
+    </row>
+    <row r="22" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B22" s="150">
+        <v>3.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="153">
+        <v>2</v>
+      </c>
+      <c r="F22" s="154">
+        <v>0</v>
+      </c>
+      <c r="G22" s="155">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="213"/>
+      <c r="L22" s="201">
+        <f>IFERROR(F22/E22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="77"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="83"/>
+      <c r="AX22" s="83"/>
+      <c r="AY22" s="83"/>
+      <c r="AZ22" s="83"/>
+      <c r="BA22" s="78"/>
+      <c r="BB22" s="78"/>
+      <c r="BC22" s="78"/>
+      <c r="BD22" s="78"/>
+      <c r="BE22" s="81"/>
+      <c r="BF22" s="77"/>
+      <c r="BG22" s="78"/>
+      <c r="BH22" s="78"/>
+      <c r="BI22" s="78"/>
+      <c r="BJ22" s="78"/>
+      <c r="BK22" s="78"/>
+      <c r="BL22" s="78"/>
+      <c r="BM22" s="78"/>
+      <c r="BN22" s="78"/>
+      <c r="BO22" s="78"/>
+      <c r="BP22" s="78"/>
+      <c r="BQ22" s="78"/>
+      <c r="BR22" s="78"/>
+      <c r="BS22" s="78"/>
+      <c r="BT22" s="81"/>
+      <c r="BU22" s="38"/>
+      <c r="BV22" s="39"/>
+    </row>
+    <row r="23" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B23" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="153">
+        <v>2</v>
+      </c>
+      <c r="F23" s="154">
+        <v>0</v>
+      </c>
+      <c r="G23" s="155">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="163"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="201">
+        <f>IFERROR(F23/E23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="77"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="81"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="83"/>
+      <c r="BA23" s="78"/>
+      <c r="BB23" s="78"/>
+      <c r="BC23" s="78"/>
+      <c r="BD23" s="78"/>
+      <c r="BE23" s="81"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="78"/>
+      <c r="BH23" s="78"/>
+      <c r="BI23" s="78"/>
+      <c r="BJ23" s="78"/>
+      <c r="BK23" s="78"/>
+      <c r="BL23" s="78"/>
+      <c r="BM23" s="78"/>
+      <c r="BN23" s="78"/>
+      <c r="BO23" s="78"/>
+      <c r="BP23" s="78"/>
+      <c r="BQ23" s="78"/>
+      <c r="BR23" s="78"/>
+      <c r="BS23" s="78"/>
+      <c r="BT23" s="81"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="39"/>
+    </row>
+    <row r="24" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B24" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="153">
+        <v>1</v>
+      </c>
+      <c r="F24" s="154">
+        <v>0</v>
+      </c>
+      <c r="G24" s="155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="163"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="201">
+        <f>IFERROR(F24/E24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="77"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="81"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="78"/>
+      <c r="BI24" s="78"/>
+      <c r="BJ24" s="78"/>
+      <c r="BK24" s="78"/>
+      <c r="BL24" s="78"/>
+      <c r="BM24" s="78"/>
+      <c r="BN24" s="78"/>
+      <c r="BO24" s="78"/>
+      <c r="BP24" s="78"/>
+      <c r="BQ24" s="78"/>
+      <c r="BR24" s="78"/>
+      <c r="BS24" s="78"/>
+      <c r="BT24" s="81"/>
+      <c r="BU24" s="38"/>
+      <c r="BV24" s="39"/>
+    </row>
+    <row r="25" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B25" s="194" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="195" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="196"/>
+      <c r="E25" s="197">
+        <f>SUM(E26:E29)</f>
+        <v>12</v>
+      </c>
+      <c r="F25" s="198">
+        <f>SUM(F26:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="199">
+        <f>SUM(G26:G29)</f>
+        <v>12</v>
+      </c>
+      <c r="H25" s="200"/>
+      <c r="I25" s="206">
+        <v>45923</v>
+      </c>
+      <c r="J25" s="206">
+        <v>45926</v>
+      </c>
+      <c r="K25" s="207">
+        <f>J25-I25+1</f>
+        <v>4</v>
+      </c>
+      <c r="L25" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="73"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="75"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="74"/>
+      <c r="BA25" s="74"/>
+      <c r="BB25" s="74"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="75"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="74"/>
+      <c r="BH25" s="74"/>
+      <c r="BI25" s="74"/>
+      <c r="BJ25" s="74"/>
+      <c r="BK25" s="78"/>
+      <c r="BL25" s="78"/>
+      <c r="BM25" s="78"/>
+      <c r="BN25" s="78"/>
+      <c r="BO25" s="78"/>
+      <c r="BP25" s="78"/>
+      <c r="BQ25" s="78"/>
+      <c r="BR25" s="78"/>
+      <c r="BS25" s="78"/>
+      <c r="BT25" s="81"/>
+      <c r="BU25" s="38"/>
+      <c r="BV25" s="39"/>
+    </row>
+    <row r="26" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B26" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="153">
+        <v>2</v>
+      </c>
+      <c r="F26" s="154">
+        <v>0</v>
+      </c>
+      <c r="G26" s="155">
+        <f>E26-F26</f>
+        <v>2</v>
+      </c>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="213"/>
+      <c r="L26" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="77"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="83"/>
+      <c r="AX26" s="83"/>
+      <c r="AY26" s="83"/>
+      <c r="AZ26" s="83"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="78"/>
+      <c r="BD26" s="78"/>
+      <c r="BE26" s="81"/>
+      <c r="BF26" s="77"/>
+      <c r="BG26" s="78"/>
+      <c r="BH26" s="78"/>
+      <c r="BI26" s="78"/>
+      <c r="BJ26" s="78"/>
+      <c r="BK26" s="78"/>
+      <c r="BL26" s="78"/>
+      <c r="BM26" s="78"/>
+      <c r="BN26" s="78"/>
+      <c r="BO26" s="78"/>
+      <c r="BP26" s="78"/>
+      <c r="BQ26" s="78"/>
+      <c r="BR26" s="78"/>
+      <c r="BS26" s="78"/>
+      <c r="BT26" s="81"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="39"/>
+    </row>
+    <row r="27" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B27" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="153">
+        <v>2</v>
+      </c>
+      <c r="F27" s="154">
+        <v>0</v>
+      </c>
+      <c r="G27" s="155">
+        <f>E27-F27</f>
+        <v>2</v>
+      </c>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="77"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="81"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="83"/>
+      <c r="AX27" s="83"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="83"/>
+      <c r="BA27" s="78"/>
+      <c r="BB27" s="78"/>
+      <c r="BC27" s="78"/>
+      <c r="BD27" s="78"/>
+      <c r="BE27" s="81"/>
+      <c r="BF27" s="77"/>
+      <c r="BG27" s="78"/>
+      <c r="BH27" s="78"/>
+      <c r="BI27" s="78"/>
+      <c r="BJ27" s="78"/>
+      <c r="BK27" s="78"/>
+      <c r="BL27" s="78"/>
+      <c r="BM27" s="78"/>
+      <c r="BN27" s="78"/>
+      <c r="BO27" s="78"/>
+      <c r="BP27" s="78"/>
+      <c r="BQ27" s="78"/>
+      <c r="BR27" s="78"/>
+      <c r="BS27" s="78"/>
+      <c r="BT27" s="81"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="39"/>
+    </row>
+    <row r="28" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B28" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="153">
+        <v>6</v>
+      </c>
+      <c r="F28" s="154">
+        <v>0</v>
+      </c>
+      <c r="G28" s="155">
+        <f>E28-F28</f>
+        <v>6</v>
+      </c>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="77"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="81"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="83"/>
+      <c r="AW28" s="83"/>
+      <c r="AX28" s="83"/>
+      <c r="AY28" s="83"/>
+      <c r="AZ28" s="83"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="81"/>
+      <c r="BF28" s="77"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="78"/>
+      <c r="BI28" s="78"/>
+      <c r="BJ28" s="78"/>
+      <c r="BK28" s="78"/>
+      <c r="BL28" s="78"/>
+      <c r="BM28" s="78"/>
+      <c r="BN28" s="78"/>
+      <c r="BO28" s="78"/>
+      <c r="BP28" s="78"/>
+      <c r="BQ28" s="78"/>
+      <c r="BR28" s="78"/>
+      <c r="BS28" s="78"/>
+      <c r="BT28" s="81"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="39"/>
+    </row>
+    <row r="29" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B29" s="150" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="172">
+        <v>2</v>
+      </c>
+      <c r="F29" s="154">
+        <v>0</v>
+      </c>
+      <c r="G29" s="174">
+        <f>E29-F29</f>
+        <v>2</v>
+      </c>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="86"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="89"/>
+      <c r="AQ29" s="86"/>
+      <c r="AR29" s="87"/>
+      <c r="AS29" s="87"/>
+      <c r="AT29" s="87"/>
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="87"/>
+      <c r="BB29" s="87"/>
+      <c r="BC29" s="87"/>
+      <c r="BD29" s="87"/>
+      <c r="BE29" s="89"/>
+      <c r="BF29" s="86"/>
+      <c r="BG29" s="87"/>
+      <c r="BH29" s="87"/>
+      <c r="BI29" s="87"/>
+      <c r="BJ29" s="87"/>
+      <c r="BK29" s="191"/>
+      <c r="BL29" s="191"/>
+      <c r="BM29" s="191"/>
+      <c r="BN29" s="191"/>
+      <c r="BO29" s="191"/>
+      <c r="BP29" s="191"/>
+      <c r="BQ29" s="191"/>
+      <c r="BR29" s="191"/>
+      <c r="BS29" s="191"/>
+      <c r="BT29" s="192"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="39"/>
+    </row>
+    <row r="30" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B30" s="194" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="195" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197">
+        <f>SUM(E31:E34)</f>
+        <v>8</v>
+      </c>
+      <c r="F30" s="198">
+        <f>SUM(F31:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="199">
+        <f>SUM(G31:G34)</f>
+        <v>8</v>
+      </c>
+      <c r="H30" s="200"/>
+      <c r="I30" s="206">
+        <v>45920</v>
+      </c>
+      <c r="J30" s="206">
+        <v>45922</v>
+      </c>
+      <c r="K30" s="207">
+        <f>J30-I30+1</f>
+        <v>3</v>
+      </c>
+      <c r="L30" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="73"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="74"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="74"/>
+      <c r="AP30" s="75"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="74"/>
+      <c r="AS30" s="74"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
+      <c r="AV30" s="74"/>
+      <c r="AW30" s="74"/>
+      <c r="AX30" s="74"/>
+      <c r="AY30" s="74"/>
+      <c r="AZ30" s="74"/>
+      <c r="BA30" s="74"/>
+      <c r="BB30" s="74"/>
+      <c r="BC30" s="74"/>
+      <c r="BD30" s="74"/>
+      <c r="BE30" s="75"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="74"/>
+      <c r="BH30" s="74"/>
+      <c r="BI30" s="74"/>
+      <c r="BJ30" s="74"/>
+      <c r="BK30" s="191"/>
+      <c r="BL30" s="191"/>
+      <c r="BM30" s="191"/>
+      <c r="BN30" s="191"/>
+      <c r="BO30" s="191"/>
+      <c r="BP30" s="191"/>
+      <c r="BQ30" s="191"/>
+      <c r="BR30" s="191"/>
+      <c r="BS30" s="191"/>
+      <c r="BT30" s="192"/>
+      <c r="BU30" s="38"/>
+      <c r="BV30" s="39"/>
+    </row>
+    <row r="31" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B31" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="153">
+        <v>3</v>
+      </c>
+      <c r="F31" s="154">
+        <v>0</v>
+      </c>
+      <c r="G31" s="155">
+        <f>E31-F31</f>
+        <v>3</v>
+      </c>
+      <c r="H31" s="212"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="213"/>
+      <c r="L31" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="74"/>
+      <c r="AP31" s="75"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="74"/>
+      <c r="AS31" s="74"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="74"/>
+      <c r="AW31" s="74"/>
+      <c r="AX31" s="74"/>
+      <c r="AY31" s="74"/>
+      <c r="AZ31" s="74"/>
+      <c r="BA31" s="74"/>
+      <c r="BB31" s="74"/>
+      <c r="BC31" s="74"/>
+      <c r="BD31" s="74"/>
+      <c r="BE31" s="75"/>
+      <c r="BF31" s="73"/>
+      <c r="BG31" s="74"/>
+      <c r="BH31" s="74"/>
+      <c r="BI31" s="74"/>
+      <c r="BJ31" s="74"/>
+      <c r="BK31" s="191"/>
+      <c r="BL31" s="191"/>
+      <c r="BM31" s="191"/>
+      <c r="BN31" s="191"/>
+      <c r="BO31" s="191"/>
+      <c r="BP31" s="191"/>
+      <c r="BQ31" s="191"/>
+      <c r="BR31" s="191"/>
+      <c r="BS31" s="191"/>
+      <c r="BT31" s="192"/>
+      <c r="BU31" s="38"/>
+      <c r="BV31" s="39"/>
+    </row>
+    <row r="32" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B32" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="153">
+        <v>2</v>
+      </c>
+      <c r="F32" s="154">
+        <v>0</v>
+      </c>
+      <c r="G32" s="155">
+        <f t="shared" ref="G32:G34" si="3">E32-F32</f>
+        <v>2</v>
+      </c>
+      <c r="H32" s="212"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
+      <c r="AI32" s="74"/>
+      <c r="AJ32" s="74"/>
+      <c r="AK32" s="74"/>
+      <c r="AL32" s="74"/>
+      <c r="AM32" s="74"/>
+      <c r="AN32" s="74"/>
+      <c r="AO32" s="74"/>
+      <c r="AP32" s="75"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="74"/>
+      <c r="AS32" s="74"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="74"/>
+      <c r="AX32" s="74"/>
+      <c r="AY32" s="74"/>
+      <c r="AZ32" s="74"/>
+      <c r="BA32" s="74"/>
+      <c r="BB32" s="74"/>
+      <c r="BC32" s="74"/>
+      <c r="BD32" s="74"/>
+      <c r="BE32" s="75"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="74"/>
+      <c r="BH32" s="74"/>
+      <c r="BI32" s="74"/>
+      <c r="BJ32" s="74"/>
+      <c r="BK32" s="191"/>
+      <c r="BL32" s="191"/>
+      <c r="BM32" s="191"/>
+      <c r="BN32" s="191"/>
+      <c r="BO32" s="191"/>
+      <c r="BP32" s="191"/>
+      <c r="BQ32" s="191"/>
+      <c r="BR32" s="191"/>
+      <c r="BS32" s="191"/>
+      <c r="BT32" s="192"/>
+      <c r="BU32" s="38"/>
+      <c r="BV32" s="39"/>
+    </row>
+    <row r="33" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B33" s="150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="153">
+        <v>2</v>
+      </c>
+      <c r="F33" s="154">
+        <v>0</v>
+      </c>
+      <c r="G33" s="155">
+        <f>E33-F33</f>
+        <v>2</v>
+      </c>
+      <c r="H33" s="212"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="73"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="74"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="75"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="74"/>
+      <c r="BA33" s="74"/>
+      <c r="BB33" s="74"/>
+      <c r="BC33" s="74"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="75"/>
+      <c r="BF33" s="73"/>
+      <c r="BG33" s="74"/>
+      <c r="BH33" s="74"/>
+      <c r="BI33" s="74"/>
+      <c r="BJ33" s="74"/>
+      <c r="BK33" s="191"/>
+      <c r="BL33" s="191"/>
+      <c r="BM33" s="191"/>
+      <c r="BN33" s="191"/>
+      <c r="BO33" s="191"/>
+      <c r="BP33" s="191"/>
+      <c r="BQ33" s="191"/>
+      <c r="BR33" s="191"/>
+      <c r="BS33" s="191"/>
+      <c r="BT33" s="192"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="39"/>
+    </row>
+    <row r="34" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B34" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="153">
+        <v>1</v>
+      </c>
+      <c r="F34" s="154">
+        <v>0</v>
+      </c>
+      <c r="G34" s="174">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="212"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="73"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="75"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="74"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
+      <c r="BC34" s="74"/>
+      <c r="BD34" s="74"/>
+      <c r="BE34" s="75"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="74"/>
+      <c r="BH34" s="74"/>
+      <c r="BI34" s="74"/>
+      <c r="BJ34" s="74"/>
+      <c r="BK34" s="191"/>
+      <c r="BL34" s="191"/>
+      <c r="BM34" s="191"/>
+      <c r="BN34" s="191"/>
+      <c r="BO34" s="191"/>
+      <c r="BP34" s="191"/>
+      <c r="BQ34" s="191"/>
+      <c r="BR34" s="191"/>
+      <c r="BS34" s="191"/>
+      <c r="BT34" s="192"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="39"/>
+    </row>
+    <row r="35" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B35" s="194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="195" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="196"/>
+      <c r="E35" s="197">
+        <f>SUM(E36:E39)</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="198">
+        <f>SUM(F36:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="199">
+        <f>SUM(G36:G39)</f>
+        <v>4</v>
+      </c>
+      <c r="H35" s="200"/>
+      <c r="I35" s="206">
+        <v>45923</v>
+      </c>
+      <c r="J35" s="206">
+        <v>45926</v>
+      </c>
+      <c r="K35" s="207">
+        <f>J35-I35+1</f>
+        <v>4</v>
+      </c>
+      <c r="L35" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="73"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="74"/>
+      <c r="AN35" s="74"/>
+      <c r="AO35" s="74"/>
+      <c r="AP35" s="75"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="74"/>
+      <c r="AS35" s="74"/>
+      <c r="AT35" s="74"/>
+      <c r="AU35" s="74"/>
+      <c r="AV35" s="74"/>
+      <c r="AW35" s="74"/>
+      <c r="AX35" s="74"/>
+      <c r="AY35" s="74"/>
+      <c r="AZ35" s="74"/>
+      <c r="BA35" s="74"/>
+      <c r="BB35" s="74"/>
+      <c r="BC35" s="74"/>
+      <c r="BD35" s="74"/>
+      <c r="BE35" s="75"/>
+      <c r="BF35" s="73"/>
+      <c r="BG35" s="74"/>
+      <c r="BH35" s="74"/>
+      <c r="BI35" s="74"/>
+      <c r="BJ35" s="74"/>
+      <c r="BK35" s="191"/>
+      <c r="BL35" s="191"/>
+      <c r="BM35" s="191"/>
+      <c r="BN35" s="191"/>
+      <c r="BO35" s="191"/>
+      <c r="BP35" s="191"/>
+      <c r="BQ35" s="191"/>
+      <c r="BR35" s="191"/>
+      <c r="BS35" s="191"/>
+      <c r="BT35" s="192"/>
+      <c r="BU35" s="38"/>
+      <c r="BV35" s="39"/>
+    </row>
+    <row r="36" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B36" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="153">
+        <v>1</v>
+      </c>
+      <c r="F36" s="154">
+        <v>0</v>
+      </c>
+      <c r="G36" s="155">
+        <f>E36-F36</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="212"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="73"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="74"/>
+      <c r="AO36" s="74"/>
+      <c r="AP36" s="75"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="74"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="74"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="74"/>
+      <c r="AX36" s="74"/>
+      <c r="AY36" s="74"/>
+      <c r="AZ36" s="74"/>
+      <c r="BA36" s="74"/>
+      <c r="BB36" s="74"/>
+      <c r="BC36" s="74"/>
+      <c r="BD36" s="74"/>
+      <c r="BE36" s="75"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="74"/>
+      <c r="BH36" s="74"/>
+      <c r="BI36" s="74"/>
+      <c r="BJ36" s="74"/>
+      <c r="BK36" s="191"/>
+      <c r="BL36" s="191"/>
+      <c r="BM36" s="191"/>
+      <c r="BN36" s="191"/>
+      <c r="BO36" s="191"/>
+      <c r="BP36" s="191"/>
+      <c r="BQ36" s="191"/>
+      <c r="BR36" s="191"/>
+      <c r="BS36" s="191"/>
+      <c r="BT36" s="192"/>
+      <c r="BU36" s="38"/>
+      <c r="BV36" s="39"/>
+    </row>
+    <row r="37" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B37" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="153">
+        <v>1</v>
+      </c>
+      <c r="F37" s="154">
+        <v>0</v>
+      </c>
+      <c r="G37" s="155">
+        <f>E37-F37</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="212"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="73"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="74"/>
+      <c r="AJ37" s="74"/>
+      <c r="AK37" s="74"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="74"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="75"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="74"/>
+      <c r="AS37" s="74"/>
+      <c r="AT37" s="74"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="74"/>
+      <c r="AX37" s="74"/>
+      <c r="AY37" s="74"/>
+      <c r="AZ37" s="74"/>
+      <c r="BA37" s="74"/>
+      <c r="BB37" s="74"/>
+      <c r="BC37" s="74"/>
+      <c r="BD37" s="74"/>
+      <c r="BE37" s="75"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="74"/>
+      <c r="BH37" s="74"/>
+      <c r="BI37" s="74"/>
+      <c r="BJ37" s="74"/>
+      <c r="BK37" s="191"/>
+      <c r="BL37" s="191"/>
+      <c r="BM37" s="191"/>
+      <c r="BN37" s="191"/>
+      <c r="BO37" s="191"/>
+      <c r="BP37" s="191"/>
+      <c r="BQ37" s="191"/>
+      <c r="BR37" s="191"/>
+      <c r="BS37" s="191"/>
+      <c r="BT37" s="192"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="39"/>
+    </row>
+    <row r="38" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B38" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="153">
+        <v>1</v>
+      </c>
+      <c r="F38" s="154">
+        <v>0</v>
+      </c>
+      <c r="G38" s="155">
+        <f>E38-F38</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="212"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="213"/>
+      <c r="L38" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="74"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="74"/>
+      <c r="AI38" s="74"/>
+      <c r="AJ38" s="74"/>
+      <c r="AK38" s="74"/>
+      <c r="AL38" s="74"/>
+      <c r="AM38" s="74"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="75"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="74"/>
+      <c r="AX38" s="74"/>
+      <c r="AY38" s="74"/>
+      <c r="AZ38" s="74"/>
+      <c r="BA38" s="74"/>
+      <c r="BB38" s="74"/>
+      <c r="BC38" s="74"/>
+      <c r="BD38" s="74"/>
+      <c r="BE38" s="75"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="74"/>
+      <c r="BH38" s="74"/>
+      <c r="BI38" s="74"/>
+      <c r="BJ38" s="74"/>
+      <c r="BK38" s="191"/>
+      <c r="BL38" s="191"/>
+      <c r="BM38" s="191"/>
+      <c r="BN38" s="191"/>
+      <c r="BO38" s="191"/>
+      <c r="BP38" s="191"/>
+      <c r="BQ38" s="191"/>
+      <c r="BR38" s="191"/>
+      <c r="BS38" s="191"/>
+      <c r="BT38" s="192"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="39"/>
+    </row>
+    <row r="39" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B39" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="219">
+        <v>1</v>
+      </c>
+      <c r="F39" s="220">
+        <v>0</v>
+      </c>
+      <c r="G39" s="190">
+        <f>E39-F39</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="221"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="214"/>
+      <c r="L39" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="73"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="74"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="74"/>
+      <c r="AF39" s="74"/>
+      <c r="AG39" s="74"/>
+      <c r="AH39" s="74"/>
+      <c r="AI39" s="74"/>
+      <c r="AJ39" s="74"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="74"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="75"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="74"/>
+      <c r="AS39" s="74"/>
+      <c r="AT39" s="74"/>
+      <c r="AU39" s="74"/>
+      <c r="AV39" s="74"/>
+      <c r="AW39" s="74"/>
+      <c r="AX39" s="74"/>
+      <c r="AY39" s="74"/>
+      <c r="AZ39" s="74"/>
+      <c r="BA39" s="74"/>
+      <c r="BB39" s="74"/>
+      <c r="BC39" s="74"/>
+      <c r="BD39" s="74"/>
+      <c r="BE39" s="75"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="74"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="74"/>
+      <c r="BJ39" s="74"/>
+      <c r="BK39" s="87"/>
+      <c r="BL39" s="87"/>
+      <c r="BM39" s="87"/>
+      <c r="BN39" s="87"/>
+      <c r="BO39" s="87"/>
+      <c r="BP39" s="87"/>
+      <c r="BQ39" s="87"/>
+      <c r="BR39" s="87"/>
+      <c r="BS39" s="87"/>
+      <c r="BT39" s="89"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="39"/>
+    </row>
+    <row r="40" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="223"/>
+      <c r="E40" s="224" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="224" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="224" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="224" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="224" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="38"/>
+      <c r="AU40" s="38"/>
+      <c r="AV40" s="38"/>
+      <c r="AW40" s="38"/>
+      <c r="AX40" s="38"/>
+      <c r="AY40" s="38"/>
+      <c r="AZ40" s="38"/>
+      <c r="BA40" s="38"/>
+      <c r="BB40" s="38"/>
+      <c r="BC40" s="38"/>
+      <c r="BD40" s="38"/>
+      <c r="BE40" s="38"/>
+      <c r="BF40" s="38"/>
+      <c r="BG40" s="38"/>
+      <c r="BH40" s="38"/>
+      <c r="BI40" s="38"/>
+      <c r="BJ40" s="38"/>
+      <c r="BK40" s="38"/>
+      <c r="BL40" s="38"/>
+      <c r="BM40" s="38"/>
+      <c r="BN40" s="38"/>
+      <c r="BO40" s="38"/>
+      <c r="BP40" s="38"/>
+      <c r="BQ40" s="38"/>
+      <c r="BR40" s="38"/>
+      <c r="BS40" s="38"/>
+      <c r="BT40" s="38"/>
+      <c r="BU40" s="38"/>
+      <c r="BV40" s="39"/>
+    </row>
+    <row r="41" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B41" s="38"/>
+      <c r="C41" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="215" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="216">
+        <f>SUM(E11:E14,E16:E19,E21:E24,E26:E29,E31:E34,E36:E39)</f>
+        <v>56</v>
+      </c>
+      <c r="F41" s="216">
+        <f>SUM(F11:F14,F16:F19,F21:F24,F26:F29,F31:F34,F36:F39)</f>
+        <v>8</v>
+      </c>
+      <c r="G41" s="216">
+        <f>SUM(G11:G14,G16:G19,G21:G24,G26:G29,G31:G34,G36:G39)</f>
+        <v>48</v>
+      </c>
+      <c r="H41" s="217">
+        <v>7</v>
+      </c>
+      <c r="I41" s="218">
+        <f>E41/H41</f>
+        <v>8</v>
+      </c>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="182" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" s="95">
+        <v>1</v>
+      </c>
+      <c r="N41" s="95">
+        <v>2</v>
+      </c>
+      <c r="O41" s="95">
+        <v>3</v>
+      </c>
+      <c r="P41" s="95">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="95">
+        <v>5</v>
+      </c>
+      <c r="R41" s="95">
+        <v>6</v>
+      </c>
+      <c r="S41" s="95">
+        <v>7</v>
+      </c>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95"/>
+      <c r="AF41" s="95"/>
+      <c r="AG41" s="95"/>
+      <c r="AH41" s="95"/>
+      <c r="AI41" s="95"/>
+      <c r="AJ41" s="95"/>
+      <c r="AK41" s="95"/>
+      <c r="AL41" s="95"/>
+      <c r="AM41" s="95"/>
+      <c r="AN41" s="95"/>
+      <c r="AO41" s="95"/>
+      <c r="AP41" s="95"/>
+      <c r="AQ41" s="95"/>
+      <c r="AR41" s="95"/>
+      <c r="AS41" s="95"/>
+      <c r="AT41" s="95"/>
+      <c r="AU41" s="95"/>
+      <c r="AV41" s="95"/>
+      <c r="AW41" s="95"/>
+      <c r="AX41" s="95"/>
+      <c r="AY41" s="95"/>
+      <c r="AZ41" s="95"/>
+      <c r="BA41" s="95"/>
+      <c r="BB41" s="95"/>
+      <c r="BC41" s="95"/>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="95"/>
+      <c r="BF41" s="95"/>
+      <c r="BG41" s="95"/>
+      <c r="BH41" s="95"/>
+      <c r="BI41" s="95"/>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="95"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="95"/>
+      <c r="BS41" s="95"/>
+      <c r="BT41" s="95"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="182" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="97">
+        <f>E41</f>
+        <v>56</v>
+      </c>
+      <c r="N42" s="98">
+        <f>M42-I41</f>
+        <v>48</v>
+      </c>
+      <c r="O42" s="98">
+        <f>N42-I41</f>
+        <v>40</v>
+      </c>
+      <c r="P42" s="98">
+        <f>O42-I41</f>
+        <v>32</v>
+      </c>
+      <c r="Q42" s="98">
+        <f>P42-I41</f>
+        <v>24</v>
+      </c>
+      <c r="R42" s="98">
+        <f>Q42-I41</f>
+        <v>16</v>
+      </c>
+      <c r="S42" s="98">
+        <f>R42-I41</f>
+        <v>8</v>
+      </c>
+      <c r="T42" s="98"/>
+      <c r="U42" s="98"/>
+      <c r="V42" s="98"/>
+      <c r="W42" s="98"/>
+      <c r="X42" s="98"/>
+      <c r="Y42" s="98"/>
+      <c r="Z42" s="98"/>
+      <c r="AA42" s="98"/>
+      <c r="AB42" s="98"/>
+      <c r="AC42" s="98"/>
+      <c r="AD42" s="98"/>
+      <c r="AE42" s="98"/>
+      <c r="AF42" s="98"/>
+      <c r="AG42" s="98"/>
+      <c r="AH42" s="98"/>
+      <c r="AI42" s="98"/>
+      <c r="AJ42" s="98"/>
+      <c r="AK42" s="98"/>
+      <c r="AL42" s="98"/>
+      <c r="AM42" s="98"/>
+      <c r="AN42" s="98"/>
+      <c r="AO42" s="98"/>
+      <c r="AP42" s="98"/>
+      <c r="AQ42" s="98"/>
+      <c r="AR42" s="98"/>
+      <c r="AS42" s="98"/>
+      <c r="AT42" s="98"/>
+      <c r="AU42" s="98"/>
+      <c r="AV42" s="98"/>
+      <c r="AW42" s="98"/>
+      <c r="AX42" s="98"/>
+      <c r="AY42" s="98"/>
+      <c r="AZ42" s="98"/>
+      <c r="BA42" s="98"/>
+      <c r="BB42" s="98"/>
+      <c r="BC42" s="98"/>
+      <c r="BD42" s="98"/>
+      <c r="BE42" s="98"/>
+      <c r="BF42" s="98"/>
+      <c r="BG42" s="98"/>
+      <c r="BH42" s="98"/>
+      <c r="BI42" s="98"/>
+      <c r="BJ42" s="98"/>
+      <c r="BK42" s="98"/>
+      <c r="BL42" s="98"/>
+      <c r="BM42" s="98"/>
+      <c r="BN42" s="98"/>
+      <c r="BO42" s="98"/>
+      <c r="BP42" s="98"/>
+      <c r="BQ42" s="98"/>
+      <c r="BR42" s="98"/>
+      <c r="BS42" s="98"/>
+      <c r="BT42" s="98"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" s="97">
+        <f>E41</f>
+        <v>56</v>
+      </c>
+      <c r="N43" s="97">
+        <f>M45</f>
+        <v>48</v>
+      </c>
+      <c r="O43" s="97">
+        <f>N45</f>
+        <v>48</v>
+      </c>
+      <c r="P43" s="97">
+        <f>O45</f>
+        <v>48</v>
+      </c>
+      <c r="Q43" s="97">
+        <f>P45</f>
+        <v>48</v>
+      </c>
+      <c r="R43" s="97">
+        <f t="shared" ref="R43:S43" si="4">Q45</f>
+        <v>48</v>
+      </c>
+      <c r="S43" s="97">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="97"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="97"/>
+      <c r="AG43" s="97"/>
+      <c r="AH43" s="97"/>
+      <c r="AI43" s="97"/>
+      <c r="AJ43" s="97"/>
+      <c r="AK43" s="97"/>
+      <c r="AL43" s="97"/>
+      <c r="AM43" s="97"/>
+      <c r="AN43" s="97"/>
+      <c r="AO43" s="97"/>
+      <c r="AP43" s="97"/>
+      <c r="AQ43" s="97"/>
+      <c r="AR43" s="97"/>
+      <c r="AS43" s="97"/>
+      <c r="AT43" s="97"/>
+      <c r="AU43" s="97"/>
+      <c r="AV43" s="97"/>
+      <c r="AW43" s="97"/>
+      <c r="AX43" s="97"/>
+      <c r="AY43" s="97"/>
+      <c r="AZ43" s="97"/>
+      <c r="BA43" s="97"/>
+      <c r="BB43" s="97"/>
+      <c r="BC43" s="97"/>
+      <c r="BD43" s="97"/>
+      <c r="BE43" s="97"/>
+      <c r="BF43" s="97"/>
+      <c r="BG43" s="97"/>
+      <c r="BH43" s="97"/>
+      <c r="BI43" s="97"/>
+      <c r="BJ43" s="97"/>
+      <c r="BK43" s="97"/>
+      <c r="BL43" s="97"/>
+      <c r="BM43" s="97"/>
+      <c r="BN43" s="97"/>
+      <c r="BO43" s="97"/>
+      <c r="BP43" s="97"/>
+      <c r="BQ43" s="97"/>
+      <c r="BR43" s="97"/>
+      <c r="BS43" s="97"/>
+      <c r="BT43" s="97"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="139">
+        <f>SUM(M43:BT43)</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" s="182" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" s="76">
+        <v>8</v>
+      </c>
+      <c r="N44" s="76">
+        <v>0</v>
+      </c>
+      <c r="O44" s="76">
+        <v>0</v>
+      </c>
+      <c r="P44" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="76">
+        <v>0</v>
+      </c>
+      <c r="R44" s="76">
+        <v>0</v>
+      </c>
+      <c r="S44" s="76">
+        <v>0</v>
+      </c>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="76"/>
+      <c r="BF44" s="76"/>
+      <c r="BG44" s="76"/>
+      <c r="BH44" s="76"/>
+      <c r="BI44" s="76"/>
+      <c r="BJ44" s="76"/>
+      <c r="BK44" s="76"/>
+      <c r="BL44" s="76"/>
+      <c r="BM44" s="76"/>
+      <c r="BN44" s="76"/>
+      <c r="BO44" s="76"/>
+      <c r="BP44" s="76"/>
+      <c r="BQ44" s="76"/>
+      <c r="BR44" s="76"/>
+      <c r="BS44" s="76"/>
+      <c r="BT44" s="76"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="140">
+        <f>SUM(M44:BT44)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="182" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="97">
+        <f>M43-M44</f>
+        <v>48</v>
+      </c>
+      <c r="N45" s="97">
+        <f>N43-N44</f>
+        <v>48</v>
+      </c>
+      <c r="O45" s="97">
+        <f>O43-O44</f>
+        <v>48</v>
+      </c>
+      <c r="P45" s="97">
+        <f t="shared" ref="P45" si="5">P43-P44</f>
+        <v>48</v>
+      </c>
+      <c r="Q45" s="97">
+        <f>Q43-Q44</f>
+        <v>48</v>
+      </c>
+      <c r="R45" s="97">
+        <f>R43-R44</f>
+        <v>48</v>
+      </c>
+      <c r="S45" s="97">
+        <f>S43-S44</f>
+        <v>48</v>
+      </c>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="97"/>
+      <c r="AK45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="97"/>
+      <c r="AN45" s="97"/>
+      <c r="AO45" s="97"/>
+      <c r="AP45" s="97"/>
+      <c r="AQ45" s="97"/>
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="97"/>
+      <c r="AX45" s="97"/>
+      <c r="AY45" s="97"/>
+      <c r="AZ45" s="97"/>
+      <c r="BA45" s="97"/>
+      <c r="BB45" s="97"/>
+      <c r="BC45" s="97"/>
+      <c r="BD45" s="97"/>
+      <c r="BE45" s="97"/>
+      <c r="BF45" s="97"/>
+      <c r="BG45" s="97"/>
+      <c r="BH45" s="97"/>
+      <c r="BI45" s="97"/>
+      <c r="BJ45" s="97"/>
+      <c r="BK45" s="97"/>
+      <c r="BL45" s="97"/>
+      <c r="BM45" s="97"/>
+      <c r="BN45" s="97"/>
+      <c r="BO45" s="97"/>
+      <c r="BP45" s="97"/>
+      <c r="BQ45" s="97"/>
+      <c r="BR45" s="97"/>
+      <c r="BS45" s="97"/>
+      <c r="BT45" s="97"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="140">
+        <f>SUM(M45:BT45)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="2:74" ht="19.5" customHeight="1">
+      <c r="C46" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="210"/>
+    </row>
+    <row r="47" spans="2:74" ht="381.95" customHeight="1"/>
+    <row r="48" spans="2:74" ht="216.95" customHeight="1"/>
+    <row r="50" spans="2:74" ht="50.1" customHeight="1">
+      <c r="B50" s="246"/>
+      <c r="C50" s="247"/>
+      <c r="D50" s="247"/>
+      <c r="E50" s="247"/>
+      <c r="F50" s="247"/>
+      <c r="G50" s="247"/>
+      <c r="H50" s="247"/>
+      <c r="I50" s="247"/>
+      <c r="J50" s="247"/>
+      <c r="K50" s="247"/>
+      <c r="L50" s="247"/>
+      <c r="M50" s="247"/>
+      <c r="N50" s="247"/>
+      <c r="O50" s="247"/>
+      <c r="P50" s="247"/>
+      <c r="Q50" s="247"/>
+      <c r="R50" s="247"/>
+      <c r="S50" s="247"/>
+      <c r="T50" s="247"/>
+      <c r="U50" s="247"/>
+      <c r="V50" s="247"/>
+      <c r="W50" s="247"/>
+      <c r="X50" s="247"/>
+      <c r="Y50" s="247"/>
+      <c r="Z50" s="247"/>
+      <c r="AA50" s="247"/>
+      <c r="AB50" s="247"/>
+      <c r="AC50" s="247"/>
+      <c r="AD50" s="247"/>
+      <c r="AE50" s="247"/>
+      <c r="AF50" s="247"/>
+      <c r="AG50" s="247"/>
+      <c r="AH50" s="247"/>
+      <c r="AI50" s="247"/>
+      <c r="AJ50" s="247"/>
+      <c r="AK50" s="247"/>
+      <c r="AL50" s="247"/>
+      <c r="AM50" s="247"/>
+      <c r="AN50" s="247"/>
+      <c r="AO50" s="247"/>
+      <c r="AP50" s="247"/>
+      <c r="AQ50" s="247"/>
+      <c r="AR50" s="247"/>
+      <c r="AS50" s="247"/>
+      <c r="AT50" s="247"/>
+      <c r="AU50" s="247"/>
+      <c r="AV50" s="247"/>
+      <c r="AW50" s="247"/>
+      <c r="AX50" s="247"/>
+      <c r="AY50" s="247"/>
+      <c r="AZ50" s="247"/>
+      <c r="BA50" s="247"/>
+      <c r="BB50" s="247"/>
+      <c r="BC50" s="247"/>
+      <c r="BD50" s="247"/>
+      <c r="BE50" s="247"/>
+      <c r="BF50" s="247"/>
+      <c r="BG50" s="247"/>
+      <c r="BH50" s="247"/>
+      <c r="BI50" s="247"/>
+      <c r="BJ50" s="247"/>
+      <c r="BK50" s="247"/>
+      <c r="BL50" s="247"/>
+      <c r="BM50" s="247"/>
+      <c r="BN50" s="247"/>
+      <c r="BO50" s="247"/>
+      <c r="BP50" s="247"/>
+      <c r="BQ50" s="247"/>
+      <c r="BR50" s="247"/>
+      <c r="BS50" s="247"/>
+      <c r="BT50" s="247"/>
+      <c r="BU50" s="247"/>
+      <c r="BV50" s="248"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="B50:BV50"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D26DFA2-4B50-40AD-BD8B-92946F1424A2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L14">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4EC91614-C42E-48F8-95F6-E791ED3AB754}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD355847-61A9-48E3-8CD4-36A9C2DE792F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L39">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
+  <pageSetup scale="32" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D26DFA2-4B50-40AD-BD8B-92946F1424A2}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4EC91614-C42E-48F8-95F6-E791ED3AB754}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{BD355847-61A9-48E3-8CD4-36A9C2DE792F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L10:L39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097109D2-447F-4F39-A4BD-92E74C4EFF49}">
   <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -9856,7 +15100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -9972,7 +15216,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="236" t="s">
+      <c r="K2" s="252" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="42" t="s">
@@ -10051,7 +15295,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="237"/>
+      <c r="K3" s="253"/>
       <c r="L3" s="47" t="s">
         <v>3</v>
       </c>
@@ -10128,7 +15372,7 @@
       <c r="H4" s="37"/>
       <c r="I4" s="36"/>
       <c r="J4" s="37"/>
-      <c r="K4" s="237"/>
+      <c r="K4" s="253"/>
       <c r="L4" s="52" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +15449,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="237"/>
+      <c r="K5" s="253"/>
       <c r="L5" s="54" t="s">
         <v>5</v>
       </c>
@@ -10282,7 +15526,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="238"/>
+      <c r="K6" s="254"/>
       <c r="L6" s="56" t="s">
         <v>6</v>
       </c>
@@ -10350,126 +15594,126 @@
       <c r="BV6" s="39"/>
     </row>
     <row r="7" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="261" t="s">
+      <c r="C7" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="257" t="s">
+      <c r="D7" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="233" t="s">
+      <c r="E7" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="234"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="255" t="s">
+      <c r="F7" s="250"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="259" t="s">
+      <c r="I7" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="260" t="s">
+      <c r="J7" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="239" t="s">
+      <c r="K7" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="241" t="s">
+      <c r="L7" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="243" t="s">
+      <c r="M7" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="244"/>
-      <c r="O7" s="244"/>
-      <c r="P7" s="244"/>
-      <c r="Q7" s="245"/>
-      <c r="R7" s="246" t="s">
+      <c r="N7" s="233"/>
+      <c r="O7" s="233"/>
+      <c r="P7" s="233"/>
+      <c r="Q7" s="234"/>
+      <c r="R7" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="244"/>
-      <c r="T7" s="244"/>
-      <c r="U7" s="244"/>
-      <c r="V7" s="245"/>
-      <c r="W7" s="246" t="s">
+      <c r="S7" s="233"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="234"/>
+      <c r="W7" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="244"/>
-      <c r="Y7" s="244"/>
-      <c r="Z7" s="244"/>
-      <c r="AA7" s="245"/>
-      <c r="AB7" s="248" t="s">
+      <c r="X7" s="233"/>
+      <c r="Y7" s="233"/>
+      <c r="Z7" s="233"/>
+      <c r="AA7" s="234"/>
+      <c r="AB7" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="244"/>
-      <c r="AD7" s="244"/>
-      <c r="AE7" s="244"/>
-      <c r="AF7" s="245"/>
-      <c r="AG7" s="249" t="s">
+      <c r="AC7" s="233"/>
+      <c r="AD7" s="233"/>
+      <c r="AE7" s="233"/>
+      <c r="AF7" s="234"/>
+      <c r="AG7" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" s="244"/>
-      <c r="AI7" s="244"/>
-      <c r="AJ7" s="244"/>
-      <c r="AK7" s="245"/>
-      <c r="AL7" s="249" t="s">
+      <c r="AH7" s="233"/>
+      <c r="AI7" s="233"/>
+      <c r="AJ7" s="233"/>
+      <c r="AK7" s="234"/>
+      <c r="AL7" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="AM7" s="244"/>
-      <c r="AN7" s="244"/>
-      <c r="AO7" s="244"/>
-      <c r="AP7" s="245"/>
-      <c r="AQ7" s="247" t="s">
+      <c r="AM7" s="233"/>
+      <c r="AN7" s="233"/>
+      <c r="AO7" s="233"/>
+      <c r="AP7" s="234"/>
+      <c r="AQ7" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="AR7" s="244"/>
-      <c r="AS7" s="244"/>
-      <c r="AT7" s="244"/>
-      <c r="AU7" s="245"/>
-      <c r="AV7" s="250" t="s">
+      <c r="AR7" s="233"/>
+      <c r="AS7" s="233"/>
+      <c r="AT7" s="233"/>
+      <c r="AU7" s="234"/>
+      <c r="AV7" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="244"/>
-      <c r="AX7" s="244"/>
-      <c r="AY7" s="244"/>
-      <c r="AZ7" s="245"/>
-      <c r="BA7" s="250" t="s">
+      <c r="AW7" s="233"/>
+      <c r="AX7" s="233"/>
+      <c r="AY7" s="233"/>
+      <c r="AZ7" s="234"/>
+      <c r="BA7" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="BB7" s="244"/>
-      <c r="BC7" s="244"/>
-      <c r="BD7" s="244"/>
-      <c r="BE7" s="245"/>
-      <c r="BF7" s="251" t="s">
+      <c r="BB7" s="233"/>
+      <c r="BC7" s="233"/>
+      <c r="BD7" s="233"/>
+      <c r="BE7" s="234"/>
+      <c r="BF7" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="BG7" s="244"/>
-      <c r="BH7" s="244"/>
-      <c r="BI7" s="244"/>
-      <c r="BJ7" s="245"/>
-      <c r="BK7" s="263" t="s">
+      <c r="BG7" s="233"/>
+      <c r="BH7" s="233"/>
+      <c r="BI7" s="233"/>
+      <c r="BJ7" s="234"/>
+      <c r="BK7" s="265" t="s">
         <v>26</v>
       </c>
-      <c r="BL7" s="244"/>
-      <c r="BM7" s="244"/>
-      <c r="BN7" s="244"/>
-      <c r="BO7" s="245"/>
-      <c r="BP7" s="263" t="s">
+      <c r="BL7" s="233"/>
+      <c r="BM7" s="233"/>
+      <c r="BN7" s="233"/>
+      <c r="BO7" s="234"/>
+      <c r="BP7" s="265" t="s">
         <v>27</v>
       </c>
-      <c r="BQ7" s="244"/>
-      <c r="BR7" s="244"/>
-      <c r="BS7" s="244"/>
-      <c r="BT7" s="245"/>
+      <c r="BQ7" s="233"/>
+      <c r="BR7" s="233"/>
+      <c r="BS7" s="233"/>
+      <c r="BT7" s="234"/>
       <c r="BU7" s="38"/>
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="254"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="258"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
@@ -10479,11 +15723,11 @@
       <c r="G8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="256"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="242"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="257"/>
       <c r="M8" s="61" t="s">
         <v>31</v>
       </c>
@@ -14003,6 +19247,13 @@
     <row r="42" spans="2:74" ht="216.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="BK7:BO7"/>
     <mergeCell ref="AG7:AK7"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="B7:B8"/>
@@ -14018,13 +19269,6 @@
     <mergeCell ref="R7:V7"/>
     <mergeCell ref="W7:AA7"/>
     <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BJ7"/>
-    <mergeCell ref="BK7:BO7"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:L33">
     <cfRule type="dataBar" priority="1">
@@ -14041,7 +19285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -14776,7 +20020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>

--- a/Scrum-Project-Management.xlsx
+++ b/Scrum-Project-Management.xlsx
@@ -8,35 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\IDEA-PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF493C2F-DAEB-4705-8443-48EAD82E4F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8496ADCA-BD09-4529-830F-C95133DDDB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="7" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="8" r:id="rId3"/>
-    <sheet name="Post-It" sheetId="6" r:id="rId4"/>
-    <sheet name="a de Gantt en blanco y burndown" sheetId="2" r:id="rId5"/>
-    <sheet name="Backlog de lanzamientos" sheetId="3" r:id="rId6"/>
-    <sheet name="Historias de usuario o tareas" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint 4" sheetId="9" r:id="rId4"/>
+    <sheet name="Post-It" sheetId="6" r:id="rId5"/>
+    <sheet name="a de Gantt en blanco y burndown" sheetId="2" r:id="rId6"/>
+    <sheet name="Backlog de lanzamientos" sheetId="3" r:id="rId7"/>
+    <sheet name="Historias de usuario o tareas" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'a de Gantt en blanco y burndown'!$B$1:$BV$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Backlog de lanzamientos'!$B$1:$J$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Historias de usuario o tareas'!$B$1:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'a de Gantt en blanco y burndown'!$B$1:$BV$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Backlog de lanzamientos'!$B$1:$J$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Historias de usuario o tareas'!$B$1:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint 1'!$B$1:$BV$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Sprint 2'!$B$1:$BV$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Sprint 3'!$B$1:$BV$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint 4'!$B$1:$BV$50</definedName>
     <definedName name="Interval">'[1]Office Work Schedule'!#REF!</definedName>
     <definedName name="ScheduleStart">'[1]Office Work Schedule'!#REF!</definedName>
     <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="227">
   <si>
     <t>DIAGRAMA DE GANTT Y BURNDOWN</t>
   </si>
@@ -613,6 +616,126 @@
   </si>
   <si>
     <t>Asegurar legibilidad en interfaz.</t>
+  </si>
+  <si>
+    <t>HU-14: Historial de Diagnósticos (8h)</t>
+  </si>
+  <si>
+    <t>HU-17: Notas en Diagnóstico (4h)</t>
+  </si>
+  <si>
+    <t>HU-18: Validación de Calidad de Imagen (8h)</t>
+  </si>
+  <si>
+    <t>HU-24: Múltiples Imágenes por Cultivo (8h)</t>
+  </si>
+  <si>
+    <t>HU-26: Alertas Tempranas (8h)</t>
+  </si>
+  <si>
+    <t>HU-19: Clasificación de Severidad (8h)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>HU-22: Retroalimentación del Usuario (4h)</t>
+  </si>
+  <si>
+    <t>HU-28: Backup Automático (4h)</t>
+  </si>
+  <si>
+    <t>Diseñar estructura de base de datos para guardar diagnósticos.</t>
+  </si>
+  <si>
+    <t>Implementar visualización del historial en la interfaz web.</t>
+  </si>
+  <si>
+    <t>Permitir filtrado por fecha o tipo de enfermedad.</t>
+  </si>
+  <si>
+    <t>Crear campo para añadir notas o comentarios por diagnóstico.</t>
+  </si>
+  <si>
+    <t>Guardar notas junto a la imagen y resultado.</t>
+  </si>
+  <si>
+    <t>Mostrar notas en el historial de diagnósticos.</t>
+  </si>
+  <si>
+    <t>Implementar detección de imágenes borrosas o incompletas.</t>
+  </si>
+  <si>
+    <t>Notificar al usuario cuando la imagen no cumpla calidad mínima.</t>
+  </si>
+  <si>
+    <t>Registrar estadísticas de calidad en los reportes</t>
+  </si>
+  <si>
+    <t>Permitir carga simultánea de varias imágenes.</t>
+  </si>
+  <si>
+    <t>Analizar todas las imágenes antes de emitir diagnóstico final.</t>
+  </si>
+  <si>
+    <t>Mostrar resultado consolidado con promedio de confianza.</t>
+  </si>
+  <si>
+    <t>Configurar reglas para detectar patrones de brotes.</t>
+  </si>
+  <si>
+    <t>Generar alertas visuales cuando haya recurrencia en una zona.</t>
+  </si>
+  <si>
+    <t>Mostrar resumen de alertas en la interfaz web.</t>
+  </si>
+  <si>
+    <t>Añadir etiquetas de severidad (leve, moderada, grave) en dataset.</t>
+  </si>
+  <si>
+    <t>Ajustar el modelo CNN para salida multiclase de severidad.</t>
+  </si>
+  <si>
+    <t>Mostrar nivel de severidad junto con diagnóstico.</t>
+  </si>
+  <si>
+    <t>Crear formulario para calificar precisión del diagnóstico.</t>
+  </si>
+  <si>
+    <t>Guardar retroalimentación en la base de datos.</t>
+  </si>
+  <si>
+    <t>Mostrar estadísticas básicas de satisfacción.</t>
+  </si>
+  <si>
+    <t>Configurar tareas automáticas de respaldo de datos y modelo.</t>
+  </si>
+  <si>
+    <t>Guardar copias en almacenamiento seguro (Drive o servidor).</t>
+  </si>
+  <si>
+    <t>Probar recuperación de respaldo exitosamente.</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2206,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="32" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2656,6 +2779,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4326,7 +4460,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4619,7 +4753,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,6 +4993,693 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$L$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRS COMPLETADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$43:$BT$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$46:$BT$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C2B-4838-9BB5-61590BD4C9B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="72"/>
+        <c:axId val="1150741088"/>
+        <c:axId val="1179485168"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$L$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PLAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$43:$BT$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$44:$BT$44</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7142857142857091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C2B-4838-9BB5-61590BD4C9B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESTIMAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$43:$BT$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$45:$BT$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C2B-4838-9BB5-61590BD4C9B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$L$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRS RESTANTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$43:$BT$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$M$47:$BT$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C2B-4838-9BB5-61590BD4C9B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1180770320"/>
+        <c:axId val="1180774800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1150741088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1179485168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1179485168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150741088"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1180770320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180774800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1180774800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180770320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6765,6 +7586,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55770</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119269</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1990725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F960CAD-ACFC-41DD-8B4D-D353A2634869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -7153,7 +8017,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="243" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="42" t="s">
@@ -7232,7 +8096,7 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="239"/>
+      <c r="K4" s="244"/>
       <c r="L4" s="47" t="s">
         <v>3</v>
       </c>
@@ -7309,7 +8173,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="239"/>
+      <c r="K5" s="244"/>
       <c r="L5" s="52" t="s">
         <v>4</v>
       </c>
@@ -7386,7 +8250,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="239"/>
+      <c r="K6" s="244"/>
       <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
@@ -7463,7 +8327,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="240"/>
+      <c r="K7" s="245"/>
       <c r="L7" s="56" t="s">
         <v>6</v>
       </c>
@@ -7531,122 +8395,122 @@
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="1:74" ht="23.1" customHeight="1">
-      <c r="B8" s="255" t="s">
+      <c r="B8" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="235" t="s">
+      <c r="E8" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="236"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="257" t="s">
+      <c r="F8" s="241"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="262" t="s">
+      <c r="J8" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="241" t="s">
+      <c r="K8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="243" t="s">
+      <c r="L8" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="245" t="s">
+      <c r="M8" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="247"/>
-      <c r="R8" s="248" t="s">
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="247"/>
-      <c r="W8" s="248" t="s">
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="250" t="s">
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="247"/>
-      <c r="AG8" s="251" t="s">
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="247"/>
-      <c r="AL8" s="251" t="s">
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
+      <c r="AJ8" s="251"/>
+      <c r="AK8" s="252"/>
+      <c r="AL8" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="247"/>
-      <c r="AQ8" s="249" t="s">
+      <c r="AM8" s="251"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="252"/>
+      <c r="AQ8" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="246"/>
-      <c r="AS8" s="246"/>
-      <c r="AT8" s="246"/>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="252" t="s">
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="246"/>
-      <c r="AX8" s="246"/>
-      <c r="AY8" s="246"/>
-      <c r="AZ8" s="247"/>
-      <c r="BA8" s="252" t="s">
+      <c r="AW8" s="251"/>
+      <c r="AX8" s="251"/>
+      <c r="AY8" s="251"/>
+      <c r="AZ8" s="252"/>
+      <c r="BA8" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="BB8" s="246"/>
-      <c r="BC8" s="246"/>
-      <c r="BD8" s="246"/>
-      <c r="BE8" s="247"/>
-      <c r="BF8" s="253" t="s">
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251"/>
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="252"/>
+      <c r="BF8" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="246"/>
-      <c r="BH8" s="246"/>
-      <c r="BI8" s="246"/>
-      <c r="BJ8" s="247"/>
-      <c r="BK8" s="254"/>
-      <c r="BL8" s="246"/>
-      <c r="BM8" s="246"/>
-      <c r="BN8" s="246"/>
-      <c r="BO8" s="247"/>
-      <c r="BP8" s="254"/>
-      <c r="BQ8" s="246"/>
-      <c r="BR8" s="246"/>
-      <c r="BS8" s="246"/>
-      <c r="BT8" s="247"/>
+      <c r="BG8" s="251"/>
+      <c r="BH8" s="251"/>
+      <c r="BI8" s="251"/>
+      <c r="BJ8" s="252"/>
+      <c r="BK8" s="259"/>
+      <c r="BL8" s="251"/>
+      <c r="BM8" s="251"/>
+      <c r="BN8" s="251"/>
+      <c r="BO8" s="252"/>
+      <c r="BP8" s="259"/>
+      <c r="BQ8" s="251"/>
+      <c r="BR8" s="251"/>
+      <c r="BS8" s="251"/>
+      <c r="BT8" s="252"/>
       <c r="BU8" s="38"/>
       <c r="BV8" s="39"/>
     </row>
     <row r="9" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B9" s="256"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="260"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="265"/>
       <c r="E9" s="58" t="s">
         <v>28</v>
       </c>
@@ -7656,11 +8520,11 @@
       <c r="G9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="258"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="244"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="249"/>
       <c r="M9" s="61" t="s">
         <v>31</v>
       </c>
@@ -7939,7 +8803,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="155">
-        <f t="shared" ref="G11:G14" si="1">E11-F11</f>
+        <f>E11-F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="156"/>
@@ -8030,7 +8894,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="155">
-        <f t="shared" si="1"/>
+        <f>E12-F12</f>
         <v>0</v>
       </c>
       <c r="H12" s="163"/>
@@ -8121,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="155">
-        <f t="shared" si="1"/>
+        <f>E13-F13</f>
         <v>0</v>
       </c>
       <c r="H13" s="156"/>
@@ -8212,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="155">
-        <f t="shared" si="1"/>
+        <f>E14-F14</f>
         <v>0</v>
       </c>
       <c r="H14" s="156"/>
@@ -8780,7 +9644,7 @@
         <v>7</v>
       </c>
       <c r="L20" s="201">
-        <f t="shared" ref="L20:L25" si="2">IFERROR(F20/E20,"")</f>
+        <f t="shared" ref="L20:L25" si="1">IFERROR(F20/E20,"")</f>
         <v>1</v>
       </c>
       <c r="M20" s="73"/>
@@ -8863,7 +9727,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="155">
-        <f t="shared" ref="G21:G24" si="3">E21-F21</f>
+        <f>E21-F21</f>
         <v>0</v>
       </c>
       <c r="H21" s="156"/>
@@ -8871,7 +9735,7 @@
       <c r="J21" s="158"/>
       <c r="K21" s="213"/>
       <c r="L21" s="201">
-        <f>IFERROR(F21/E21,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M21" s="77"/>
@@ -8954,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="155">
-        <f t="shared" si="3"/>
+        <f>E22-F22</f>
         <v>0</v>
       </c>
       <c r="H22" s="156"/>
@@ -8962,7 +9826,7 @@
       <c r="J22" s="158"/>
       <c r="K22" s="213"/>
       <c r="L22" s="201">
-        <f>IFERROR(F22/E22,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M22" s="77"/>
@@ -9045,7 +9909,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="155">
-        <f t="shared" si="3"/>
+        <f>E23-F23</f>
         <v>0</v>
       </c>
       <c r="H23" s="163"/>
@@ -9053,7 +9917,7 @@
       <c r="J23" s="158"/>
       <c r="K23" s="213"/>
       <c r="L23" s="201">
-        <f>IFERROR(F23/E23,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M23" s="77"/>
@@ -9136,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="155">
-        <f t="shared" si="3"/>
+        <f>E24-F24</f>
         <v>0</v>
       </c>
       <c r="H24" s="163"/>
@@ -9144,7 +10008,7 @@
       <c r="J24" s="158"/>
       <c r="K24" s="213"/>
       <c r="L24" s="201">
-        <f>IFERROR(F24/E24,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M24" s="77"/>
@@ -9242,7 +10106,7 @@
         <v>7</v>
       </c>
       <c r="L25" s="201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M25" s="73"/>
@@ -9333,7 +10197,7 @@
       <c r="J26" s="158"/>
       <c r="K26" s="213"/>
       <c r="L26" s="201">
-        <f t="shared" ref="L26:L39" si="4">IFERROR(F26/E26,"")</f>
+        <f t="shared" ref="L26:L39" si="2">IFERROR(F26/E26,"")</f>
         <v>1</v>
       </c>
       <c r="M26" s="77"/>
@@ -9424,7 +10288,7 @@
       <c r="J27" s="158"/>
       <c r="K27" s="213"/>
       <c r="L27" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M27" s="77"/>
@@ -9515,7 +10379,7 @@
       <c r="J28" s="158"/>
       <c r="K28" s="213"/>
       <c r="L28" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M28" s="77"/>
@@ -9606,7 +10470,7 @@
       <c r="J29" s="177"/>
       <c r="K29" s="214"/>
       <c r="L29" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M29" s="86"/>
@@ -9704,7 +10568,7 @@
         <v>7</v>
       </c>
       <c r="L30" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M30" s="73"/>
@@ -9795,7 +10659,7 @@
       <c r="J31" s="158"/>
       <c r="K31" s="213"/>
       <c r="L31" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M31" s="73"/>
@@ -9878,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="155">
-        <f t="shared" ref="G32:G34" si="5">E32-F32</f>
+        <f>E32-F32</f>
         <v>0</v>
       </c>
       <c r="H32" s="212"/>
@@ -9886,7 +10750,7 @@
       <c r="J32" s="158"/>
       <c r="K32" s="213"/>
       <c r="L32" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M32" s="73"/>
@@ -9977,7 +10841,7 @@
       <c r="J33" s="158"/>
       <c r="K33" s="213"/>
       <c r="L33" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M33" s="73"/>
@@ -10060,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="174">
-        <f t="shared" si="5"/>
+        <f>E34-F34</f>
         <v>0</v>
       </c>
       <c r="H34" s="212"/>
@@ -10068,7 +10932,7 @@
       <c r="J34" s="158"/>
       <c r="K34" s="214"/>
       <c r="L34" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M34" s="73"/>
@@ -10166,7 +11030,7 @@
         <v>7</v>
       </c>
       <c r="L35" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M35" s="73"/>
@@ -10257,7 +11121,7 @@
       <c r="J36" s="158"/>
       <c r="K36" s="213"/>
       <c r="L36" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M36" s="73"/>
@@ -10348,7 +11212,7 @@
       <c r="J37" s="158"/>
       <c r="K37" s="213"/>
       <c r="L37" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M37" s="73"/>
@@ -10439,7 +11303,7 @@
       <c r="J38" s="158"/>
       <c r="K38" s="213"/>
       <c r="L38" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M38" s="73"/>
@@ -10530,7 +11394,7 @@
       <c r="J39" s="158"/>
       <c r="K39" s="214"/>
       <c r="L39" s="201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M39" s="73"/>
@@ -10913,27 +11777,27 @@
         <v>52</v>
       </c>
       <c r="N43" s="97">
-        <f>M45</f>
+        <f t="shared" ref="N43:S43" si="3">M45</f>
         <v>44</v>
       </c>
       <c r="O43" s="97">
-        <f>N45</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="P43" s="97">
-        <f>O45</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="Q43" s="97">
-        <f>P45</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R43" s="97">
-        <f t="shared" ref="R43:S43" si="6">Q45</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="S43" s="97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T43" s="97"/>
@@ -11106,31 +11970,31 @@
         <v>52</v>
       </c>
       <c r="M45" s="97">
-        <f>M43-M44</f>
+        <f t="shared" ref="M45:S45" si="4">M43-M44</f>
         <v>44</v>
       </c>
       <c r="N45" s="97">
-        <f>N43-N44</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="O45" s="97">
-        <f>O43-O44</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="P45" s="97">
-        <f t="shared" ref="P45" si="7">P43-P44</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="Q45" s="97">
-        <f>Q43-Q44</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R45" s="97">
-        <f>R43-R44</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="S45" s="97">
-        <f>S43-S44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T45" s="97"/>
@@ -11201,79 +12065,79 @@
     <row r="47" spans="2:74" ht="381.95" customHeight="1"/>
     <row r="48" spans="2:74" ht="216.95" customHeight="1"/>
     <row r="50" spans="2:74" ht="50.1" customHeight="1">
-      <c r="B50" s="232"/>
-      <c r="C50" s="233"/>
-      <c r="D50" s="233"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="233"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="233"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="233"/>
-      <c r="L50" s="233"/>
-      <c r="M50" s="233"/>
-      <c r="N50" s="233"/>
-      <c r="O50" s="233"/>
-      <c r="P50" s="233"/>
-      <c r="Q50" s="233"/>
-      <c r="R50" s="233"/>
-      <c r="S50" s="233"/>
-      <c r="T50" s="233"/>
-      <c r="U50" s="233"/>
-      <c r="V50" s="233"/>
-      <c r="W50" s="233"/>
-      <c r="X50" s="233"/>
-      <c r="Y50" s="233"/>
-      <c r="Z50" s="233"/>
-      <c r="AA50" s="233"/>
-      <c r="AB50" s="233"/>
-      <c r="AC50" s="233"/>
-      <c r="AD50" s="233"/>
-      <c r="AE50" s="233"/>
-      <c r="AF50" s="233"/>
-      <c r="AG50" s="233"/>
-      <c r="AH50" s="233"/>
-      <c r="AI50" s="233"/>
-      <c r="AJ50" s="233"/>
-      <c r="AK50" s="233"/>
-      <c r="AL50" s="233"/>
-      <c r="AM50" s="233"/>
-      <c r="AN50" s="233"/>
-      <c r="AO50" s="233"/>
-      <c r="AP50" s="233"/>
-      <c r="AQ50" s="233"/>
-      <c r="AR50" s="233"/>
-      <c r="AS50" s="233"/>
-      <c r="AT50" s="233"/>
-      <c r="AU50" s="233"/>
-      <c r="AV50" s="233"/>
-      <c r="AW50" s="233"/>
-      <c r="AX50" s="233"/>
-      <c r="AY50" s="233"/>
-      <c r="AZ50" s="233"/>
-      <c r="BA50" s="233"/>
-      <c r="BB50" s="233"/>
-      <c r="BC50" s="233"/>
-      <c r="BD50" s="233"/>
-      <c r="BE50" s="233"/>
-      <c r="BF50" s="233"/>
-      <c r="BG50" s="233"/>
-      <c r="BH50" s="233"/>
-      <c r="BI50" s="233"/>
-      <c r="BJ50" s="233"/>
-      <c r="BK50" s="233"/>
-      <c r="BL50" s="233"/>
-      <c r="BM50" s="233"/>
-      <c r="BN50" s="233"/>
-      <c r="BO50" s="233"/>
-      <c r="BP50" s="233"/>
-      <c r="BQ50" s="233"/>
-      <c r="BR50" s="233"/>
-      <c r="BS50" s="233"/>
-      <c r="BT50" s="233"/>
-      <c r="BU50" s="233"/>
-      <c r="BV50" s="234"/>
+      <c r="B50" s="237"/>
+      <c r="C50" s="238"/>
+      <c r="D50" s="238"/>
+      <c r="E50" s="238"/>
+      <c r="F50" s="238"/>
+      <c r="G50" s="238"/>
+      <c r="H50" s="238"/>
+      <c r="I50" s="238"/>
+      <c r="J50" s="238"/>
+      <c r="K50" s="238"/>
+      <c r="L50" s="238"/>
+      <c r="M50" s="238"/>
+      <c r="N50" s="238"/>
+      <c r="O50" s="238"/>
+      <c r="P50" s="238"/>
+      <c r="Q50" s="238"/>
+      <c r="R50" s="238"/>
+      <c r="S50" s="238"/>
+      <c r="T50" s="238"/>
+      <c r="U50" s="238"/>
+      <c r="V50" s="238"/>
+      <c r="W50" s="238"/>
+      <c r="X50" s="238"/>
+      <c r="Y50" s="238"/>
+      <c r="Z50" s="238"/>
+      <c r="AA50" s="238"/>
+      <c r="AB50" s="238"/>
+      <c r="AC50" s="238"/>
+      <c r="AD50" s="238"/>
+      <c r="AE50" s="238"/>
+      <c r="AF50" s="238"/>
+      <c r="AG50" s="238"/>
+      <c r="AH50" s="238"/>
+      <c r="AI50" s="238"/>
+      <c r="AJ50" s="238"/>
+      <c r="AK50" s="238"/>
+      <c r="AL50" s="238"/>
+      <c r="AM50" s="238"/>
+      <c r="AN50" s="238"/>
+      <c r="AO50" s="238"/>
+      <c r="AP50" s="238"/>
+      <c r="AQ50" s="238"/>
+      <c r="AR50" s="238"/>
+      <c r="AS50" s="238"/>
+      <c r="AT50" s="238"/>
+      <c r="AU50" s="238"/>
+      <c r="AV50" s="238"/>
+      <c r="AW50" s="238"/>
+      <c r="AX50" s="238"/>
+      <c r="AY50" s="238"/>
+      <c r="AZ50" s="238"/>
+      <c r="BA50" s="238"/>
+      <c r="BB50" s="238"/>
+      <c r="BC50" s="238"/>
+      <c r="BD50" s="238"/>
+      <c r="BE50" s="238"/>
+      <c r="BF50" s="238"/>
+      <c r="BG50" s="238"/>
+      <c r="BH50" s="238"/>
+      <c r="BI50" s="238"/>
+      <c r="BJ50" s="238"/>
+      <c r="BK50" s="238"/>
+      <c r="BL50" s="238"/>
+      <c r="BM50" s="238"/>
+      <c r="BN50" s="238"/>
+      <c r="BO50" s="238"/>
+      <c r="BP50" s="238"/>
+      <c r="BQ50" s="238"/>
+      <c r="BR50" s="238"/>
+      <c r="BS50" s="238"/>
+      <c r="BT50" s="238"/>
+      <c r="BU50" s="238"/>
+      <c r="BV50" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -11545,7 +12409,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="243" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="42" t="s">
@@ -11624,7 +12488,7 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="239"/>
+      <c r="K4" s="244"/>
       <c r="L4" s="47" t="s">
         <v>3</v>
       </c>
@@ -11701,7 +12565,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="239"/>
+      <c r="K5" s="244"/>
       <c r="L5" s="52" t="s">
         <v>4</v>
       </c>
@@ -11778,7 +12642,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="239"/>
+      <c r="K6" s="244"/>
       <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
@@ -11855,7 +12719,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="240"/>
+      <c r="K7" s="245"/>
       <c r="L7" s="56" t="s">
         <v>6</v>
       </c>
@@ -11923,122 +12787,122 @@
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="255" t="s">
+      <c r="B8" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="235" t="s">
+      <c r="E8" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="236"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="257" t="s">
+      <c r="F8" s="241"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="262" t="s">
+      <c r="J8" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="241" t="s">
+      <c r="K8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="243" t="s">
+      <c r="L8" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="245" t="s">
+      <c r="M8" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="247"/>
-      <c r="R8" s="248" t="s">
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="247"/>
-      <c r="W8" s="248" t="s">
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="250" t="s">
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="247"/>
-      <c r="AG8" s="251" t="s">
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="247"/>
-      <c r="AL8" s="251" t="s">
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
+      <c r="AJ8" s="251"/>
+      <c r="AK8" s="252"/>
+      <c r="AL8" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="247"/>
-      <c r="AQ8" s="249" t="s">
+      <c r="AM8" s="251"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="252"/>
+      <c r="AQ8" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="246"/>
-      <c r="AS8" s="246"/>
-      <c r="AT8" s="246"/>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="252" t="s">
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="246"/>
-      <c r="AX8" s="246"/>
-      <c r="AY8" s="246"/>
-      <c r="AZ8" s="247"/>
-      <c r="BA8" s="252" t="s">
+      <c r="AW8" s="251"/>
+      <c r="AX8" s="251"/>
+      <c r="AY8" s="251"/>
+      <c r="AZ8" s="252"/>
+      <c r="BA8" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="BB8" s="246"/>
-      <c r="BC8" s="246"/>
-      <c r="BD8" s="246"/>
-      <c r="BE8" s="247"/>
-      <c r="BF8" s="253" t="s">
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251"/>
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="252"/>
+      <c r="BF8" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="246"/>
-      <c r="BH8" s="246"/>
-      <c r="BI8" s="246"/>
-      <c r="BJ8" s="247"/>
-      <c r="BK8" s="254"/>
-      <c r="BL8" s="246"/>
-      <c r="BM8" s="246"/>
-      <c r="BN8" s="246"/>
-      <c r="BO8" s="247"/>
-      <c r="BP8" s="254"/>
-      <c r="BQ8" s="246"/>
-      <c r="BR8" s="246"/>
-      <c r="BS8" s="246"/>
-      <c r="BT8" s="247"/>
+      <c r="BG8" s="251"/>
+      <c r="BH8" s="251"/>
+      <c r="BI8" s="251"/>
+      <c r="BJ8" s="252"/>
+      <c r="BK8" s="259"/>
+      <c r="BL8" s="251"/>
+      <c r="BM8" s="251"/>
+      <c r="BN8" s="251"/>
+      <c r="BO8" s="252"/>
+      <c r="BP8" s="259"/>
+      <c r="BQ8" s="251"/>
+      <c r="BR8" s="251"/>
+      <c r="BS8" s="251"/>
+      <c r="BT8" s="252"/>
       <c r="BU8" s="38"/>
       <c r="BV8" s="39"/>
     </row>
     <row r="9" spans="1:74" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="256"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="260"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="265"/>
       <c r="E9" s="58" t="s">
         <v>28</v>
       </c>
@@ -12048,11 +12912,11 @@
       <c r="G9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="258"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="244"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="249"/>
       <c r="M9" s="61" t="s">
         <v>31</v>
       </c>
@@ -12331,7 +13195,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="155">
-        <f t="shared" ref="G11:G14" si="1">E11-F11</f>
+        <f>E11-F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="156"/>
@@ -12422,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="155">
-        <f t="shared" si="1"/>
+        <f>E12-F12</f>
         <v>0</v>
       </c>
       <c r="H12" s="163"/>
@@ -12513,7 +13377,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="155">
-        <f t="shared" si="1"/>
+        <f>E13-F13</f>
         <v>0</v>
       </c>
       <c r="H13" s="156"/>
@@ -12604,7 +13468,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="155">
-        <f t="shared" si="1"/>
+        <f>E14-F14</f>
         <v>0</v>
       </c>
       <c r="H14" s="156"/>
@@ -13255,7 +14119,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="155">
-        <f t="shared" ref="G21:G24" si="2">E21-F21</f>
+        <f>E21-F21</f>
         <v>0</v>
       </c>
       <c r="H21" s="156"/>
@@ -13346,7 +14210,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="155">
-        <f t="shared" si="2"/>
+        <f>E22-F22</f>
         <v>0</v>
       </c>
       <c r="H22" s="156"/>
@@ -13437,7 +14301,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="155">
-        <f t="shared" si="2"/>
+        <f>E23-F23</f>
         <v>0</v>
       </c>
       <c r="H23" s="163"/>
@@ -13528,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="155">
-        <f t="shared" si="2"/>
+        <f>E24-F24</f>
         <v>0</v>
       </c>
       <c r="H24" s="163"/>
@@ -14270,7 +15134,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="155">
-        <f t="shared" ref="G32:G34" si="3">E32-F32</f>
+        <f>E32-F32</f>
         <v>0</v>
       </c>
       <c r="H32" s="212"/>
@@ -14452,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="174">
-        <f t="shared" si="3"/>
+        <f>E34-F34</f>
         <v>0</v>
       </c>
       <c r="H34" s="212"/>
@@ -15304,27 +16168,27 @@
         <v>56</v>
       </c>
       <c r="N43" s="97">
-        <f>M45</f>
+        <f t="shared" ref="N43:S43" si="1">M45</f>
         <v>56</v>
       </c>
       <c r="O43" s="97">
-        <f>N45</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="P43" s="97">
-        <f>O45</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="Q43" s="97">
-        <f>P45</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="R43" s="97">
-        <f t="shared" ref="R43:S43" si="4">Q45</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="S43" s="97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="T43" s="97"/>
@@ -15497,31 +16361,31 @@
         <v>52</v>
       </c>
       <c r="M45" s="97">
-        <f>M43-M44</f>
+        <f t="shared" ref="M45:S45" si="2">M43-M44</f>
         <v>56</v>
       </c>
       <c r="N45" s="97">
-        <f>N43-N44</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="O45" s="97">
-        <f>O43-O44</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="P45" s="97">
-        <f t="shared" ref="P45" si="5">P43-P44</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="Q45" s="97">
-        <f>Q43-Q44</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="R45" s="97">
-        <f>R43-R44</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S45" s="97">
-        <f>S43-S44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T45" s="97"/>
@@ -15592,79 +16456,79 @@
     <row r="47" spans="2:74" ht="381.95" customHeight="1"/>
     <row r="48" spans="2:74" ht="216.95" customHeight="1"/>
     <row r="50" spans="2:74" ht="50.1" customHeight="1">
-      <c r="B50" s="232"/>
-      <c r="C50" s="233"/>
-      <c r="D50" s="233"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="233"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="233"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="233"/>
-      <c r="L50" s="233"/>
-      <c r="M50" s="233"/>
-      <c r="N50" s="233"/>
-      <c r="O50" s="233"/>
-      <c r="P50" s="233"/>
-      <c r="Q50" s="233"/>
-      <c r="R50" s="233"/>
-      <c r="S50" s="233"/>
-      <c r="T50" s="233"/>
-      <c r="U50" s="233"/>
-      <c r="V50" s="233"/>
-      <c r="W50" s="233"/>
-      <c r="X50" s="233"/>
-      <c r="Y50" s="233"/>
-      <c r="Z50" s="233"/>
-      <c r="AA50" s="233"/>
-      <c r="AB50" s="233"/>
-      <c r="AC50" s="233"/>
-      <c r="AD50" s="233"/>
-      <c r="AE50" s="233"/>
-      <c r="AF50" s="233"/>
-      <c r="AG50" s="233"/>
-      <c r="AH50" s="233"/>
-      <c r="AI50" s="233"/>
-      <c r="AJ50" s="233"/>
-      <c r="AK50" s="233"/>
-      <c r="AL50" s="233"/>
-      <c r="AM50" s="233"/>
-      <c r="AN50" s="233"/>
-      <c r="AO50" s="233"/>
-      <c r="AP50" s="233"/>
-      <c r="AQ50" s="233"/>
-      <c r="AR50" s="233"/>
-      <c r="AS50" s="233"/>
-      <c r="AT50" s="233"/>
-      <c r="AU50" s="233"/>
-      <c r="AV50" s="233"/>
-      <c r="AW50" s="233"/>
-      <c r="AX50" s="233"/>
-      <c r="AY50" s="233"/>
-      <c r="AZ50" s="233"/>
-      <c r="BA50" s="233"/>
-      <c r="BB50" s="233"/>
-      <c r="BC50" s="233"/>
-      <c r="BD50" s="233"/>
-      <c r="BE50" s="233"/>
-      <c r="BF50" s="233"/>
-      <c r="BG50" s="233"/>
-      <c r="BH50" s="233"/>
-      <c r="BI50" s="233"/>
-      <c r="BJ50" s="233"/>
-      <c r="BK50" s="233"/>
-      <c r="BL50" s="233"/>
-      <c r="BM50" s="233"/>
-      <c r="BN50" s="233"/>
-      <c r="BO50" s="233"/>
-      <c r="BP50" s="233"/>
-      <c r="BQ50" s="233"/>
-      <c r="BR50" s="233"/>
-      <c r="BS50" s="233"/>
-      <c r="BT50" s="233"/>
-      <c r="BU50" s="233"/>
-      <c r="BV50" s="234"/>
+      <c r="B50" s="237"/>
+      <c r="C50" s="238"/>
+      <c r="D50" s="238"/>
+      <c r="E50" s="238"/>
+      <c r="F50" s="238"/>
+      <c r="G50" s="238"/>
+      <c r="H50" s="238"/>
+      <c r="I50" s="238"/>
+      <c r="J50" s="238"/>
+      <c r="K50" s="238"/>
+      <c r="L50" s="238"/>
+      <c r="M50" s="238"/>
+      <c r="N50" s="238"/>
+      <c r="O50" s="238"/>
+      <c r="P50" s="238"/>
+      <c r="Q50" s="238"/>
+      <c r="R50" s="238"/>
+      <c r="S50" s="238"/>
+      <c r="T50" s="238"/>
+      <c r="U50" s="238"/>
+      <c r="V50" s="238"/>
+      <c r="W50" s="238"/>
+      <c r="X50" s="238"/>
+      <c r="Y50" s="238"/>
+      <c r="Z50" s="238"/>
+      <c r="AA50" s="238"/>
+      <c r="AB50" s="238"/>
+      <c r="AC50" s="238"/>
+      <c r="AD50" s="238"/>
+      <c r="AE50" s="238"/>
+      <c r="AF50" s="238"/>
+      <c r="AG50" s="238"/>
+      <c r="AH50" s="238"/>
+      <c r="AI50" s="238"/>
+      <c r="AJ50" s="238"/>
+      <c r="AK50" s="238"/>
+      <c r="AL50" s="238"/>
+      <c r="AM50" s="238"/>
+      <c r="AN50" s="238"/>
+      <c r="AO50" s="238"/>
+      <c r="AP50" s="238"/>
+      <c r="AQ50" s="238"/>
+      <c r="AR50" s="238"/>
+      <c r="AS50" s="238"/>
+      <c r="AT50" s="238"/>
+      <c r="AU50" s="238"/>
+      <c r="AV50" s="238"/>
+      <c r="AW50" s="238"/>
+      <c r="AX50" s="238"/>
+      <c r="AY50" s="238"/>
+      <c r="AZ50" s="238"/>
+      <c r="BA50" s="238"/>
+      <c r="BB50" s="238"/>
+      <c r="BC50" s="238"/>
+      <c r="BD50" s="238"/>
+      <c r="BE50" s="238"/>
+      <c r="BF50" s="238"/>
+      <c r="BG50" s="238"/>
+      <c r="BH50" s="238"/>
+      <c r="BI50" s="238"/>
+      <c r="BJ50" s="238"/>
+      <c r="BK50" s="238"/>
+      <c r="BL50" s="238"/>
+      <c r="BM50" s="238"/>
+      <c r="BN50" s="238"/>
+      <c r="BO50" s="238"/>
+      <c r="BP50" s="238"/>
+      <c r="BQ50" s="238"/>
+      <c r="BR50" s="238"/>
+      <c r="BS50" s="238"/>
+      <c r="BT50" s="238"/>
+      <c r="BU50" s="238"/>
+      <c r="BV50" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -15808,9 +16672,9 @@
   </sheetPr>
   <dimension ref="A1:BV44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE41" sqref="AE41"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -15935,7 +16799,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="238" t="s">
+      <c r="K3" s="243" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="42" t="s">
@@ -16014,7 +16878,7 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="239"/>
+      <c r="K4" s="244"/>
       <c r="L4" s="47" t="s">
         <v>3</v>
       </c>
@@ -16091,7 +16955,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="239"/>
+      <c r="K5" s="244"/>
       <c r="L5" s="52" t="s">
         <v>4</v>
       </c>
@@ -16168,7 +17032,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="239"/>
+      <c r="K6" s="244"/>
       <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
@@ -16245,7 +17109,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="240"/>
+      <c r="K7" s="245"/>
       <c r="L7" s="56" t="s">
         <v>6</v>
       </c>
@@ -16313,122 +17177,122 @@
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="255" t="s">
+      <c r="B8" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="235" t="s">
+      <c r="E8" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="236"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="257" t="s">
+      <c r="F8" s="241"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="262" t="s">
+      <c r="J8" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="241" t="s">
+      <c r="K8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="243" t="s">
+      <c r="L8" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="245" t="s">
+      <c r="M8" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="247"/>
-      <c r="R8" s="248" t="s">
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="247"/>
-      <c r="W8" s="248" t="s">
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="250" t="s">
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="246"/>
-      <c r="AD8" s="246"/>
-      <c r="AE8" s="246"/>
-      <c r="AF8" s="247"/>
-      <c r="AG8" s="251" t="s">
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="246"/>
-      <c r="AJ8" s="246"/>
-      <c r="AK8" s="247"/>
-      <c r="AL8" s="251" t="s">
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
+      <c r="AJ8" s="251"/>
+      <c r="AK8" s="252"/>
+      <c r="AL8" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="AM8" s="246"/>
-      <c r="AN8" s="246"/>
-      <c r="AO8" s="246"/>
-      <c r="AP8" s="247"/>
-      <c r="AQ8" s="249" t="s">
+      <c r="AM8" s="251"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="252"/>
+      <c r="AQ8" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="246"/>
-      <c r="AS8" s="246"/>
-      <c r="AT8" s="246"/>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="252" t="s">
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="246"/>
-      <c r="AX8" s="246"/>
-      <c r="AY8" s="246"/>
-      <c r="AZ8" s="247"/>
-      <c r="BA8" s="252" t="s">
+      <c r="AW8" s="251"/>
+      <c r="AX8" s="251"/>
+      <c r="AY8" s="251"/>
+      <c r="AZ8" s="252"/>
+      <c r="BA8" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="BB8" s="246"/>
-      <c r="BC8" s="246"/>
-      <c r="BD8" s="246"/>
-      <c r="BE8" s="247"/>
-      <c r="BF8" s="253" t="s">
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251"/>
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="252"/>
+      <c r="BF8" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="246"/>
-      <c r="BH8" s="246"/>
-      <c r="BI8" s="246"/>
-      <c r="BJ8" s="247"/>
-      <c r="BK8" s="254"/>
-      <c r="BL8" s="246"/>
-      <c r="BM8" s="246"/>
-      <c r="BN8" s="246"/>
-      <c r="BO8" s="247"/>
-      <c r="BP8" s="254"/>
-      <c r="BQ8" s="246"/>
-      <c r="BR8" s="246"/>
-      <c r="BS8" s="246"/>
-      <c r="BT8" s="247"/>
+      <c r="BG8" s="251"/>
+      <c r="BH8" s="251"/>
+      <c r="BI8" s="251"/>
+      <c r="BJ8" s="252"/>
+      <c r="BK8" s="259"/>
+      <c r="BL8" s="251"/>
+      <c r="BM8" s="251"/>
+      <c r="BN8" s="251"/>
+      <c r="BO8" s="252"/>
+      <c r="BP8" s="259"/>
+      <c r="BQ8" s="251"/>
+      <c r="BR8" s="251"/>
+      <c r="BS8" s="251"/>
+      <c r="BT8" s="252"/>
       <c r="BU8" s="38"/>
       <c r="BV8" s="39"/>
     </row>
     <row r="9" spans="1:74" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="256"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="260"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="265"/>
       <c r="E9" s="58" t="s">
         <v>28</v>
       </c>
@@ -16438,11 +17302,11 @@
       <c r="G9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="258"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="244"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="249"/>
       <c r="M9" s="61" t="s">
         <v>31</v>
       </c>
@@ -16721,7 +17585,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="155">
-        <f t="shared" ref="G11:G13" si="1">E11-F11</f>
+        <f>E11-F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="156"/>
@@ -16812,7 +17676,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="155">
-        <f t="shared" si="1"/>
+        <f>E12-F12</f>
         <v>0</v>
       </c>
       <c r="H12" s="163"/>
@@ -16903,7 +17767,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="155">
-        <f t="shared" si="1"/>
+        <f>E13-F13</f>
         <v>0</v>
       </c>
       <c r="H13" s="156"/>
@@ -17463,7 +18327,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="155">
-        <f t="shared" ref="G19:G21" si="2">E19-F19</f>
+        <f>E19-F19</f>
         <v>0</v>
       </c>
       <c r="H19" s="156"/>
@@ -17554,7 +18418,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="155">
-        <f t="shared" si="2"/>
+        <f>E20-F20</f>
         <v>0</v>
       </c>
       <c r="H20" s="156"/>
@@ -17645,7 +18509,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="155">
-        <f t="shared" si="2"/>
+        <f>E21-F21</f>
         <v>0</v>
       </c>
       <c r="H21" s="163"/>
@@ -17733,11 +18597,11 @@
       </c>
       <c r="F22" s="198">
         <f>SUM(F23:F25)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22" s="199">
         <f>SUM(G23:G25)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="200"/>
       <c r="I22" s="206">
@@ -17752,7 +18616,7 @@
       </c>
       <c r="L22" s="201">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M22" s="73"/>
       <c r="N22" s="74"/>
@@ -17831,11 +18695,11 @@
         <v>3</v>
       </c>
       <c r="F23" s="154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="155">
         <f>E23-F23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="156"/>
       <c r="I23" s="157"/>
@@ -17843,7 +18707,7 @@
       <c r="K23" s="213"/>
       <c r="L23" s="201">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="M23" s="77"/>
       <c r="N23" s="78"/>
@@ -17922,11 +18786,11 @@
         <v>3</v>
       </c>
       <c r="F24" s="154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="155">
         <f>E24-F24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="156"/>
       <c r="I24" s="157"/>
@@ -17934,7 +18798,7 @@
       <c r="K24" s="213"/>
       <c r="L24" s="201">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="M24" s="77"/>
       <c r="N24" s="78"/>
@@ -18104,11 +18968,11 @@
       </c>
       <c r="F26" s="198">
         <f>SUM(F27:F29)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="199">
         <f>SUM(G27:G29)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="200"/>
       <c r="I26" s="206">
@@ -18123,7 +18987,7 @@
       </c>
       <c r="L26" s="201">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="74"/>
@@ -18293,11 +19157,11 @@
         <v>4</v>
       </c>
       <c r="F28" s="154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="155">
-        <f t="shared" ref="G28" si="3">E28-F28</f>
-        <v>2</v>
+        <f>E28-F28</f>
+        <v>0</v>
       </c>
       <c r="H28" s="212"/>
       <c r="I28" s="157"/>
@@ -18305,7 +19169,7 @@
       <c r="K28" s="213"/>
       <c r="L28" s="201">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="74"/>
@@ -18384,11 +19248,11 @@
         <v>1</v>
       </c>
       <c r="F29" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="155">
         <f>E29-F29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="212"/>
       <c r="I29" s="157"/>
@@ -18396,7 +19260,7 @@
       <c r="K29" s="213"/>
       <c r="L29" s="201">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="74"/>
@@ -18931,11 +19795,11 @@
       </c>
       <c r="F35" s="216">
         <f>SUM(F11:F13,F15:F17,F19:F21,F23:F25,F27:F29,F31:F33)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G35" s="216">
         <f>SUM(G11:G13,G15:G17,G19:G21,G23:G25,G27:G29,G31:G33)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H35" s="217">
         <v>7</v>
@@ -19149,27 +20013,27 @@
         <v>60</v>
       </c>
       <c r="N37" s="97">
-        <f>M39</f>
+        <f t="shared" ref="N37:S37" si="1">M39</f>
         <v>60</v>
       </c>
       <c r="O37" s="97">
-        <f>N39</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="P37" s="97">
-        <f>O39</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="Q37" s="97">
-        <f>P39</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="R37" s="97">
-        <f t="shared" ref="R37:S37" si="4">Q39</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="S37" s="97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="T37" s="97"/>
@@ -19266,7 +20130,7 @@
         <v>2</v>
       </c>
       <c r="S38" s="76">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
@@ -19324,7 +20188,7 @@
       <c r="BU38" s="38"/>
       <c r="BV38" s="140">
         <f>SUM(M38:BT38)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:74" ht="23.1" customHeight="1">
@@ -19342,32 +20206,32 @@
         <v>52</v>
       </c>
       <c r="M39" s="97">
-        <f>M37-M38</f>
+        <f t="shared" ref="M39:S39" si="2">M37-M38</f>
         <v>60</v>
       </c>
       <c r="N39" s="97">
-        <f>N37-N38</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="O39" s="97">
-        <f>O37-O38</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="P39" s="97">
-        <f t="shared" ref="P39" si="5">P37-P38</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="Q39" s="97">
-        <f>Q37-Q38</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="R39" s="97">
-        <f>R37-R38</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S39" s="97">
-        <f>S37-S38</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T39" s="97"/>
       <c r="U39" s="97"/>
@@ -19425,7 +20289,7 @@
       <c r="BU39" s="38"/>
       <c r="BV39" s="140">
         <f>SUM(M39:BT39)</f>
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="2:74" ht="19.5" customHeight="1">
@@ -19437,79 +20301,79 @@
     <row r="41" spans="2:74" ht="381.95" customHeight="1"/>
     <row r="42" spans="2:74" ht="216.95" customHeight="1"/>
     <row r="44" spans="2:74" ht="50.1" customHeight="1">
-      <c r="B44" s="232"/>
-      <c r="C44" s="233"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="233"/>
-      <c r="I44" s="233"/>
-      <c r="J44" s="233"/>
-      <c r="K44" s="233"/>
-      <c r="L44" s="233"/>
-      <c r="M44" s="233"/>
-      <c r="N44" s="233"/>
-      <c r="O44" s="233"/>
-      <c r="P44" s="233"/>
-      <c r="Q44" s="233"/>
-      <c r="R44" s="233"/>
-      <c r="S44" s="233"/>
-      <c r="T44" s="233"/>
-      <c r="U44" s="233"/>
-      <c r="V44" s="233"/>
-      <c r="W44" s="233"/>
-      <c r="X44" s="233"/>
-      <c r="Y44" s="233"/>
-      <c r="Z44" s="233"/>
-      <c r="AA44" s="233"/>
-      <c r="AB44" s="233"/>
-      <c r="AC44" s="233"/>
-      <c r="AD44" s="233"/>
-      <c r="AE44" s="233"/>
-      <c r="AF44" s="233"/>
-      <c r="AG44" s="233"/>
-      <c r="AH44" s="233"/>
-      <c r="AI44" s="233"/>
-      <c r="AJ44" s="233"/>
-      <c r="AK44" s="233"/>
-      <c r="AL44" s="233"/>
-      <c r="AM44" s="233"/>
-      <c r="AN44" s="233"/>
-      <c r="AO44" s="233"/>
-      <c r="AP44" s="233"/>
-      <c r="AQ44" s="233"/>
-      <c r="AR44" s="233"/>
-      <c r="AS44" s="233"/>
-      <c r="AT44" s="233"/>
-      <c r="AU44" s="233"/>
-      <c r="AV44" s="233"/>
-      <c r="AW44" s="233"/>
-      <c r="AX44" s="233"/>
-      <c r="AY44" s="233"/>
-      <c r="AZ44" s="233"/>
-      <c r="BA44" s="233"/>
-      <c r="BB44" s="233"/>
-      <c r="BC44" s="233"/>
-      <c r="BD44" s="233"/>
-      <c r="BE44" s="233"/>
-      <c r="BF44" s="233"/>
-      <c r="BG44" s="233"/>
-      <c r="BH44" s="233"/>
-      <c r="BI44" s="233"/>
-      <c r="BJ44" s="233"/>
-      <c r="BK44" s="233"/>
-      <c r="BL44" s="233"/>
-      <c r="BM44" s="233"/>
-      <c r="BN44" s="233"/>
-      <c r="BO44" s="233"/>
-      <c r="BP44" s="233"/>
-      <c r="BQ44" s="233"/>
-      <c r="BR44" s="233"/>
-      <c r="BS44" s="233"/>
-      <c r="BT44" s="233"/>
-      <c r="BU44" s="233"/>
-      <c r="BV44" s="234"/>
+      <c r="B44" s="237"/>
+      <c r="C44" s="238"/>
+      <c r="D44" s="238"/>
+      <c r="E44" s="238"/>
+      <c r="F44" s="238"/>
+      <c r="G44" s="238"/>
+      <c r="H44" s="238"/>
+      <c r="I44" s="238"/>
+      <c r="J44" s="238"/>
+      <c r="K44" s="238"/>
+      <c r="L44" s="238"/>
+      <c r="M44" s="238"/>
+      <c r="N44" s="238"/>
+      <c r="O44" s="238"/>
+      <c r="P44" s="238"/>
+      <c r="Q44" s="238"/>
+      <c r="R44" s="238"/>
+      <c r="S44" s="238"/>
+      <c r="T44" s="238"/>
+      <c r="U44" s="238"/>
+      <c r="V44" s="238"/>
+      <c r="W44" s="238"/>
+      <c r="X44" s="238"/>
+      <c r="Y44" s="238"/>
+      <c r="Z44" s="238"/>
+      <c r="AA44" s="238"/>
+      <c r="AB44" s="238"/>
+      <c r="AC44" s="238"/>
+      <c r="AD44" s="238"/>
+      <c r="AE44" s="238"/>
+      <c r="AF44" s="238"/>
+      <c r="AG44" s="238"/>
+      <c r="AH44" s="238"/>
+      <c r="AI44" s="238"/>
+      <c r="AJ44" s="238"/>
+      <c r="AK44" s="238"/>
+      <c r="AL44" s="238"/>
+      <c r="AM44" s="238"/>
+      <c r="AN44" s="238"/>
+      <c r="AO44" s="238"/>
+      <c r="AP44" s="238"/>
+      <c r="AQ44" s="238"/>
+      <c r="AR44" s="238"/>
+      <c r="AS44" s="238"/>
+      <c r="AT44" s="238"/>
+      <c r="AU44" s="238"/>
+      <c r="AV44" s="238"/>
+      <c r="AW44" s="238"/>
+      <c r="AX44" s="238"/>
+      <c r="AY44" s="238"/>
+      <c r="AZ44" s="238"/>
+      <c r="BA44" s="238"/>
+      <c r="BB44" s="238"/>
+      <c r="BC44" s="238"/>
+      <c r="BD44" s="238"/>
+      <c r="BE44" s="238"/>
+      <c r="BF44" s="238"/>
+      <c r="BG44" s="238"/>
+      <c r="BH44" s="238"/>
+      <c r="BI44" s="238"/>
+      <c r="BJ44" s="238"/>
+      <c r="BK44" s="238"/>
+      <c r="BL44" s="238"/>
+      <c r="BM44" s="238"/>
+      <c r="BN44" s="238"/>
+      <c r="BO44" s="238"/>
+      <c r="BP44" s="238"/>
+      <c r="BQ44" s="238"/>
+      <c r="BR44" s="238"/>
+      <c r="BS44" s="238"/>
+      <c r="BT44" s="238"/>
+      <c r="BU44" s="238"/>
+      <c r="BV44" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -19637,6 +20501,4723 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFDFF89-AF5D-40A9-A224-C057AA42EC24}">
+  <sheetPr>
+    <tabColor theme="3"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BV52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="232" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="232" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="232" customWidth="1"/>
+    <col min="4" max="4" width="22" style="232" customWidth="1"/>
+    <col min="5" max="8" width="9" style="232" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="232" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="232" customWidth="1"/>
+    <col min="12" max="12" width="15" style="232" customWidth="1"/>
+    <col min="13" max="72" width="3.875" style="232" customWidth="1"/>
+    <col min="73" max="73" width="1" style="232" customWidth="1"/>
+    <col min="74" max="74" width="8.5" style="233" customWidth="1"/>
+    <col min="75" max="75" width="3.25" style="232" customWidth="1"/>
+    <col min="76" max="16384" width="11.125" style="232"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:74" ht="45" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="1:74" s="233" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B2" s="106"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="39"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="39"/>
+      <c r="BU2" s="39"/>
+      <c r="BV2" s="39"/>
+    </row>
+    <row r="3" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="243" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="38"/>
+      <c r="BV3" s="39"/>
+    </row>
+    <row r="4" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="39"/>
+    </row>
+    <row r="5" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49"/>
+      <c r="BT5" s="51"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="39"/>
+    </row>
+    <row r="6" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="39"/>
+    </row>
+    <row r="7" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="51"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="39"/>
+    </row>
+    <row r="8" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B8" s="260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="264" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="241"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="262" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="266" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="267" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="246" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="248" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="250" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="253" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="253" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="255" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
+      <c r="AJ8" s="251"/>
+      <c r="AK8" s="252"/>
+      <c r="AL8" s="256" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM8" s="251"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="252"/>
+      <c r="AQ8" s="254" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="252"/>
+      <c r="AV8" s="257" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW8" s="251"/>
+      <c r="AX8" s="251"/>
+      <c r="AY8" s="251"/>
+      <c r="AZ8" s="252"/>
+      <c r="BA8" s="257" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251"/>
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="252"/>
+      <c r="BF8" s="258" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG8" s="251"/>
+      <c r="BH8" s="251"/>
+      <c r="BI8" s="251"/>
+      <c r="BJ8" s="252"/>
+      <c r="BK8" s="259"/>
+      <c r="BL8" s="251"/>
+      <c r="BM8" s="251"/>
+      <c r="BN8" s="251"/>
+      <c r="BO8" s="252"/>
+      <c r="BP8" s="259"/>
+      <c r="BQ8" s="251"/>
+      <c r="BR8" s="251"/>
+      <c r="BS8" s="251"/>
+      <c r="BT8" s="252"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="39"/>
+    </row>
+    <row r="9" spans="1:74" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="261"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="263"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="249"/>
+      <c r="M9" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG9" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL9" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM9" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP9" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ9" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR9" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV9" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW9" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ9" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA9" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB9" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE9" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF9" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG9" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH9" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI9" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ9" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK9" s="188"/>
+      <c r="BL9" s="188"/>
+      <c r="BM9" s="188"/>
+      <c r="BN9" s="188"/>
+      <c r="BO9" s="188"/>
+      <c r="BP9" s="188"/>
+      <c r="BQ9" s="188"/>
+      <c r="BR9" s="188"/>
+      <c r="BS9" s="188"/>
+      <c r="BT9" s="189"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="39"/>
+    </row>
+    <row r="10" spans="1:74" ht="23.1" customHeight="1" thickTop="1">
+      <c r="B10" s="202">
+        <v>1</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="204"/>
+      <c r="E10" s="197">
+        <f>SUM(E11:E13)</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="198">
+        <f>SUM(F11:F13)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="199">
+        <f>SUM(G11:G13)</f>
+        <v>7</v>
+      </c>
+      <c r="H10" s="205"/>
+      <c r="I10" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J10" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K10" s="207">
+        <f>J10-I10+1</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="201">
+        <f t="shared" ref="L10:L41" si="0">IFERROR(F10/E10,"")</f>
+        <v>0.125</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="78"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="78"/>
+      <c r="BN10" s="78"/>
+      <c r="BO10" s="78"/>
+      <c r="BP10" s="78"/>
+      <c r="BQ10" s="78"/>
+      <c r="BR10" s="78"/>
+      <c r="BS10" s="78"/>
+      <c r="BT10" s="81"/>
+      <c r="BU10" s="38"/>
+      <c r="BV10" s="39"/>
+    </row>
+    <row r="11" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B11" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="153">
+        <v>4</v>
+      </c>
+      <c r="F11" s="154">
+        <v>1</v>
+      </c>
+      <c r="G11" s="155">
+        <f>E11-F11</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="156"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="201">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="78"/>
+      <c r="BB11" s="78"/>
+      <c r="BC11" s="78"/>
+      <c r="BD11" s="78"/>
+      <c r="BE11" s="81"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="78"/>
+      <c r="BH11" s="78"/>
+      <c r="BI11" s="78"/>
+      <c r="BJ11" s="78"/>
+      <c r="BK11" s="78"/>
+      <c r="BL11" s="78"/>
+      <c r="BM11" s="78"/>
+      <c r="BN11" s="78"/>
+      <c r="BO11" s="78"/>
+      <c r="BP11" s="78"/>
+      <c r="BQ11" s="78"/>
+      <c r="BR11" s="78"/>
+      <c r="BS11" s="78"/>
+      <c r="BT11" s="81"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="39"/>
+    </row>
+    <row r="12" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B12" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="153">
+        <v>2</v>
+      </c>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155">
+        <f>E12-F12</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="163"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="78"/>
+      <c r="BB12" s="78"/>
+      <c r="BC12" s="78"/>
+      <c r="BD12" s="78"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="78"/>
+      <c r="BI12" s="78"/>
+      <c r="BJ12" s="78"/>
+      <c r="BK12" s="78"/>
+      <c r="BL12" s="78"/>
+      <c r="BM12" s="78"/>
+      <c r="BN12" s="78"/>
+      <c r="BO12" s="78"/>
+      <c r="BP12" s="78"/>
+      <c r="BQ12" s="78"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
+      <c r="BT12" s="81"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="39"/>
+    </row>
+    <row r="13" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B13" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="234" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="153">
+        <v>2</v>
+      </c>
+      <c r="F13" s="154"/>
+      <c r="G13" s="155">
+        <f>E13-F13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="156"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="78"/>
+      <c r="BB13" s="78"/>
+      <c r="BC13" s="78"/>
+      <c r="BD13" s="78"/>
+      <c r="BE13" s="81"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="78"/>
+      <c r="BI13" s="78"/>
+      <c r="BJ13" s="78"/>
+      <c r="BK13" s="78"/>
+      <c r="BL13" s="78"/>
+      <c r="BM13" s="78"/>
+      <c r="BN13" s="78"/>
+      <c r="BO13" s="78"/>
+      <c r="BP13" s="78"/>
+      <c r="BQ13" s="78"/>
+      <c r="BR13" s="78"/>
+      <c r="BS13" s="78"/>
+      <c r="BT13" s="81"/>
+      <c r="BU13" s="38"/>
+      <c r="BV13" s="39"/>
+    </row>
+    <row r="14" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B14" s="194" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="195" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="196"/>
+      <c r="E14" s="197">
+        <f>SUM(E15:E17)</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="198">
+        <f>SUM(F15:F17)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="199">
+        <f>SUM(G15:G17)</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="200"/>
+      <c r="I14" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J14" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K14" s="207">
+        <f>J14-I14+1</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="201">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="73"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="74"/>
+      <c r="BK14" s="78"/>
+      <c r="BL14" s="78"/>
+      <c r="BM14" s="78"/>
+      <c r="BN14" s="78"/>
+      <c r="BO14" s="78"/>
+      <c r="BP14" s="78"/>
+      <c r="BQ14" s="78"/>
+      <c r="BR14" s="78"/>
+      <c r="BS14" s="78"/>
+      <c r="BT14" s="81"/>
+      <c r="BU14" s="38"/>
+      <c r="BV14" s="39"/>
+    </row>
+    <row r="15" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B15" s="150">
+        <v>2.1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="153">
+        <v>2</v>
+      </c>
+      <c r="F15" s="154">
+        <v>1</v>
+      </c>
+      <c r="G15" s="155">
+        <f>E15-F15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="156"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="201">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="78"/>
+      <c r="BB15" s="78"/>
+      <c r="BC15" s="78"/>
+      <c r="BD15" s="78"/>
+      <c r="BE15" s="81"/>
+      <c r="BF15" s="77"/>
+      <c r="BG15" s="78"/>
+      <c r="BH15" s="78"/>
+      <c r="BI15" s="78"/>
+      <c r="BJ15" s="78"/>
+      <c r="BK15" s="78"/>
+      <c r="BL15" s="78"/>
+      <c r="BM15" s="78"/>
+      <c r="BN15" s="78"/>
+      <c r="BO15" s="78"/>
+      <c r="BP15" s="78"/>
+      <c r="BQ15" s="78"/>
+      <c r="BR15" s="78"/>
+      <c r="BS15" s="78"/>
+      <c r="BT15" s="81"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="39"/>
+    </row>
+    <row r="16" spans="1:74" ht="23.1" customHeight="1">
+      <c r="B16" s="150">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="153">
+        <v>1</v>
+      </c>
+      <c r="F16" s="154"/>
+      <c r="G16" s="155">
+        <f>E16-F16</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="156"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="77"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="78"/>
+      <c r="BB16" s="78"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="78"/>
+      <c r="BE16" s="81"/>
+      <c r="BF16" s="77"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="78"/>
+      <c r="BI16" s="78"/>
+      <c r="BJ16" s="78"/>
+      <c r="BK16" s="78"/>
+      <c r="BL16" s="78"/>
+      <c r="BM16" s="78"/>
+      <c r="BN16" s="78"/>
+      <c r="BO16" s="78"/>
+      <c r="BP16" s="78"/>
+      <c r="BQ16" s="78"/>
+      <c r="BR16" s="78"/>
+      <c r="BS16" s="78"/>
+      <c r="BT16" s="81"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="39"/>
+    </row>
+    <row r="17" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B17" s="150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="153">
+        <v>1</v>
+      </c>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155">
+        <f>E17-F17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="156"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="77"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="83"/>
+      <c r="BA17" s="78"/>
+      <c r="BB17" s="78"/>
+      <c r="BC17" s="78"/>
+      <c r="BD17" s="78"/>
+      <c r="BE17" s="81"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="78"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="78"/>
+      <c r="BJ17" s="78"/>
+      <c r="BK17" s="78"/>
+      <c r="BL17" s="78"/>
+      <c r="BM17" s="78"/>
+      <c r="BN17" s="78"/>
+      <c r="BO17" s="78"/>
+      <c r="BP17" s="78"/>
+      <c r="BQ17" s="78"/>
+      <c r="BR17" s="78"/>
+      <c r="BS17" s="78"/>
+      <c r="BT17" s="81"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="39"/>
+    </row>
+    <row r="18" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B18" s="194">
+        <v>3</v>
+      </c>
+      <c r="C18" s="195" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="196"/>
+      <c r="E18" s="197">
+        <f>SUM(E19:E21)</f>
+        <v>8</v>
+      </c>
+      <c r="F18" s="198">
+        <f>SUM(F19:F21)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="199">
+        <f>SUM(G19:G21)</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="200"/>
+      <c r="I18" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J18" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K18" s="207">
+        <f>J18-I18+1</f>
+        <v>7</v>
+      </c>
+      <c r="L18" s="201">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="74"/>
+      <c r="BH18" s="74"/>
+      <c r="BI18" s="74"/>
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="78"/>
+      <c r="BL18" s="78"/>
+      <c r="BM18" s="78"/>
+      <c r="BN18" s="78"/>
+      <c r="BO18" s="78"/>
+      <c r="BP18" s="78"/>
+      <c r="BQ18" s="78"/>
+      <c r="BR18" s="78"/>
+      <c r="BS18" s="78"/>
+      <c r="BT18" s="81"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="39"/>
+    </row>
+    <row r="19" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B19" s="150">
+        <v>3.1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="153">
+        <v>4</v>
+      </c>
+      <c r="F19" s="154">
+        <v>2</v>
+      </c>
+      <c r="G19" s="155">
+        <f>E19-F19</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="156"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="201">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="77"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="81"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="83"/>
+      <c r="AX19" s="83"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="83"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="78"/>
+      <c r="BC19" s="78"/>
+      <c r="BD19" s="78"/>
+      <c r="BE19" s="81"/>
+      <c r="BF19" s="77"/>
+      <c r="BG19" s="78"/>
+      <c r="BH19" s="78"/>
+      <c r="BI19" s="78"/>
+      <c r="BJ19" s="78"/>
+      <c r="BK19" s="78"/>
+      <c r="BL19" s="78"/>
+      <c r="BM19" s="78"/>
+      <c r="BN19" s="78"/>
+      <c r="BO19" s="78"/>
+      <c r="BP19" s="78"/>
+      <c r="BQ19" s="78"/>
+      <c r="BR19" s="78"/>
+      <c r="BS19" s="78"/>
+      <c r="BT19" s="81"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="39"/>
+    </row>
+    <row r="20" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B20" s="150">
+        <v>3.2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="153">
+        <v>3</v>
+      </c>
+      <c r="F20" s="154"/>
+      <c r="G20" s="155">
+        <f>E20-F20</f>
+        <v>3</v>
+      </c>
+      <c r="H20" s="156"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="77"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="81"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="83"/>
+      <c r="BA20" s="78"/>
+      <c r="BB20" s="78"/>
+      <c r="BC20" s="78"/>
+      <c r="BD20" s="78"/>
+      <c r="BE20" s="81"/>
+      <c r="BF20" s="77"/>
+      <c r="BG20" s="78"/>
+      <c r="BH20" s="78"/>
+      <c r="BI20" s="78"/>
+      <c r="BJ20" s="78"/>
+      <c r="BK20" s="78"/>
+      <c r="BL20" s="78"/>
+      <c r="BM20" s="78"/>
+      <c r="BN20" s="78"/>
+      <c r="BO20" s="78"/>
+      <c r="BP20" s="78"/>
+      <c r="BQ20" s="78"/>
+      <c r="BR20" s="78"/>
+      <c r="BS20" s="78"/>
+      <c r="BT20" s="81"/>
+      <c r="BU20" s="38"/>
+      <c r="BV20" s="39"/>
+    </row>
+    <row r="21" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B21" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="153">
+        <v>1</v>
+      </c>
+      <c r="F21" s="154"/>
+      <c r="G21" s="155">
+        <f>E21-F21</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="163"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="77"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="83"/>
+      <c r="BA21" s="78"/>
+      <c r="BB21" s="78"/>
+      <c r="BC21" s="78"/>
+      <c r="BD21" s="78"/>
+      <c r="BE21" s="81"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="78"/>
+      <c r="BH21" s="78"/>
+      <c r="BI21" s="78"/>
+      <c r="BJ21" s="78"/>
+      <c r="BK21" s="78"/>
+      <c r="BL21" s="78"/>
+      <c r="BM21" s="78"/>
+      <c r="BN21" s="78"/>
+      <c r="BO21" s="78"/>
+      <c r="BP21" s="78"/>
+      <c r="BQ21" s="78"/>
+      <c r="BR21" s="78"/>
+      <c r="BS21" s="78"/>
+      <c r="BT21" s="81"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="39"/>
+    </row>
+    <row r="22" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B22" s="194" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="195" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="196"/>
+      <c r="E22" s="197">
+        <f>SUM(E23:E25)</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="198">
+        <f>SUM(F23:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="199">
+        <f>SUM(G23:G25)</f>
+        <v>7</v>
+      </c>
+      <c r="H22" s="200"/>
+      <c r="I22" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J22" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K22" s="207">
+        <f>J22-I22+1</f>
+        <v>7</v>
+      </c>
+      <c r="L22" s="201">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="74"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="75"/>
+      <c r="BF22" s="73"/>
+      <c r="BG22" s="74"/>
+      <c r="BH22" s="74"/>
+      <c r="BI22" s="74"/>
+      <c r="BJ22" s="74"/>
+      <c r="BK22" s="78"/>
+      <c r="BL22" s="78"/>
+      <c r="BM22" s="78"/>
+      <c r="BN22" s="78"/>
+      <c r="BO22" s="78"/>
+      <c r="BP22" s="78"/>
+      <c r="BQ22" s="78"/>
+      <c r="BR22" s="78"/>
+      <c r="BS22" s="78"/>
+      <c r="BT22" s="81"/>
+      <c r="BU22" s="38"/>
+      <c r="BV22" s="39"/>
+    </row>
+    <row r="23" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B23" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="153">
+        <v>4</v>
+      </c>
+      <c r="F23" s="154">
+        <v>1</v>
+      </c>
+      <c r="G23" s="155">
+        <f>E23-F23</f>
+        <v>3</v>
+      </c>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="201">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="77"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="81"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="83"/>
+      <c r="BA23" s="78"/>
+      <c r="BB23" s="78"/>
+      <c r="BC23" s="78"/>
+      <c r="BD23" s="78"/>
+      <c r="BE23" s="81"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="78"/>
+      <c r="BH23" s="78"/>
+      <c r="BI23" s="78"/>
+      <c r="BJ23" s="78"/>
+      <c r="BK23" s="78"/>
+      <c r="BL23" s="78"/>
+      <c r="BM23" s="78"/>
+      <c r="BN23" s="78"/>
+      <c r="BO23" s="78"/>
+      <c r="BP23" s="78"/>
+      <c r="BQ23" s="78"/>
+      <c r="BR23" s="78"/>
+      <c r="BS23" s="78"/>
+      <c r="BT23" s="81"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="39"/>
+    </row>
+    <row r="24" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B24" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="153">
+        <v>3</v>
+      </c>
+      <c r="F24" s="154"/>
+      <c r="G24" s="155">
+        <f>E24-F24</f>
+        <v>3</v>
+      </c>
+      <c r="H24" s="156"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="77"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="81"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="78"/>
+      <c r="BI24" s="78"/>
+      <c r="BJ24" s="78"/>
+      <c r="BK24" s="78"/>
+      <c r="BL24" s="78"/>
+      <c r="BM24" s="78"/>
+      <c r="BN24" s="78"/>
+      <c r="BO24" s="78"/>
+      <c r="BP24" s="78"/>
+      <c r="BQ24" s="78"/>
+      <c r="BR24" s="78"/>
+      <c r="BS24" s="78"/>
+      <c r="BT24" s="81"/>
+      <c r="BU24" s="38"/>
+      <c r="BV24" s="39"/>
+    </row>
+    <row r="25" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B25" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="153">
+        <v>1</v>
+      </c>
+      <c r="F25" s="154"/>
+      <c r="G25" s="155">
+        <f>E25-F25</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="77"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="78"/>
+      <c r="AP25" s="81"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="78"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="78"/>
+      <c r="BB25" s="78"/>
+      <c r="BC25" s="78"/>
+      <c r="BD25" s="78"/>
+      <c r="BE25" s="81"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="78"/>
+      <c r="BH25" s="78"/>
+      <c r="BI25" s="78"/>
+      <c r="BJ25" s="78"/>
+      <c r="BK25" s="78"/>
+      <c r="BL25" s="78"/>
+      <c r="BM25" s="78"/>
+      <c r="BN25" s="78"/>
+      <c r="BO25" s="78"/>
+      <c r="BP25" s="78"/>
+      <c r="BQ25" s="78"/>
+      <c r="BR25" s="78"/>
+      <c r="BS25" s="78"/>
+      <c r="BT25" s="81"/>
+      <c r="BU25" s="38"/>
+      <c r="BV25" s="39"/>
+    </row>
+    <row r="26" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B26" s="194" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="195" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197">
+        <f>SUM(E27:E29)</f>
+        <v>8</v>
+      </c>
+      <c r="F26" s="198">
+        <f>SUM(F27:F29)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="199">
+        <f>SUM(G27:G29)</f>
+        <v>7</v>
+      </c>
+      <c r="H26" s="200"/>
+      <c r="I26" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J26" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K26" s="207">
+        <f>J26-I26+1</f>
+        <v>7</v>
+      </c>
+      <c r="L26" s="201">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="M26" s="73"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="75"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="74"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="75"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="74"/>
+      <c r="BH26" s="74"/>
+      <c r="BI26" s="74"/>
+      <c r="BJ26" s="74"/>
+      <c r="BK26" s="191"/>
+      <c r="BL26" s="191"/>
+      <c r="BM26" s="191"/>
+      <c r="BN26" s="191"/>
+      <c r="BO26" s="191"/>
+      <c r="BP26" s="191"/>
+      <c r="BQ26" s="191"/>
+      <c r="BR26" s="191"/>
+      <c r="BS26" s="191"/>
+      <c r="BT26" s="192"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="39"/>
+    </row>
+    <row r="27" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B27" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="153">
+        <v>4</v>
+      </c>
+      <c r="F27" s="154">
+        <v>1</v>
+      </c>
+      <c r="G27" s="155">
+        <f>E27-F27</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="212"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="201">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M27" s="73"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="74"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="74"/>
+      <c r="AK27" s="74"/>
+      <c r="AL27" s="74"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="75"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="74"/>
+      <c r="AX27" s="74"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="74"/>
+      <c r="BA27" s="74"/>
+      <c r="BB27" s="74"/>
+      <c r="BC27" s="74"/>
+      <c r="BD27" s="74"/>
+      <c r="BE27" s="75"/>
+      <c r="BF27" s="73"/>
+      <c r="BG27" s="74"/>
+      <c r="BH27" s="74"/>
+      <c r="BI27" s="74"/>
+      <c r="BJ27" s="74"/>
+      <c r="BK27" s="191"/>
+      <c r="BL27" s="191"/>
+      <c r="BM27" s="191"/>
+      <c r="BN27" s="191"/>
+      <c r="BO27" s="191"/>
+      <c r="BP27" s="191"/>
+      <c r="BQ27" s="191"/>
+      <c r="BR27" s="191"/>
+      <c r="BS27" s="191"/>
+      <c r="BT27" s="192"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="39"/>
+    </row>
+    <row r="28" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B28" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="153">
+        <v>3</v>
+      </c>
+      <c r="F28" s="154"/>
+      <c r="G28" s="155">
+        <f>E28-F28</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="212"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="74"/>
+      <c r="BB28" s="74"/>
+      <c r="BC28" s="74"/>
+      <c r="BD28" s="74"/>
+      <c r="BE28" s="75"/>
+      <c r="BF28" s="73"/>
+      <c r="BG28" s="74"/>
+      <c r="BH28" s="74"/>
+      <c r="BI28" s="74"/>
+      <c r="BJ28" s="74"/>
+      <c r="BK28" s="191"/>
+      <c r="BL28" s="191"/>
+      <c r="BM28" s="191"/>
+      <c r="BN28" s="191"/>
+      <c r="BO28" s="191"/>
+      <c r="BP28" s="191"/>
+      <c r="BQ28" s="191"/>
+      <c r="BR28" s="191"/>
+      <c r="BS28" s="191"/>
+      <c r="BT28" s="192"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="39"/>
+    </row>
+    <row r="29" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B29" s="150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="153">
+        <v>1</v>
+      </c>
+      <c r="F29" s="154"/>
+      <c r="G29" s="155">
+        <f>E29-F29</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="212"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="213"/>
+      <c r="L29" s="201">
+        <f>IFERROR(F29/E29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="73"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="75"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="74"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="75"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="74"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="74"/>
+      <c r="BJ29" s="74"/>
+      <c r="BK29" s="191"/>
+      <c r="BL29" s="191"/>
+      <c r="BM29" s="191"/>
+      <c r="BN29" s="191"/>
+      <c r="BO29" s="191"/>
+      <c r="BP29" s="191"/>
+      <c r="BQ29" s="191"/>
+      <c r="BR29" s="191"/>
+      <c r="BS29" s="191"/>
+      <c r="BT29" s="192"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="39"/>
+    </row>
+    <row r="30" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B30" s="194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="195" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197">
+        <f>SUM(E31:E33)</f>
+        <v>8</v>
+      </c>
+      <c r="F30" s="198">
+        <f>SUM(F31:F33)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="199">
+        <f>SUM(G31:G33)</f>
+        <v>7</v>
+      </c>
+      <c r="H30" s="200"/>
+      <c r="I30" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J30" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K30" s="207">
+        <f>J30-I30+1</f>
+        <v>7</v>
+      </c>
+      <c r="L30" s="201">
+        <f>IFERROR(F30/E30,"")</f>
+        <v>0.125</v>
+      </c>
+      <c r="M30" s="73"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="74"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="74"/>
+      <c r="AP30" s="75"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="74"/>
+      <c r="AS30" s="74"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
+      <c r="AV30" s="74"/>
+      <c r="AW30" s="74"/>
+      <c r="AX30" s="74"/>
+      <c r="AY30" s="74"/>
+      <c r="AZ30" s="74"/>
+      <c r="BA30" s="74"/>
+      <c r="BB30" s="74"/>
+      <c r="BC30" s="74"/>
+      <c r="BD30" s="74"/>
+      <c r="BE30" s="75"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="74"/>
+      <c r="BH30" s="74"/>
+      <c r="BI30" s="74"/>
+      <c r="BJ30" s="74"/>
+      <c r="BK30" s="191"/>
+      <c r="BL30" s="191"/>
+      <c r="BM30" s="191"/>
+      <c r="BN30" s="191"/>
+      <c r="BO30" s="191"/>
+      <c r="BP30" s="191"/>
+      <c r="BQ30" s="191"/>
+      <c r="BR30" s="191"/>
+      <c r="BS30" s="191"/>
+      <c r="BT30" s="192"/>
+      <c r="BU30" s="38"/>
+      <c r="BV30" s="39"/>
+    </row>
+    <row r="31" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B31" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="153">
+        <v>4</v>
+      </c>
+      <c r="F31" s="154">
+        <v>1</v>
+      </c>
+      <c r="G31" s="155">
+        <f>E31-F31</f>
+        <v>3</v>
+      </c>
+      <c r="H31" s="212"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="236"/>
+      <c r="L31" s="201">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="74"/>
+      <c r="AP31" s="75"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="74"/>
+      <c r="AS31" s="74"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="74"/>
+      <c r="AW31" s="74"/>
+      <c r="AX31" s="74"/>
+      <c r="AY31" s="74"/>
+      <c r="AZ31" s="74"/>
+      <c r="BA31" s="74"/>
+      <c r="BB31" s="74"/>
+      <c r="BC31" s="74"/>
+      <c r="BD31" s="74"/>
+      <c r="BE31" s="75"/>
+      <c r="BF31" s="73"/>
+      <c r="BG31" s="74"/>
+      <c r="BH31" s="74"/>
+      <c r="BI31" s="74"/>
+      <c r="BJ31" s="74"/>
+      <c r="BK31" s="191"/>
+      <c r="BL31" s="191"/>
+      <c r="BM31" s="191"/>
+      <c r="BN31" s="191"/>
+      <c r="BO31" s="191"/>
+      <c r="BP31" s="191"/>
+      <c r="BQ31" s="191"/>
+      <c r="BR31" s="191"/>
+      <c r="BS31" s="191"/>
+      <c r="BT31" s="192"/>
+      <c r="BU31" s="38"/>
+      <c r="BV31" s="39"/>
+    </row>
+    <row r="32" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B32" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="153">
+        <v>3</v>
+      </c>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155">
+        <f t="shared" ref="G32:G33" si="1">E32-F32</f>
+        <v>3</v>
+      </c>
+      <c r="H32" s="212"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="236"/>
+      <c r="L32" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
+      <c r="AI32" s="74"/>
+      <c r="AJ32" s="74"/>
+      <c r="AK32" s="74"/>
+      <c r="AL32" s="74"/>
+      <c r="AM32" s="74"/>
+      <c r="AN32" s="74"/>
+      <c r="AO32" s="74"/>
+      <c r="AP32" s="75"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="74"/>
+      <c r="AS32" s="74"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="74"/>
+      <c r="AX32" s="74"/>
+      <c r="AY32" s="74"/>
+      <c r="AZ32" s="74"/>
+      <c r="BA32" s="74"/>
+      <c r="BB32" s="74"/>
+      <c r="BC32" s="74"/>
+      <c r="BD32" s="74"/>
+      <c r="BE32" s="75"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="74"/>
+      <c r="BH32" s="74"/>
+      <c r="BI32" s="74"/>
+      <c r="BJ32" s="74"/>
+      <c r="BK32" s="191"/>
+      <c r="BL32" s="191"/>
+      <c r="BM32" s="191"/>
+      <c r="BN32" s="191"/>
+      <c r="BO32" s="191"/>
+      <c r="BP32" s="191"/>
+      <c r="BQ32" s="191"/>
+      <c r="BR32" s="191"/>
+      <c r="BS32" s="191"/>
+      <c r="BT32" s="192"/>
+      <c r="BU32" s="38"/>
+      <c r="BV32" s="39"/>
+    </row>
+    <row r="33" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B33" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="153">
+        <v>1</v>
+      </c>
+      <c r="F33" s="154"/>
+      <c r="G33" s="155">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="212"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="73"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="74"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="75"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="74"/>
+      <c r="BA33" s="74"/>
+      <c r="BB33" s="74"/>
+      <c r="BC33" s="74"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="75"/>
+      <c r="BF33" s="73"/>
+      <c r="BG33" s="74"/>
+      <c r="BH33" s="74"/>
+      <c r="BI33" s="74"/>
+      <c r="BJ33" s="74"/>
+      <c r="BK33" s="191"/>
+      <c r="BL33" s="191"/>
+      <c r="BM33" s="191"/>
+      <c r="BN33" s="191"/>
+      <c r="BO33" s="191"/>
+      <c r="BP33" s="191"/>
+      <c r="BQ33" s="191"/>
+      <c r="BR33" s="191"/>
+      <c r="BS33" s="191"/>
+      <c r="BT33" s="192"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="39"/>
+    </row>
+    <row r="34" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B34" s="194" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="195" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="196"/>
+      <c r="E34" s="197">
+        <f>SUM(E35:E37)</f>
+        <v>4</v>
+      </c>
+      <c r="F34" s="198">
+        <f>SUM(F35:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="199">
+        <f>SUM(G35:G37)</f>
+        <v>4</v>
+      </c>
+      <c r="H34" s="200"/>
+      <c r="I34" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J34" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K34" s="207">
+        <f>J34-I34+1</f>
+        <v>7</v>
+      </c>
+      <c r="L34" s="201">
+        <f>IFERROR(F34/E34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="73"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="75"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="74"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
+      <c r="BC34" s="74"/>
+      <c r="BD34" s="74"/>
+      <c r="BE34" s="75"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="74"/>
+      <c r="BH34" s="74"/>
+      <c r="BI34" s="74"/>
+      <c r="BJ34" s="74"/>
+      <c r="BK34" s="191"/>
+      <c r="BL34" s="191"/>
+      <c r="BM34" s="191"/>
+      <c r="BN34" s="191"/>
+      <c r="BO34" s="191"/>
+      <c r="BP34" s="191"/>
+      <c r="BQ34" s="191"/>
+      <c r="BR34" s="191"/>
+      <c r="BS34" s="191"/>
+      <c r="BT34" s="192"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="39"/>
+    </row>
+    <row r="35" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B35" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="153">
+        <v>2</v>
+      </c>
+      <c r="F35" s="154"/>
+      <c r="G35" s="155">
+        <f>E35-F35</f>
+        <v>2</v>
+      </c>
+      <c r="H35" s="212"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="236"/>
+      <c r="L35" s="201">
+        <f>IFERROR(F35/E35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="73"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="74"/>
+      <c r="AN35" s="74"/>
+      <c r="AO35" s="74"/>
+      <c r="AP35" s="75"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="74"/>
+      <c r="AS35" s="74"/>
+      <c r="AT35" s="74"/>
+      <c r="AU35" s="74"/>
+      <c r="AV35" s="74"/>
+      <c r="AW35" s="74"/>
+      <c r="AX35" s="74"/>
+      <c r="AY35" s="74"/>
+      <c r="AZ35" s="74"/>
+      <c r="BA35" s="74"/>
+      <c r="BB35" s="74"/>
+      <c r="BC35" s="74"/>
+      <c r="BD35" s="74"/>
+      <c r="BE35" s="75"/>
+      <c r="BF35" s="73"/>
+      <c r="BG35" s="74"/>
+      <c r="BH35" s="74"/>
+      <c r="BI35" s="74"/>
+      <c r="BJ35" s="74"/>
+      <c r="BK35" s="191"/>
+      <c r="BL35" s="191"/>
+      <c r="BM35" s="191"/>
+      <c r="BN35" s="191"/>
+      <c r="BO35" s="191"/>
+      <c r="BP35" s="191"/>
+      <c r="BQ35" s="191"/>
+      <c r="BR35" s="191"/>
+      <c r="BS35" s="191"/>
+      <c r="BT35" s="192"/>
+      <c r="BU35" s="38"/>
+      <c r="BV35" s="39"/>
+    </row>
+    <row r="36" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B36" s="150" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="153">
+        <v>1</v>
+      </c>
+      <c r="F36" s="154"/>
+      <c r="G36" s="155">
+        <f>E36-F36</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="212"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="236"/>
+      <c r="L36" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="73"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="74"/>
+      <c r="AO36" s="74"/>
+      <c r="AP36" s="75"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="74"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="74"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="74"/>
+      <c r="AX36" s="74"/>
+      <c r="AY36" s="74"/>
+      <c r="AZ36" s="74"/>
+      <c r="BA36" s="74"/>
+      <c r="BB36" s="74"/>
+      <c r="BC36" s="74"/>
+      <c r="BD36" s="74"/>
+      <c r="BE36" s="75"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="74"/>
+      <c r="BH36" s="74"/>
+      <c r="BI36" s="74"/>
+      <c r="BJ36" s="74"/>
+      <c r="BK36" s="191"/>
+      <c r="BL36" s="191"/>
+      <c r="BM36" s="191"/>
+      <c r="BN36" s="191"/>
+      <c r="BO36" s="191"/>
+      <c r="BP36" s="191"/>
+      <c r="BQ36" s="191"/>
+      <c r="BR36" s="191"/>
+      <c r="BS36" s="191"/>
+      <c r="BT36" s="192"/>
+      <c r="BU36" s="38"/>
+      <c r="BV36" s="39"/>
+    </row>
+    <row r="37" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B37" s="150" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="153">
+        <v>1</v>
+      </c>
+      <c r="F37" s="154"/>
+      <c r="G37" s="155">
+        <f t="shared" ref="G36:G37" si="2">E37-F37</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="212"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="236"/>
+      <c r="L37" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="73"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="74"/>
+      <c r="AJ37" s="74"/>
+      <c r="AK37" s="74"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="74"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="75"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="74"/>
+      <c r="AS37" s="74"/>
+      <c r="AT37" s="74"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="74"/>
+      <c r="AX37" s="74"/>
+      <c r="AY37" s="74"/>
+      <c r="AZ37" s="74"/>
+      <c r="BA37" s="74"/>
+      <c r="BB37" s="74"/>
+      <c r="BC37" s="74"/>
+      <c r="BD37" s="74"/>
+      <c r="BE37" s="75"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="74"/>
+      <c r="BH37" s="74"/>
+      <c r="BI37" s="74"/>
+      <c r="BJ37" s="74"/>
+      <c r="BK37" s="191"/>
+      <c r="BL37" s="191"/>
+      <c r="BM37" s="191"/>
+      <c r="BN37" s="191"/>
+      <c r="BO37" s="191"/>
+      <c r="BP37" s="191"/>
+      <c r="BQ37" s="191"/>
+      <c r="BR37" s="191"/>
+      <c r="BS37" s="191"/>
+      <c r="BT37" s="192"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="39"/>
+    </row>
+    <row r="38" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B38" s="194" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="195" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="196"/>
+      <c r="E38" s="197">
+        <f>SUM(E39:E41)</f>
+        <v>4</v>
+      </c>
+      <c r="F38" s="198">
+        <f>SUM(F39:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="199">
+        <f>SUM(G39:G41)</f>
+        <v>4</v>
+      </c>
+      <c r="H38" s="200"/>
+      <c r="I38" s="206">
+        <v>45938</v>
+      </c>
+      <c r="J38" s="206">
+        <v>45944</v>
+      </c>
+      <c r="K38" s="207">
+        <f>J38-I38+1</f>
+        <v>7</v>
+      </c>
+      <c r="L38" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="74"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="74"/>
+      <c r="AI38" s="74"/>
+      <c r="AJ38" s="74"/>
+      <c r="AK38" s="74"/>
+      <c r="AL38" s="74"/>
+      <c r="AM38" s="74"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="75"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="74"/>
+      <c r="AX38" s="74"/>
+      <c r="AY38" s="74"/>
+      <c r="AZ38" s="74"/>
+      <c r="BA38" s="74"/>
+      <c r="BB38" s="74"/>
+      <c r="BC38" s="74"/>
+      <c r="BD38" s="74"/>
+      <c r="BE38" s="75"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="74"/>
+      <c r="BH38" s="74"/>
+      <c r="BI38" s="74"/>
+      <c r="BJ38" s="74"/>
+      <c r="BK38" s="191"/>
+      <c r="BL38" s="191"/>
+      <c r="BM38" s="191"/>
+      <c r="BN38" s="191"/>
+      <c r="BO38" s="191"/>
+      <c r="BP38" s="191"/>
+      <c r="BQ38" s="191"/>
+      <c r="BR38" s="191"/>
+      <c r="BS38" s="191"/>
+      <c r="BT38" s="192"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="39"/>
+    </row>
+    <row r="39" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B39" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="153">
+        <v>2</v>
+      </c>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155">
+        <f>E39-F39</f>
+        <v>2</v>
+      </c>
+      <c r="H39" s="212"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="201">
+        <f>IFERROR(F39/E39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="73"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="74"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="74"/>
+      <c r="AF39" s="74"/>
+      <c r="AG39" s="74"/>
+      <c r="AH39" s="74"/>
+      <c r="AI39" s="74"/>
+      <c r="AJ39" s="74"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="74"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="75"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="74"/>
+      <c r="AS39" s="74"/>
+      <c r="AT39" s="74"/>
+      <c r="AU39" s="74"/>
+      <c r="AV39" s="74"/>
+      <c r="AW39" s="74"/>
+      <c r="AX39" s="74"/>
+      <c r="AY39" s="74"/>
+      <c r="AZ39" s="74"/>
+      <c r="BA39" s="74"/>
+      <c r="BB39" s="74"/>
+      <c r="BC39" s="74"/>
+      <c r="BD39" s="74"/>
+      <c r="BE39" s="75"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="74"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="74"/>
+      <c r="BJ39" s="74"/>
+      <c r="BK39" s="191"/>
+      <c r="BL39" s="191"/>
+      <c r="BM39" s="191"/>
+      <c r="BN39" s="191"/>
+      <c r="BO39" s="191"/>
+      <c r="BP39" s="191"/>
+      <c r="BQ39" s="191"/>
+      <c r="BR39" s="191"/>
+      <c r="BS39" s="191"/>
+      <c r="BT39" s="192"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="39"/>
+    </row>
+    <row r="40" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B40" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="153">
+        <v>1</v>
+      </c>
+      <c r="F40" s="154"/>
+      <c r="G40" s="155">
+        <f>E40-F40</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="212"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="73"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="73"/>
+      <c r="AC40" s="74"/>
+      <c r="AD40" s="74"/>
+      <c r="AE40" s="74"/>
+      <c r="AF40" s="74"/>
+      <c r="AG40" s="74"/>
+      <c r="AH40" s="74"/>
+      <c r="AI40" s="74"/>
+      <c r="AJ40" s="74"/>
+      <c r="AK40" s="74"/>
+      <c r="AL40" s="74"/>
+      <c r="AM40" s="74"/>
+      <c r="AN40" s="74"/>
+      <c r="AO40" s="74"/>
+      <c r="AP40" s="75"/>
+      <c r="AQ40" s="73"/>
+      <c r="AR40" s="74"/>
+      <c r="AS40" s="74"/>
+      <c r="AT40" s="74"/>
+      <c r="AU40" s="74"/>
+      <c r="AV40" s="74"/>
+      <c r="AW40" s="74"/>
+      <c r="AX40" s="74"/>
+      <c r="AY40" s="74"/>
+      <c r="AZ40" s="74"/>
+      <c r="BA40" s="74"/>
+      <c r="BB40" s="74"/>
+      <c r="BC40" s="74"/>
+      <c r="BD40" s="74"/>
+      <c r="BE40" s="75"/>
+      <c r="BF40" s="73"/>
+      <c r="BG40" s="74"/>
+      <c r="BH40" s="74"/>
+      <c r="BI40" s="74"/>
+      <c r="BJ40" s="74"/>
+      <c r="BK40" s="191"/>
+      <c r="BL40" s="191"/>
+      <c r="BM40" s="191"/>
+      <c r="BN40" s="191"/>
+      <c r="BO40" s="191"/>
+      <c r="BP40" s="191"/>
+      <c r="BQ40" s="191"/>
+      <c r="BR40" s="191"/>
+      <c r="BS40" s="191"/>
+      <c r="BT40" s="192"/>
+      <c r="BU40" s="38"/>
+      <c r="BV40" s="39"/>
+    </row>
+    <row r="41" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B41" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="153">
+        <v>1</v>
+      </c>
+      <c r="F41" s="154"/>
+      <c r="G41" s="155">
+        <f>E41-F41</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="212"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="213"/>
+      <c r="L41" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="73"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="74"/>
+      <c r="AI41" s="74"/>
+      <c r="AJ41" s="74"/>
+      <c r="AK41" s="74"/>
+      <c r="AL41" s="74"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="74"/>
+      <c r="AO41" s="74"/>
+      <c r="AP41" s="75"/>
+      <c r="AQ41" s="73"/>
+      <c r="AR41" s="74"/>
+      <c r="AS41" s="74"/>
+      <c r="AT41" s="74"/>
+      <c r="AU41" s="74"/>
+      <c r="AV41" s="74"/>
+      <c r="AW41" s="74"/>
+      <c r="AX41" s="74"/>
+      <c r="AY41" s="74"/>
+      <c r="AZ41" s="74"/>
+      <c r="BA41" s="74"/>
+      <c r="BB41" s="74"/>
+      <c r="BC41" s="74"/>
+      <c r="BD41" s="74"/>
+      <c r="BE41" s="75"/>
+      <c r="BF41" s="73"/>
+      <c r="BG41" s="74"/>
+      <c r="BH41" s="74"/>
+      <c r="BI41" s="74"/>
+      <c r="BJ41" s="74"/>
+      <c r="BK41" s="191"/>
+      <c r="BL41" s="191"/>
+      <c r="BM41" s="191"/>
+      <c r="BN41" s="191"/>
+      <c r="BO41" s="191"/>
+      <c r="BP41" s="191"/>
+      <c r="BQ41" s="191"/>
+      <c r="BR41" s="191"/>
+      <c r="BS41" s="191"/>
+      <c r="BT41" s="192"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="39"/>
+    </row>
+    <row r="42" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="224" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="224" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="224" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="224" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="224" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="38"/>
+      <c r="AS42" s="38"/>
+      <c r="AT42" s="38"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="38"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+      <c r="BH42" s="38"/>
+      <c r="BI42" s="38"/>
+      <c r="BJ42" s="38"/>
+      <c r="BK42" s="38"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+      <c r="BO42" s="38"/>
+      <c r="BP42" s="38"/>
+      <c r="BQ42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="39"/>
+    </row>
+    <row r="43" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B43" s="38"/>
+      <c r="C43" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="215" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="216">
+        <f>SUM(E11:E13,E15:E17,E19:E21,E23:E25,E27:E29,E39:E41)</f>
+        <v>40</v>
+      </c>
+      <c r="F43" s="216">
+        <f>SUM(F11:F13,F15:F17,F19:F21,F23:F25,F27:F29,F39:F41)</f>
+        <v>6</v>
+      </c>
+      <c r="G43" s="216">
+        <f>SUM(G11:G13,G15:G17,G19:G21,G23:G25,G27:G29,G39:G41)</f>
+        <v>34</v>
+      </c>
+      <c r="H43" s="217">
+        <v>7</v>
+      </c>
+      <c r="I43" s="218">
+        <f>E43/H43</f>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="182" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" s="95">
+        <v>1</v>
+      </c>
+      <c r="N43" s="95">
+        <v>2</v>
+      </c>
+      <c r="O43" s="95">
+        <v>3</v>
+      </c>
+      <c r="P43" s="95">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="95">
+        <v>5</v>
+      </c>
+      <c r="R43" s="95">
+        <v>6</v>
+      </c>
+      <c r="S43" s="95">
+        <v>7</v>
+      </c>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="95"/>
+      <c r="AO43" s="95"/>
+      <c r="AP43" s="95"/>
+      <c r="AQ43" s="95"/>
+      <c r="AR43" s="95"/>
+      <c r="AS43" s="95"/>
+      <c r="AT43" s="95"/>
+      <c r="AU43" s="95"/>
+      <c r="AV43" s="95"/>
+      <c r="AW43" s="95"/>
+      <c r="AX43" s="95"/>
+      <c r="AY43" s="95"/>
+      <c r="AZ43" s="95"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="95"/>
+      <c r="BC43" s="95"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="95"/>
+      <c r="BF43" s="95"/>
+      <c r="BG43" s="95"/>
+      <c r="BH43" s="95"/>
+      <c r="BI43" s="95"/>
+      <c r="BJ43" s="95"/>
+      <c r="BK43" s="95"/>
+      <c r="BL43" s="95"/>
+      <c r="BM43" s="95"/>
+      <c r="BN43" s="95"/>
+      <c r="BO43" s="95"/>
+      <c r="BP43" s="95"/>
+      <c r="BQ43" s="95"/>
+      <c r="BR43" s="95"/>
+      <c r="BS43" s="95"/>
+      <c r="BT43" s="95"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="182" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" s="97">
+        <f>E43</f>
+        <v>40</v>
+      </c>
+      <c r="N44" s="98">
+        <f>M44-I43</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="O44" s="98">
+        <f>N44-I43</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="P44" s="98">
+        <f>O44-I43</f>
+        <v>22.857142857142854</v>
+      </c>
+      <c r="Q44" s="98">
+        <f>P44-I43</f>
+        <v>17.142857142857139</v>
+      </c>
+      <c r="R44" s="98">
+        <f>Q44-I43</f>
+        <v>11.428571428571423</v>
+      </c>
+      <c r="S44" s="98">
+        <f>R44-I43</f>
+        <v>5.7142857142857091</v>
+      </c>
+      <c r="T44" s="98"/>
+      <c r="U44" s="98"/>
+      <c r="V44" s="98"/>
+      <c r="W44" s="98"/>
+      <c r="X44" s="98"/>
+      <c r="Y44" s="98"/>
+      <c r="Z44" s="98"/>
+      <c r="AA44" s="98"/>
+      <c r="AB44" s="98"/>
+      <c r="AC44" s="98"/>
+      <c r="AD44" s="98"/>
+      <c r="AE44" s="98"/>
+      <c r="AF44" s="98"/>
+      <c r="AG44" s="98"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="98"/>
+      <c r="AM44" s="98"/>
+      <c r="AN44" s="98"/>
+      <c r="AO44" s="98"/>
+      <c r="AP44" s="98"/>
+      <c r="AQ44" s="98"/>
+      <c r="AR44" s="98"/>
+      <c r="AS44" s="98"/>
+      <c r="AT44" s="98"/>
+      <c r="AU44" s="98"/>
+      <c r="AV44" s="98"/>
+      <c r="AW44" s="98"/>
+      <c r="AX44" s="98"/>
+      <c r="AY44" s="98"/>
+      <c r="AZ44" s="98"/>
+      <c r="BA44" s="98"/>
+      <c r="BB44" s="98"/>
+      <c r="BC44" s="98"/>
+      <c r="BD44" s="98"/>
+      <c r="BE44" s="98"/>
+      <c r="BF44" s="98"/>
+      <c r="BG44" s="98"/>
+      <c r="BH44" s="98"/>
+      <c r="BI44" s="98"/>
+      <c r="BJ44" s="98"/>
+      <c r="BK44" s="98"/>
+      <c r="BL44" s="98"/>
+      <c r="BM44" s="98"/>
+      <c r="BN44" s="98"/>
+      <c r="BO44" s="98"/>
+      <c r="BP44" s="98"/>
+      <c r="BQ44" s="98"/>
+      <c r="BR44" s="98"/>
+      <c r="BS44" s="98"/>
+      <c r="BT44" s="98"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="97">
+        <f>E43</f>
+        <v>40</v>
+      </c>
+      <c r="N45" s="97">
+        <f t="shared" ref="N45:S45" si="3">M47</f>
+        <v>34</v>
+      </c>
+      <c r="O45" s="97">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="P45" s="97">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="Q45" s="97">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="R45" s="97">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S45" s="97">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="97"/>
+      <c r="AK45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="97"/>
+      <c r="AN45" s="97"/>
+      <c r="AO45" s="97"/>
+      <c r="AP45" s="97"/>
+      <c r="AQ45" s="97"/>
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="97"/>
+      <c r="AX45" s="97"/>
+      <c r="AY45" s="97"/>
+      <c r="AZ45" s="97"/>
+      <c r="BA45" s="97"/>
+      <c r="BB45" s="97"/>
+      <c r="BC45" s="97"/>
+      <c r="BD45" s="97"/>
+      <c r="BE45" s="97"/>
+      <c r="BF45" s="97"/>
+      <c r="BG45" s="97"/>
+      <c r="BH45" s="97"/>
+      <c r="BI45" s="97"/>
+      <c r="BJ45" s="97"/>
+      <c r="BK45" s="97"/>
+      <c r="BL45" s="97"/>
+      <c r="BM45" s="97"/>
+      <c r="BN45" s="97"/>
+      <c r="BO45" s="97"/>
+      <c r="BP45" s="97"/>
+      <c r="BQ45" s="97"/>
+      <c r="BR45" s="97"/>
+      <c r="BS45" s="97"/>
+      <c r="BT45" s="97"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="139">
+        <f>SUM(M45:BT45)</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="182" t="s">
+        <v>51</v>
+      </c>
+      <c r="M46" s="76">
+        <v>6</v>
+      </c>
+      <c r="N46" s="76">
+        <v>0</v>
+      </c>
+      <c r="O46" s="76">
+        <v>0</v>
+      </c>
+      <c r="P46" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="76">
+        <v>0</v>
+      </c>
+      <c r="R46" s="76">
+        <v>0</v>
+      </c>
+      <c r="S46" s="76">
+        <v>0</v>
+      </c>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="76"/>
+      <c r="AB46" s="76"/>
+      <c r="AC46" s="76"/>
+      <c r="AD46" s="76"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="76"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="76"/>
+      <c r="AP46" s="76"/>
+      <c r="AQ46" s="76"/>
+      <c r="AR46" s="76"/>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="76"/>
+      <c r="AU46" s="76"/>
+      <c r="AV46" s="76"/>
+      <c r="AW46" s="76"/>
+      <c r="AX46" s="76"/>
+      <c r="AY46" s="76"/>
+      <c r="AZ46" s="76"/>
+      <c r="BA46" s="76"/>
+      <c r="BB46" s="76"/>
+      <c r="BC46" s="76"/>
+      <c r="BD46" s="76"/>
+      <c r="BE46" s="76"/>
+      <c r="BF46" s="76"/>
+      <c r="BG46" s="76"/>
+      <c r="BH46" s="76"/>
+      <c r="BI46" s="76"/>
+      <c r="BJ46" s="76"/>
+      <c r="BK46" s="76"/>
+      <c r="BL46" s="76"/>
+      <c r="BM46" s="76"/>
+      <c r="BN46" s="76"/>
+      <c r="BO46" s="76"/>
+      <c r="BP46" s="76"/>
+      <c r="BQ46" s="76"/>
+      <c r="BR46" s="76"/>
+      <c r="BS46" s="76"/>
+      <c r="BT46" s="76"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="140">
+        <f>SUM(M46:BT46)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="182" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="97">
+        <f t="shared" ref="M47:S47" si="4">M45-M46</f>
+        <v>34</v>
+      </c>
+      <c r="N47" s="97">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="O47" s="97">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="P47" s="97">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q47" s="97">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="R47" s="97">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="S47" s="97">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="T47" s="97"/>
+      <c r="U47" s="97"/>
+      <c r="V47" s="97"/>
+      <c r="W47" s="97"/>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="97"/>
+      <c r="Z47" s="97"/>
+      <c r="AA47" s="97"/>
+      <c r="AB47" s="97"/>
+      <c r="AC47" s="97"/>
+      <c r="AD47" s="97"/>
+      <c r="AE47" s="97"/>
+      <c r="AF47" s="97"/>
+      <c r="AG47" s="97"/>
+      <c r="AH47" s="97"/>
+      <c r="AI47" s="97"/>
+      <c r="AJ47" s="97"/>
+      <c r="AK47" s="97"/>
+      <c r="AL47" s="97"/>
+      <c r="AM47" s="97"/>
+      <c r="AN47" s="97"/>
+      <c r="AO47" s="97"/>
+      <c r="AP47" s="97"/>
+      <c r="AQ47" s="97"/>
+      <c r="AR47" s="97"/>
+      <c r="AS47" s="97"/>
+      <c r="AT47" s="97"/>
+      <c r="AU47" s="97"/>
+      <c r="AV47" s="97"/>
+      <c r="AW47" s="97"/>
+      <c r="AX47" s="97"/>
+      <c r="AY47" s="97"/>
+      <c r="AZ47" s="97"/>
+      <c r="BA47" s="97"/>
+      <c r="BB47" s="97"/>
+      <c r="BC47" s="97"/>
+      <c r="BD47" s="97"/>
+      <c r="BE47" s="97"/>
+      <c r="BF47" s="97"/>
+      <c r="BG47" s="97"/>
+      <c r="BH47" s="97"/>
+      <c r="BI47" s="97"/>
+      <c r="BJ47" s="97"/>
+      <c r="BK47" s="97"/>
+      <c r="BL47" s="97"/>
+      <c r="BM47" s="97"/>
+      <c r="BN47" s="97"/>
+      <c r="BO47" s="97"/>
+      <c r="BP47" s="97"/>
+      <c r="BQ47" s="97"/>
+      <c r="BR47" s="97"/>
+      <c r="BS47" s="97"/>
+      <c r="BT47" s="97"/>
+      <c r="BU47" s="38"/>
+      <c r="BV47" s="140">
+        <f>SUM(M47:BT47)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="2:74" ht="19.5" customHeight="1">
+      <c r="C48" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="210"/>
+    </row>
+    <row r="49" spans="2:74" ht="381.95" customHeight="1"/>
+    <row r="50" spans="2:74" ht="216.95" customHeight="1"/>
+    <row r="52" spans="2:74" ht="50.1" customHeight="1">
+      <c r="B52" s="237"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="238"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="238"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="238"/>
+      <c r="I52" s="238"/>
+      <c r="J52" s="238"/>
+      <c r="K52" s="238"/>
+      <c r="L52" s="238"/>
+      <c r="M52" s="238"/>
+      <c r="N52" s="238"/>
+      <c r="O52" s="238"/>
+      <c r="P52" s="238"/>
+      <c r="Q52" s="238"/>
+      <c r="R52" s="238"/>
+      <c r="S52" s="238"/>
+      <c r="T52" s="238"/>
+      <c r="U52" s="238"/>
+      <c r="V52" s="238"/>
+      <c r="W52" s="238"/>
+      <c r="X52" s="238"/>
+      <c r="Y52" s="238"/>
+      <c r="Z52" s="238"/>
+      <c r="AA52" s="238"/>
+      <c r="AB52" s="238"/>
+      <c r="AC52" s="238"/>
+      <c r="AD52" s="238"/>
+      <c r="AE52" s="238"/>
+      <c r="AF52" s="238"/>
+      <c r="AG52" s="238"/>
+      <c r="AH52" s="238"/>
+      <c r="AI52" s="238"/>
+      <c r="AJ52" s="238"/>
+      <c r="AK52" s="238"/>
+      <c r="AL52" s="238"/>
+      <c r="AM52" s="238"/>
+      <c r="AN52" s="238"/>
+      <c r="AO52" s="238"/>
+      <c r="AP52" s="238"/>
+      <c r="AQ52" s="238"/>
+      <c r="AR52" s="238"/>
+      <c r="AS52" s="238"/>
+      <c r="AT52" s="238"/>
+      <c r="AU52" s="238"/>
+      <c r="AV52" s="238"/>
+      <c r="AW52" s="238"/>
+      <c r="AX52" s="238"/>
+      <c r="AY52" s="238"/>
+      <c r="AZ52" s="238"/>
+      <c r="BA52" s="238"/>
+      <c r="BB52" s="238"/>
+      <c r="BC52" s="238"/>
+      <c r="BD52" s="238"/>
+      <c r="BE52" s="238"/>
+      <c r="BF52" s="238"/>
+      <c r="BG52" s="238"/>
+      <c r="BH52" s="238"/>
+      <c r="BI52" s="238"/>
+      <c r="BJ52" s="238"/>
+      <c r="BK52" s="238"/>
+      <c r="BL52" s="238"/>
+      <c r="BM52" s="238"/>
+      <c r="BN52" s="238"/>
+      <c r="BO52" s="238"/>
+      <c r="BP52" s="238"/>
+      <c r="BQ52" s="238"/>
+      <c r="BR52" s="238"/>
+      <c r="BS52" s="238"/>
+      <c r="BT52" s="238"/>
+      <c r="BU52" s="238"/>
+      <c r="BV52" s="239"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="B52:BV52"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AK8"/>
+  </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <conditionalFormatting sqref="L10:L29 L31:L33 L35:L41">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{38F72712-EAF7-43D8-BF57-58E3FA9CFB73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L29 L31:L33 L35:L41">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L29 L31:L33 L35:L41">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C166FBB9-9C36-427C-AE93-298BADBCFE70}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9339EBA1-136C-4282-A0C4-BC22455A9084}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F1FB5F7-86BA-4991-A8B1-149B26FAE7C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{254823BC-A702-4AF5-AA75-89DD3C659C56}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C4CD6D0-1703-4EB7-83A8-D6967A2DC90E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1887DA58-88C9-4BA8-9FC9-CED9EC3B6C8D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C46B3AFA-96B2-454A-B5F6-137982DB815F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{37703F78-D4DE-4801-AE96-16F1EFA95CB2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
+  <pageSetup scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{38F72712-EAF7-43D8-BF57-58E3FA9CFB73}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L10:L29 L31:L33 L35:L41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C166FBB9-9C36-427C-AE93-298BADBCFE70}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9339EBA1-136C-4282-A0C4-BC22455A9084}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L10:L29 L31:L33 L35:L41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6F1FB5F7-86BA-4991-A8B1-149B26FAE7C6}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{254823BC-A702-4AF5-AA75-89DD3C659C56}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1C4CD6D0-1703-4EB7-83A8-D6967A2DC90E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1887DA58-88C9-4BA8-9FC9-CED9EC3B6C8D}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C46B3AFA-96B2-454A-B5F6-137982DB815F}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{37703F78-D4DE-4801-AE96-16F1EFA95CB2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097109D2-447F-4F39-A4BD-92E74C4EFF49}">
   <dimension ref="B3:I9"/>
   <sheetViews>
@@ -19742,7 +25323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -19858,7 +25439,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="238" t="s">
+      <c r="K2" s="243" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="42" t="s">
@@ -19937,7 +25518,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="239"/>
+      <c r="K3" s="244"/>
       <c r="L3" s="47" t="s">
         <v>3</v>
       </c>
@@ -20014,7 +25595,7 @@
       <c r="H4" s="37"/>
       <c r="I4" s="36"/>
       <c r="J4" s="37"/>
-      <c r="K4" s="239"/>
+      <c r="K4" s="244"/>
       <c r="L4" s="52" t="s">
         <v>4</v>
       </c>
@@ -20091,7 +25672,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="239"/>
+      <c r="K5" s="244"/>
       <c r="L5" s="54" t="s">
         <v>5</v>
       </c>
@@ -20168,7 +25749,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="240"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="56" t="s">
         <v>6</v>
       </c>
@@ -20236,126 +25817,126 @@
       <c r="BV6" s="39"/>
     </row>
     <row r="7" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="259" t="s">
+      <c r="D7" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="235" t="s">
+      <c r="E7" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="236"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="257" t="s">
+      <c r="F7" s="241"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="261" t="s">
+      <c r="I7" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="262" t="s">
+      <c r="J7" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="241" t="s">
+      <c r="K7" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="243" t="s">
+      <c r="L7" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="245" t="s">
+      <c r="M7" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="247"/>
-      <c r="R7" s="248" t="s">
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="251"/>
+      <c r="Q7" s="252"/>
+      <c r="R7" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="246"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="248" t="s">
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="252"/>
+      <c r="W7" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="246"/>
-      <c r="Y7" s="246"/>
-      <c r="Z7" s="246"/>
-      <c r="AA7" s="247"/>
-      <c r="AB7" s="250" t="s">
+      <c r="X7" s="251"/>
+      <c r="Y7" s="251"/>
+      <c r="Z7" s="251"/>
+      <c r="AA7" s="252"/>
+      <c r="AB7" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="246"/>
-      <c r="AD7" s="246"/>
-      <c r="AE7" s="246"/>
-      <c r="AF7" s="247"/>
-      <c r="AG7" s="251" t="s">
+      <c r="AC7" s="251"/>
+      <c r="AD7" s="251"/>
+      <c r="AE7" s="251"/>
+      <c r="AF7" s="252"/>
+      <c r="AG7" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" s="246"/>
-      <c r="AI7" s="246"/>
-      <c r="AJ7" s="246"/>
-      <c r="AK7" s="247"/>
-      <c r="AL7" s="251" t="s">
+      <c r="AH7" s="251"/>
+      <c r="AI7" s="251"/>
+      <c r="AJ7" s="251"/>
+      <c r="AK7" s="252"/>
+      <c r="AL7" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="AM7" s="246"/>
-      <c r="AN7" s="246"/>
-      <c r="AO7" s="246"/>
-      <c r="AP7" s="247"/>
-      <c r="AQ7" s="249" t="s">
+      <c r="AM7" s="251"/>
+      <c r="AN7" s="251"/>
+      <c r="AO7" s="251"/>
+      <c r="AP7" s="252"/>
+      <c r="AQ7" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="AR7" s="246"/>
-      <c r="AS7" s="246"/>
-      <c r="AT7" s="246"/>
-      <c r="AU7" s="247"/>
-      <c r="AV7" s="252" t="s">
+      <c r="AR7" s="251"/>
+      <c r="AS7" s="251"/>
+      <c r="AT7" s="251"/>
+      <c r="AU7" s="252"/>
+      <c r="AV7" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="246"/>
-      <c r="AX7" s="246"/>
-      <c r="AY7" s="246"/>
-      <c r="AZ7" s="247"/>
-      <c r="BA7" s="252" t="s">
+      <c r="AW7" s="251"/>
+      <c r="AX7" s="251"/>
+      <c r="AY7" s="251"/>
+      <c r="AZ7" s="252"/>
+      <c r="BA7" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="BB7" s="246"/>
-      <c r="BC7" s="246"/>
-      <c r="BD7" s="246"/>
-      <c r="BE7" s="247"/>
-      <c r="BF7" s="253" t="s">
+      <c r="BB7" s="251"/>
+      <c r="BC7" s="251"/>
+      <c r="BD7" s="251"/>
+      <c r="BE7" s="252"/>
+      <c r="BF7" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="BG7" s="246"/>
-      <c r="BH7" s="246"/>
-      <c r="BI7" s="246"/>
-      <c r="BJ7" s="247"/>
-      <c r="BK7" s="265" t="s">
+      <c r="BG7" s="251"/>
+      <c r="BH7" s="251"/>
+      <c r="BI7" s="251"/>
+      <c r="BJ7" s="252"/>
+      <c r="BK7" s="270" t="s">
         <v>26</v>
       </c>
-      <c r="BL7" s="246"/>
-      <c r="BM7" s="246"/>
-      <c r="BN7" s="246"/>
-      <c r="BO7" s="247"/>
-      <c r="BP7" s="265" t="s">
+      <c r="BL7" s="251"/>
+      <c r="BM7" s="251"/>
+      <c r="BN7" s="251"/>
+      <c r="BO7" s="252"/>
+      <c r="BP7" s="270" t="s">
         <v>27</v>
       </c>
-      <c r="BQ7" s="246"/>
-      <c r="BR7" s="246"/>
-      <c r="BS7" s="246"/>
-      <c r="BT7" s="247"/>
+      <c r="BQ7" s="251"/>
+      <c r="BR7" s="251"/>
+      <c r="BS7" s="251"/>
+      <c r="BT7" s="252"/>
       <c r="BU7" s="38"/>
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="256"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="260"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="265"/>
       <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
@@ -20365,11 +25946,11 @@
       <c r="G8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="258"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="244"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="247"/>
+      <c r="L8" s="249"/>
       <c r="M8" s="61" t="s">
         <v>31</v>
       </c>
@@ -23927,7 +29508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -24662,7 +30243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
